--- a/ЗАВОДЫ/Останкино/2025/заказы/Ташкент/2025/06,25/23,06,25 Ост КИ Ташкент/дв 23,06,25 тшрсч ост ки от Лыгина.xlsx
+++ b/ЗАВОДЫ/Останкино/2025/заказы/Ташкент/2025/06,25/23,06,25 Ост КИ Ташкент/дв 23,06,25 тшрсч ост ки от Лыгина.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ПОКОМ_Останкино\2025_05\РАБОЧИЙ СТОЛ\23,06,25 Ост КИ Ташкент\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ПОКОМ_Останкино\2025_05\ЗАВОДЫ\Останкино\2025\заказы\Ташкент\2025\06,25\23,06,25 Ост КИ Ташкент\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D66F3655-D5B7-40D9-BB70-345AD29943D4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04AF2FD9-8F6E-45D3-863F-20D6D9AAABD1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,7 +18,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet!$A$3:$AG$25</definedName>
   </definedNames>
-  <calcPr calcId="181029" refMode="R1C1"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -219,7 +219,7 @@
     <t>заказ</t>
   </si>
   <si>
-    <t>01,07,</t>
+    <t>ОТМЕНА</t>
   </si>
 </sst>
 </file>
@@ -240,17 +240,23 @@
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
     <font>
       <b/>
@@ -338,7 +344,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
@@ -356,6 +362,7 @@
     <xf numFmtId="2" fontId="1" fillId="6" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="164" fontId="1" fillId="6" borderId="2" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="4" fillId="7" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="1" fillId="7" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Arial10px" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -665,7 +672,7 @@
       <pane xSplit="2" ySplit="5" topLeftCell="C6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="S6" sqref="S6"/>
+      <selection pane="bottomRight" activeCell="S9" sqref="S9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -930,7 +937,7 @@
       <c r="P4" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="Q4" s="1" t="s">
+      <c r="Q4" s="17" t="s">
         <v>62</v>
       </c>
       <c r="R4" s="1"/>

--- a/ЗАВОДЫ/Останкино/2025/заказы/Ташкент/2025/06,25/23,06,25 Ост КИ Ташкент/дв 23,06,25 тшрсч ост ки от Лыгина.xlsx
+++ b/ЗАВОДЫ/Останкино/2025/заказы/Ташкент/2025/06,25/23,06,25 Ост КИ Ташкент/дв 23,06,25 тшрсч ост ки от Лыгина.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ПОКОМ_Останкино\2025_05\ЗАВОДЫ\Останкино\2025\заказы\Ташкент\2025\06,25\23,06,25 Ост КИ Ташкент\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Father\Work\2025_05\ЗАВОДЫ\Останкино\2025\заказы\Ташкент\2025\06,25\23,06,25 Ост КИ Ташкент\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04AF2FD9-8F6E-45D3-863F-20D6D9AAABD1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A62ECC5-34B6-49E0-A967-028E9CEFC3FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,22 +16,14 @@
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet!$A$3:$AG$25</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet!$A$3:$AH$25</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="64">
   <si>
     <t>Номенклатура</t>
   </si>
@@ -220,6 +212,9 @@
   </si>
   <si>
     <t>ОТМЕНА</t>
+  </si>
+  <si>
+    <t>метка2</t>
   </si>
 </sst>
 </file>
@@ -666,13 +661,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AW500"/>
+  <dimension ref="A1:AX500"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" workbookViewId="0">
       <pane xSplit="2" ySplit="5" topLeftCell="C6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="S9" sqref="S9"/>
+      <selection pane="bottomRight" activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -683,19 +678,19 @@
     <col min="5" max="6" width="7" customWidth="1"/>
     <col min="7" max="7" width="5" style="9" customWidth="1"/>
     <col min="8" max="8" width="5" customWidth="1"/>
-    <col min="9" max="9" width="12" customWidth="1"/>
-    <col min="10" max="13" width="0.5703125" customWidth="1"/>
-    <col min="14" max="18" width="7" customWidth="1"/>
-    <col min="19" max="19" width="14" customWidth="1"/>
-    <col min="20" max="21" width="5" customWidth="1"/>
-    <col min="22" max="31" width="6" customWidth="1"/>
-    <col min="32" max="32" width="36.42578125" customWidth="1"/>
-    <col min="33" max="33" width="7" customWidth="1"/>
-    <col min="34" max="34" width="0.7109375" customWidth="1"/>
-    <col min="35" max="49" width="8" customWidth="1"/>
+    <col min="9" max="10" width="12" customWidth="1"/>
+    <col min="11" max="14" width="0.5703125" customWidth="1"/>
+    <col min="15" max="19" width="7" customWidth="1"/>
+    <col min="20" max="20" width="14" customWidth="1"/>
+    <col min="21" max="22" width="5" customWidth="1"/>
+    <col min="23" max="32" width="6" customWidth="1"/>
+    <col min="33" max="33" width="36.42578125" customWidth="1"/>
+    <col min="34" max="34" width="7" customWidth="1"/>
+    <col min="35" max="35" width="0.7109375" customWidth="1"/>
+    <col min="36" max="50" width="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -745,8 +740,9 @@
       <c r="AU1" s="1"/>
       <c r="AV1" s="1"/>
       <c r="AW1" s="1"/>
-    </row>
-    <row r="2" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="AX1" s="1"/>
+    </row>
+    <row r="2" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -796,8 +792,9 @@
       <c r="AU2" s="1"/>
       <c r="AV2" s="1"/>
       <c r="AW2" s="1"/>
-    </row>
-    <row r="3" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="AX2" s="1"/>
+    </row>
+    <row r="3" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
@@ -826,43 +823,43 @@
         <v>8</v>
       </c>
       <c r="J3" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="K3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K3" s="2" t="s">
+      <c r="L3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L3" s="2" t="s">
+      <c r="M3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="M3" s="2" t="s">
+      <c r="N3" s="2" t="s">
         <v>12</v>
-      </c>
-      <c r="N3" s="2" t="s">
-        <v>13</v>
       </c>
       <c r="O3" s="2" t="s">
         <v>13</v>
       </c>
       <c r="P3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="Q3" s="3" t="s">
+      <c r="R3" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="R3" s="6" t="s">
+      <c r="S3" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="S3" s="6" t="s">
+      <c r="T3" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="T3" s="2" t="s">
+      <c r="U3" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="U3" s="2" t="s">
+      <c r="V3" s="2" t="s">
         <v>18</v>
-      </c>
-      <c r="V3" s="2" t="s">
-        <v>19</v>
       </c>
       <c r="W3" s="2" t="s">
         <v>19</v>
@@ -892,12 +889,14 @@
         <v>19</v>
       </c>
       <c r="AF3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="AG3" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="AG3" s="2" t="s">
+      <c r="AH3" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="AH3" s="1"/>
       <c r="AI3" s="1"/>
       <c r="AJ3" s="1"/>
       <c r="AK3" s="1"/>
@@ -913,8 +912,9 @@
       <c r="AU3" s="1"/>
       <c r="AV3" s="1"/>
       <c r="AW3" s="1"/>
-    </row>
-    <row r="4" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="AX3" s="1"/>
+    </row>
+    <row r="4" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -928,53 +928,53 @@
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
-      <c r="N4" s="1" t="s">
+      <c r="N4" s="1"/>
+      <c r="O4" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="O4" s="1" t="s">
+      <c r="P4" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="P4" s="1" t="s">
+      <c r="Q4" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="Q4" s="17" t="s">
+      <c r="R4" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="R4" s="1"/>
       <c r="S4" s="1"/>
       <c r="T4" s="1"/>
       <c r="U4" s="1"/>
-      <c r="V4" s="1" t="s">
+      <c r="V4" s="1"/>
+      <c r="W4" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="W4" s="1" t="s">
+      <c r="X4" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="X4" s="1" t="s">
+      <c r="Y4" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="Y4" s="1" t="s">
+      <c r="Z4" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="Z4" s="1" t="s">
+      <c r="AA4" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="AA4" s="1" t="s">
+      <c r="AB4" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="AB4" s="1" t="s">
+      <c r="AC4" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="AC4" s="1" t="s">
+      <c r="AD4" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="AD4" s="1" t="s">
+      <c r="AE4" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="AE4" s="1" t="s">
+      <c r="AF4" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="AF4" s="1"/>
       <c r="AG4" s="1"/>
       <c r="AH4" s="1"/>
       <c r="AI4" s="1"/>
@@ -992,8 +992,9 @@
       <c r="AU4" s="1"/>
       <c r="AV4" s="1"/>
       <c r="AW4" s="1"/>
-    </row>
-    <row r="5" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="AX4" s="1"/>
+    </row>
+    <row r="5" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
@@ -1009,17 +1010,14 @@
       <c r="G5" s="7"/>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
-      <c r="J5" s="4">
-        <f t="shared" ref="J5:R5" si="0">SUM(J6:J500)</f>
+      <c r="J5" s="1"/>
+      <c r="K5" s="4">
+        <f t="shared" ref="K5:S5" si="0">SUM(K6:K500)</f>
         <v>0</v>
       </c>
-      <c r="K5" s="4">
+      <c r="L5" s="4">
         <f t="shared" si="0"/>
         <v>3688.973</v>
-      </c>
-      <c r="L5" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
       </c>
       <c r="M5" s="4">
         <f t="shared" si="0"/>
@@ -1027,73 +1025,76 @@
       </c>
       <c r="N5" s="4">
         <f t="shared" si="0"/>
-        <v>3100</v>
+        <v>0</v>
       </c>
       <c r="O5" s="4">
         <f t="shared" si="0"/>
-        <v>4540</v>
+        <v>3100</v>
       </c>
       <c r="P5" s="4">
         <f t="shared" si="0"/>
-        <v>737.79460000000006</v>
+        <v>4540</v>
       </c>
       <c r="Q5" s="4">
         <f t="shared" si="0"/>
-        <v>3330</v>
+        <v>737.79460000000006</v>
       </c>
       <c r="R5" s="4">
         <f t="shared" si="0"/>
+        <v>3330</v>
+      </c>
+      <c r="S5" s="4">
+        <f t="shared" si="0"/>
         <v>1674.8299999999997</v>
       </c>
-      <c r="S5" s="1"/>
       <c r="T5" s="1"/>
       <c r="U5" s="1"/>
-      <c r="V5" s="4">
-        <f t="shared" ref="V5:AE5" si="1">SUM(V6:V500)</f>
+      <c r="V5" s="1"/>
+      <c r="W5" s="4">
+        <f t="shared" ref="W5:AF5" si="1">SUM(W6:W500)</f>
         <v>951.96819999999991</v>
       </c>
-      <c r="W5" s="4">
+      <c r="X5" s="4">
         <f t="shared" si="1"/>
         <v>782.94620000000009</v>
       </c>
-      <c r="X5" s="4">
+      <c r="Y5" s="4">
         <f t="shared" si="1"/>
         <v>936.97760000000005</v>
       </c>
-      <c r="Y5" s="4">
+      <c r="Z5" s="4">
         <f t="shared" si="1"/>
         <v>1006.5802000000001</v>
       </c>
-      <c r="Z5" s="4">
+      <c r="AA5" s="4">
         <f t="shared" si="1"/>
         <v>951.29500000000007</v>
       </c>
-      <c r="AA5" s="4">
+      <c r="AB5" s="4">
         <f t="shared" si="1"/>
         <v>907.48180000000002</v>
       </c>
-      <c r="AB5" s="4">
+      <c r="AC5" s="4">
         <f t="shared" si="1"/>
         <v>770.18860000000006</v>
       </c>
-      <c r="AC5" s="4">
+      <c r="AD5" s="4">
         <f t="shared" si="1"/>
         <v>704.7482</v>
       </c>
-      <c r="AD5" s="4">
+      <c r="AE5" s="4">
         <f t="shared" si="1"/>
         <v>573.70260000000007</v>
       </c>
-      <c r="AE5" s="4">
+      <c r="AF5" s="4">
         <f t="shared" si="1"/>
         <v>472.99320000000006</v>
       </c>
-      <c r="AF5" s="1"/>
-      <c r="AG5" s="4">
-        <f>SUM(AG6:AG500)</f>
+      <c r="AG5" s="1"/>
+      <c r="AH5" s="4">
+        <f>SUM(AH6:AH500)</f>
         <v>1709</v>
       </c>
-      <c r="AH5" s="1"/>
       <c r="AI5" s="1"/>
       <c r="AJ5" s="1"/>
       <c r="AK5" s="1"/>
@@ -1109,8 +1110,9 @@
       <c r="AU5" s="1"/>
       <c r="AV5" s="1"/>
       <c r="AW5" s="1"/>
-    </row>
-    <row r="6" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="AX5" s="1"/>
+    </row>
+    <row r="6" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>35</v>
       </c>
@@ -1139,71 +1141,71 @@
         <v>37</v>
       </c>
       <c r="J6" s="1"/>
-      <c r="K6" s="1">
-        <f t="shared" ref="K6:K25" si="2">E6-J6</f>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1">
+        <f t="shared" ref="L6:L25" si="2">E6-K6</f>
         <v>102.502</v>
       </c>
-      <c r="L6" s="1"/>
       <c r="M6" s="1"/>
-      <c r="N6" s="1">
+      <c r="N6" s="1"/>
+      <c r="O6" s="1">
         <v>180</v>
       </c>
-      <c r="O6" s="1">
+      <c r="P6" s="1">
         <v>150</v>
       </c>
-      <c r="P6" s="1">
+      <c r="Q6" s="1">
         <f>E6/5</f>
         <v>20.500399999999999</v>
       </c>
-      <c r="Q6" s="5">
+      <c r="R6" s="5">
         <v>100</v>
       </c>
-      <c r="R6" s="5"/>
-      <c r="S6" s="1"/>
-      <c r="T6" s="1">
-        <f>(F6+N6+O6+Q6)/P6</f>
+      <c r="S6" s="5"/>
+      <c r="T6" s="1"/>
+      <c r="U6" s="1">
+        <f>(F6+O6+P6+R6)/Q6</f>
         <v>24.953561881719381</v>
       </c>
-      <c r="U6" s="1">
-        <f>(F6+N6+O6)/P6</f>
+      <c r="V6" s="1">
+        <f>(F6+O6+P6)/Q6</f>
         <v>20.075608280814034</v>
       </c>
-      <c r="V6" s="1">
+      <c r="W6" s="1">
         <v>26.164999999999999</v>
       </c>
-      <c r="W6" s="1">
+      <c r="X6" s="1">
         <v>30.814</v>
       </c>
-      <c r="X6" s="1">
+      <c r="Y6" s="1">
         <v>24.873200000000001</v>
       </c>
-      <c r="Y6" s="1">
+      <c r="Z6" s="1">
         <v>27.5366</v>
       </c>
-      <c r="Z6" s="1">
+      <c r="AA6" s="1">
         <v>30.623000000000001</v>
       </c>
-      <c r="AA6" s="1">
+      <c r="AB6" s="1">
         <v>21.357199999999999</v>
       </c>
-      <c r="AB6" s="1">
+      <c r="AC6" s="1">
         <v>19.911799999999999</v>
       </c>
-      <c r="AC6" s="1">
+      <c r="AD6" s="1">
         <v>18.874400000000001</v>
       </c>
-      <c r="AD6" s="1">
+      <c r="AE6" s="1">
         <v>29.6374</v>
       </c>
-      <c r="AE6" s="1">
+      <c r="AF6" s="1">
         <v>30.683599999999998</v>
       </c>
-      <c r="AF6" s="1"/>
-      <c r="AG6" s="1">
-        <f t="shared" ref="AG6:AG18" si="3">G6*Q6</f>
+      <c r="AG6" s="1"/>
+      <c r="AH6" s="1">
+        <f t="shared" ref="AH6:AH18" si="3">G6*R6</f>
         <v>100</v>
       </c>
-      <c r="AH6" s="1"/>
       <c r="AI6" s="1"/>
       <c r="AJ6" s="1"/>
       <c r="AK6" s="1"/>
@@ -1219,8 +1221,9 @@
       <c r="AU6" s="1"/>
       <c r="AV6" s="1"/>
       <c r="AW6" s="1"/>
-    </row>
-    <row r="7" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="AX6" s="1"/>
+    </row>
+    <row r="7" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>38</v>
       </c>
@@ -1249,71 +1252,71 @@
         <v>37</v>
       </c>
       <c r="J7" s="1"/>
-      <c r="K7" s="1">
+      <c r="K7" s="1"/>
+      <c r="L7" s="1">
         <f t="shared" si="2"/>
         <v>395</v>
       </c>
-      <c r="L7" s="1"/>
       <c r="M7" s="1"/>
-      <c r="N7" s="1">
+      <c r="N7" s="1"/>
+      <c r="O7" s="1">
         <v>500</v>
       </c>
-      <c r="O7" s="1">
+      <c r="P7" s="1">
         <v>700</v>
       </c>
-      <c r="P7" s="1">
-        <f t="shared" ref="P7:P25" si="4">E7/5</f>
+      <c r="Q7" s="1">
+        <f t="shared" ref="Q7:Q25" si="4">E7/5</f>
         <v>79</v>
       </c>
-      <c r="Q7" s="5">
+      <c r="R7" s="5">
         <v>200</v>
       </c>
-      <c r="R7" s="5"/>
-      <c r="S7" s="1"/>
-      <c r="T7" s="1">
-        <f t="shared" ref="T7:T25" si="5">(F7+N7+O7+Q7)/P7</f>
+      <c r="S7" s="5"/>
+      <c r="T7" s="1"/>
+      <c r="U7" s="1">
+        <f t="shared" ref="U7:U25" si="5">(F7+O7+P7+R7)/Q7</f>
         <v>26.430379746835442</v>
       </c>
-      <c r="U7" s="1">
-        <f t="shared" ref="U7:U25" si="6">(F7+N7+O7)/P7</f>
+      <c r="V7" s="1">
+        <f t="shared" ref="V7:V25" si="6">(F7+O7+P7)/Q7</f>
         <v>23.898734177215189</v>
       </c>
-      <c r="V7" s="1">
+      <c r="W7" s="1">
         <v>119.8</v>
       </c>
-      <c r="W7" s="1">
+      <c r="X7" s="1">
         <v>95.4</v>
       </c>
-      <c r="X7" s="1">
+      <c r="Y7" s="1">
         <v>117.2</v>
       </c>
-      <c r="Y7" s="1">
+      <c r="Z7" s="1">
         <v>115.8</v>
       </c>
-      <c r="Z7" s="1">
+      <c r="AA7" s="1">
         <v>123.6</v>
       </c>
-      <c r="AA7" s="1">
+      <c r="AB7" s="1">
         <v>112.6</v>
       </c>
-      <c r="AB7" s="1">
+      <c r="AC7" s="1">
         <v>129.80000000000001</v>
       </c>
-      <c r="AC7" s="1">
+      <c r="AD7" s="1">
         <v>88.6</v>
       </c>
-      <c r="AD7" s="1">
+      <c r="AE7" s="1">
         <v>109.4</v>
       </c>
-      <c r="AE7" s="1">
+      <c r="AF7" s="1">
         <v>137.80000000000001</v>
       </c>
-      <c r="AF7" s="1"/>
-      <c r="AG7" s="1">
+      <c r="AG7" s="1"/>
+      <c r="AH7" s="1">
         <f t="shared" si="3"/>
         <v>70</v>
       </c>
-      <c r="AH7" s="1"/>
       <c r="AI7" s="1"/>
       <c r="AJ7" s="1"/>
       <c r="AK7" s="1"/>
@@ -1329,8 +1332,9 @@
       <c r="AU7" s="1"/>
       <c r="AV7" s="1"/>
       <c r="AW7" s="1"/>
-    </row>
-    <row r="8" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="AX7" s="1"/>
+    </row>
+    <row r="8" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>40</v>
       </c>
@@ -1359,73 +1363,73 @@
         <v>37</v>
       </c>
       <c r="J8" s="1"/>
-      <c r="K8" s="1">
+      <c r="K8" s="1"/>
+      <c r="L8" s="1">
         <f t="shared" si="2"/>
         <v>102.298</v>
       </c>
-      <c r="L8" s="1"/>
       <c r="M8" s="1"/>
-      <c r="N8" s="1">
+      <c r="N8" s="1"/>
+      <c r="O8" s="1">
         <v>120</v>
       </c>
-      <c r="O8" s="1">
+      <c r="P8" s="1">
         <v>100</v>
       </c>
-      <c r="P8" s="1">
+      <c r="Q8" s="1">
         <f t="shared" si="4"/>
         <v>20.459600000000002</v>
       </c>
-      <c r="Q8" s="5">
+      <c r="R8" s="5">
         <v>150</v>
       </c>
-      <c r="R8" s="5">
+      <c r="S8" s="5">
         <v>170.46100000000001</v>
       </c>
-      <c r="S8" s="1"/>
-      <c r="T8" s="1">
+      <c r="T8" s="1"/>
+      <c r="U8" s="1">
         <f t="shared" si="5"/>
         <v>18.999931572464757</v>
       </c>
-      <c r="U8" s="1">
+      <c r="V8" s="1">
         <f t="shared" si="6"/>
         <v>11.66840993958826</v>
       </c>
-      <c r="V8" s="1">
+      <c r="W8" s="1">
         <v>18.978400000000001</v>
       </c>
-      <c r="W8" s="1">
+      <c r="X8" s="1">
         <v>15.661</v>
       </c>
-      <c r="X8" s="1">
+      <c r="Y8" s="1">
         <v>9.9396000000000004</v>
       </c>
-      <c r="Y8" s="1">
+      <c r="Z8" s="1">
         <v>10.254799999999999</v>
       </c>
-      <c r="Z8" s="1">
+      <c r="AA8" s="1">
         <v>15.002800000000001</v>
       </c>
-      <c r="AA8" s="1">
+      <c r="AB8" s="1">
         <v>7.7793999999999999</v>
       </c>
-      <c r="AB8" s="1">
+      <c r="AC8" s="1">
         <v>3.9405999999999999</v>
       </c>
-      <c r="AC8" s="1">
+      <c r="AD8" s="1">
         <v>1.0524</v>
       </c>
-      <c r="AD8" s="1">
+      <c r="AE8" s="1">
         <v>5.1988000000000003</v>
       </c>
-      <c r="AE8" s="1">
+      <c r="AF8" s="1">
         <v>-0.53760000000000008</v>
       </c>
-      <c r="AF8" s="1"/>
-      <c r="AG8" s="1">
+      <c r="AG8" s="1"/>
+      <c r="AH8" s="1">
         <f t="shared" si="3"/>
         <v>150</v>
       </c>
-      <c r="AH8" s="1"/>
       <c r="AI8" s="1"/>
       <c r="AJ8" s="1"/>
       <c r="AK8" s="1"/>
@@ -1441,8 +1445,9 @@
       <c r="AU8" s="1"/>
       <c r="AV8" s="1"/>
       <c r="AW8" s="1"/>
-    </row>
-    <row r="9" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="AX8" s="1"/>
+    </row>
+    <row r="9" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>41</v>
       </c>
@@ -1471,73 +1476,73 @@
         <v>37</v>
       </c>
       <c r="J9" s="1"/>
-      <c r="K9" s="1">
+      <c r="K9" s="1"/>
+      <c r="L9" s="1">
         <f t="shared" si="2"/>
         <v>308</v>
       </c>
-      <c r="L9" s="1"/>
       <c r="M9" s="1"/>
-      <c r="N9" s="1">
+      <c r="N9" s="1"/>
+      <c r="O9" s="1">
         <v>400</v>
       </c>
-      <c r="O9" s="1">
+      <c r="P9" s="1">
         <v>500</v>
       </c>
-      <c r="P9" s="1">
+      <c r="Q9" s="1">
         <f t="shared" si="4"/>
         <v>61.6</v>
       </c>
-      <c r="Q9" s="5">
+      <c r="R9" s="5">
         <v>200</v>
       </c>
-      <c r="R9" s="5">
+      <c r="S9" s="5">
         <v>59</v>
       </c>
-      <c r="S9" s="1"/>
-      <c r="T9" s="1">
+      <c r="T9" s="1"/>
+      <c r="U9" s="1">
         <f t="shared" si="5"/>
         <v>22.288961038961038</v>
       </c>
-      <c r="U9" s="1">
+      <c r="V9" s="1">
         <f t="shared" si="6"/>
         <v>19.04220779220779</v>
       </c>
-      <c r="V9" s="1">
+      <c r="W9" s="1">
         <v>95.8</v>
       </c>
-      <c r="W9" s="1">
+      <c r="X9" s="1">
         <v>73.2</v>
       </c>
-      <c r="X9" s="1">
+      <c r="Y9" s="1">
         <v>91.8</v>
       </c>
-      <c r="Y9" s="1">
+      <c r="Z9" s="1">
         <v>97.2</v>
       </c>
-      <c r="Z9" s="1">
+      <c r="AA9" s="1">
         <v>70.8</v>
       </c>
-      <c r="AA9" s="1">
+      <c r="AB9" s="1">
         <v>93.8</v>
       </c>
-      <c r="AB9" s="1">
+      <c r="AC9" s="1">
         <v>50</v>
       </c>
-      <c r="AC9" s="1">
+      <c r="AD9" s="1">
         <v>76</v>
       </c>
-      <c r="AD9" s="1">
+      <c r="AE9" s="1">
         <v>103.4</v>
       </c>
-      <c r="AE9" s="1">
+      <c r="AF9" s="1">
         <v>58.4</v>
       </c>
-      <c r="AF9" s="1"/>
-      <c r="AG9" s="1">
+      <c r="AG9" s="1"/>
+      <c r="AH9" s="1">
         <f t="shared" si="3"/>
         <v>70</v>
       </c>
-      <c r="AH9" s="1"/>
       <c r="AI9" s="1"/>
       <c r="AJ9" s="1"/>
       <c r="AK9" s="1"/>
@@ -1553,8 +1558,9 @@
       <c r="AU9" s="1"/>
       <c r="AV9" s="1"/>
       <c r="AW9" s="1"/>
-    </row>
-    <row r="10" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="AX9" s="1"/>
+    </row>
+    <row r="10" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>42</v>
       </c>
@@ -1583,71 +1589,71 @@
         <v>37</v>
       </c>
       <c r="J10" s="1"/>
-      <c r="K10" s="1">
+      <c r="K10" s="1"/>
+      <c r="L10" s="1">
         <f t="shared" si="2"/>
         <v>267</v>
       </c>
-      <c r="L10" s="1"/>
       <c r="M10" s="1"/>
       <c r="N10" s="1"/>
-      <c r="O10" s="1">
+      <c r="O10" s="1"/>
+      <c r="P10" s="1">
         <v>350</v>
       </c>
-      <c r="P10" s="1">
+      <c r="Q10" s="1">
         <f t="shared" si="4"/>
         <v>53.4</v>
       </c>
-      <c r="Q10" s="5">
+      <c r="R10" s="5">
         <v>440</v>
       </c>
-      <c r="R10" s="5">
+      <c r="S10" s="5">
         <v>389</v>
       </c>
-      <c r="S10" s="1"/>
-      <c r="T10" s="1">
+      <c r="T10" s="1"/>
+      <c r="U10" s="1">
         <f t="shared" si="5"/>
         <v>20.95505617977528</v>
       </c>
-      <c r="U10" s="1">
+      <c r="V10" s="1">
         <f t="shared" si="6"/>
         <v>12.715355805243446</v>
       </c>
-      <c r="V10" s="1">
+      <c r="W10" s="1">
         <v>50.8</v>
       </c>
-      <c r="W10" s="1">
+      <c r="X10" s="1">
         <v>34.6</v>
       </c>
-      <c r="X10" s="1">
+      <c r="Y10" s="1">
         <v>70.599999999999994</v>
       </c>
-      <c r="Y10" s="1">
+      <c r="Z10" s="1">
         <v>80.8</v>
       </c>
-      <c r="Z10" s="1">
+      <c r="AA10" s="1">
         <v>0</v>
       </c>
-      <c r="AA10" s="1">
+      <c r="AB10" s="1">
         <v>49.2</v>
       </c>
-      <c r="AB10" s="1">
+      <c r="AC10" s="1">
         <v>56.2</v>
       </c>
-      <c r="AC10" s="1">
+      <c r="AD10" s="1">
         <v>53.8</v>
       </c>
-      <c r="AD10" s="1">
+      <c r="AE10" s="1">
         <v>56.2</v>
       </c>
-      <c r="AE10" s="1">
+      <c r="AF10" s="1">
         <v>28.6</v>
       </c>
-      <c r="AF10" s="1"/>
-      <c r="AG10" s="1">
+      <c r="AG10" s="1"/>
+      <c r="AH10" s="1">
         <f t="shared" si="3"/>
         <v>176</v>
       </c>
-      <c r="AH10" s="1"/>
       <c r="AI10" s="1"/>
       <c r="AJ10" s="1"/>
       <c r="AK10" s="1"/>
@@ -1663,8 +1669,9 @@
       <c r="AU10" s="1"/>
       <c r="AV10" s="1"/>
       <c r="AW10" s="1"/>
-    </row>
-    <row r="11" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="AX10" s="1"/>
+    </row>
+    <row r="11" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>43</v>
       </c>
@@ -1691,71 +1698,71 @@
         <v>37</v>
       </c>
       <c r="J11" s="1"/>
-      <c r="K11" s="1">
+      <c r="K11" s="1"/>
+      <c r="L11" s="1">
         <f t="shared" si="2"/>
         <v>65.656999999999996</v>
       </c>
-      <c r="L11" s="1"/>
       <c r="M11" s="1"/>
-      <c r="N11" s="1">
+      <c r="N11" s="1"/>
+      <c r="O11" s="1">
         <v>30</v>
       </c>
-      <c r="O11" s="1"/>
-      <c r="P11" s="1">
+      <c r="P11" s="1"/>
+      <c r="Q11" s="1">
         <f t="shared" si="4"/>
         <v>13.131399999999999</v>
       </c>
-      <c r="Q11" s="5">
+      <c r="R11" s="5">
         <v>100</v>
       </c>
-      <c r="R11" s="5">
+      <c r="S11" s="5">
         <v>124.61099999999999</v>
       </c>
-      <c r="S11" s="1"/>
-      <c r="T11" s="1">
+      <c r="T11" s="1"/>
+      <c r="U11" s="1">
         <f t="shared" si="5"/>
         <v>18.12579009092709</v>
       </c>
-      <c r="U11" s="1">
+      <c r="V11" s="1">
         <f t="shared" si="6"/>
         <v>10.510455853907429</v>
       </c>
-      <c r="V11" s="1">
+      <c r="W11" s="1">
         <v>8.9922000000000004</v>
       </c>
-      <c r="W11" s="1">
+      <c r="X11" s="1">
         <v>11.203200000000001</v>
       </c>
-      <c r="X11" s="1">
+      <c r="Y11" s="1">
         <v>13.186199999999999</v>
       </c>
-      <c r="Y11" s="1">
+      <c r="Z11" s="1">
         <v>9.7148000000000003</v>
       </c>
-      <c r="Z11" s="1">
+      <c r="AA11" s="1">
         <v>10.2186</v>
       </c>
-      <c r="AA11" s="1">
+      <c r="AB11" s="1">
         <v>9.6272000000000002</v>
       </c>
-      <c r="AB11" s="1">
+      <c r="AC11" s="1">
         <v>-0.75060000000000004</v>
       </c>
-      <c r="AC11" s="1">
+      <c r="AD11" s="1">
         <v>-1.7889999999999999</v>
       </c>
-      <c r="AD11" s="1">
+      <c r="AE11" s="1">
         <v>5.6627999999999998</v>
       </c>
-      <c r="AE11" s="1">
+      <c r="AF11" s="1">
         <v>6.2283999999999997</v>
       </c>
-      <c r="AF11" s="1"/>
-      <c r="AG11" s="1">
+      <c r="AG11" s="1"/>
+      <c r="AH11" s="1">
         <f t="shared" si="3"/>
         <v>100</v>
       </c>
-      <c r="AH11" s="1"/>
       <c r="AI11" s="1"/>
       <c r="AJ11" s="1"/>
       <c r="AK11" s="1"/>
@@ -1771,8 +1778,9 @@
       <c r="AU11" s="1"/>
       <c r="AV11" s="1"/>
       <c r="AW11" s="1"/>
-    </row>
-    <row r="12" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="AX11" s="1"/>
+    </row>
+    <row r="12" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>44</v>
       </c>
@@ -1801,71 +1809,71 @@
         <v>37</v>
       </c>
       <c r="J12" s="1"/>
-      <c r="K12" s="1">
+      <c r="K12" s="1"/>
+      <c r="L12" s="1">
         <f t="shared" si="2"/>
         <v>322</v>
       </c>
-      <c r="L12" s="1"/>
       <c r="M12" s="1"/>
       <c r="N12" s="1"/>
-      <c r="O12" s="1">
+      <c r="O12" s="1"/>
+      <c r="P12" s="1">
         <v>450</v>
       </c>
-      <c r="P12" s="1">
+      <c r="Q12" s="1">
         <f t="shared" si="4"/>
         <v>64.400000000000006</v>
       </c>
-      <c r="Q12" s="5">
+      <c r="R12" s="5">
         <v>320</v>
       </c>
-      <c r="R12" s="5">
+      <c r="S12" s="5">
         <v>180</v>
       </c>
-      <c r="S12" s="1"/>
-      <c r="T12" s="1">
+      <c r="T12" s="1"/>
+      <c r="U12" s="1">
         <f t="shared" si="5"/>
         <v>22.173913043478258</v>
       </c>
-      <c r="U12" s="1">
+      <c r="V12" s="1">
         <f t="shared" si="6"/>
         <v>17.204968944099377</v>
       </c>
-      <c r="V12" s="1">
+      <c r="W12" s="1">
         <v>75.8</v>
       </c>
-      <c r="W12" s="1">
+      <c r="X12" s="1">
         <v>52.6</v>
       </c>
-      <c r="X12" s="1">
+      <c r="Y12" s="1">
         <v>77</v>
       </c>
-      <c r="Y12" s="1">
+      <c r="Z12" s="1">
         <v>79.8</v>
       </c>
-      <c r="Z12" s="1">
+      <c r="AA12" s="1">
         <v>71.599999999999994</v>
       </c>
-      <c r="AA12" s="1">
+      <c r="AB12" s="1">
         <v>60.2</v>
       </c>
-      <c r="AB12" s="1">
+      <c r="AC12" s="1">
         <v>50.6</v>
       </c>
-      <c r="AC12" s="1">
+      <c r="AD12" s="1">
         <v>70</v>
       </c>
-      <c r="AD12" s="1">
+      <c r="AE12" s="1">
         <v>61.6</v>
       </c>
-      <c r="AE12" s="1">
+      <c r="AF12" s="1">
         <v>44.4</v>
       </c>
-      <c r="AF12" s="1"/>
-      <c r="AG12" s="1">
+      <c r="AG12" s="1"/>
+      <c r="AH12" s="1">
         <f t="shared" si="3"/>
         <v>128</v>
       </c>
-      <c r="AH12" s="1"/>
       <c r="AI12" s="1"/>
       <c r="AJ12" s="1"/>
       <c r="AK12" s="1"/>
@@ -1881,8 +1889,9 @@
       <c r="AU12" s="1"/>
       <c r="AV12" s="1"/>
       <c r="AW12" s="1"/>
-    </row>
-    <row r="13" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="AX12" s="1"/>
+    </row>
+    <row r="13" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>45</v>
       </c>
@@ -1911,69 +1920,69 @@
         <v>37</v>
       </c>
       <c r="J13" s="1"/>
-      <c r="K13" s="1">
+      <c r="K13" s="1"/>
+      <c r="L13" s="1">
         <f t="shared" si="2"/>
         <v>33.475999999999999</v>
       </c>
-      <c r="L13" s="1"/>
       <c r="M13" s="1"/>
-      <c r="N13" s="1">
+      <c r="N13" s="1"/>
+      <c r="O13" s="1">
         <v>100</v>
       </c>
-      <c r="O13" s="1"/>
-      <c r="P13" s="1">
+      <c r="P13" s="1"/>
+      <c r="Q13" s="1">
         <f t="shared" si="4"/>
         <v>6.6951999999999998</v>
       </c>
-      <c r="Q13" s="5"/>
       <c r="R13" s="5"/>
-      <c r="S13" s="1"/>
-      <c r="T13" s="1">
+      <c r="S13" s="5"/>
+      <c r="T13" s="1"/>
+      <c r="U13" s="1">
         <f t="shared" si="5"/>
         <v>33.133438881586805</v>
       </c>
-      <c r="U13" s="1">
+      <c r="V13" s="1">
         <f t="shared" si="6"/>
         <v>33.133438881586805</v>
       </c>
-      <c r="V13" s="1">
+      <c r="W13" s="1">
         <v>13.650399999999999</v>
       </c>
-      <c r="W13" s="1">
+      <c r="X13" s="1">
         <v>15.7468</v>
       </c>
-      <c r="X13" s="1">
+      <c r="Y13" s="1">
         <v>12.498799999999999</v>
       </c>
-      <c r="Y13" s="1">
+      <c r="Z13" s="1">
         <v>9.655800000000001</v>
       </c>
-      <c r="Z13" s="1">
+      <c r="AA13" s="1">
         <v>9.7487999999999992</v>
       </c>
-      <c r="AA13" s="1">
+      <c r="AB13" s="1">
         <v>9.7540000000000013</v>
       </c>
-      <c r="AB13" s="1">
+      <c r="AC13" s="1">
         <v>-0.94000000000000006</v>
       </c>
-      <c r="AC13" s="1">
+      <c r="AD13" s="1">
         <v>-1.341</v>
       </c>
-      <c r="AD13" s="1">
+      <c r="AE13" s="1">
         <v>4.1150000000000002</v>
       </c>
-      <c r="AE13" s="1">
+      <c r="AF13" s="1">
         <v>7.7713999999999999</v>
       </c>
-      <c r="AF13" s="16" t="s">
+      <c r="AG13" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="AG13" s="1">
+      <c r="AH13" s="1">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AH13" s="1"/>
       <c r="AI13" s="1"/>
       <c r="AJ13" s="1"/>
       <c r="AK13" s="1"/>
@@ -1989,8 +1998,9 @@
       <c r="AU13" s="1"/>
       <c r="AV13" s="1"/>
       <c r="AW13" s="1"/>
-    </row>
-    <row r="14" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="AX13" s="1"/>
+    </row>
+    <row r="14" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>46</v>
       </c>
@@ -2019,67 +2029,67 @@
         <v>37</v>
       </c>
       <c r="J14" s="1"/>
-      <c r="K14" s="1">
+      <c r="K14" s="1"/>
+      <c r="L14" s="1">
         <f t="shared" si="2"/>
         <v>27.041</v>
       </c>
-      <c r="L14" s="1"/>
       <c r="M14" s="1"/>
       <c r="N14" s="1"/>
       <c r="O14" s="1"/>
-      <c r="P14" s="1">
+      <c r="P14" s="1"/>
+      <c r="Q14" s="1">
         <f t="shared" si="4"/>
         <v>5.4081999999999999</v>
       </c>
-      <c r="Q14" s="5"/>
       <c r="R14" s="5"/>
-      <c r="S14" s="1"/>
-      <c r="T14" s="1">
+      <c r="S14" s="5"/>
+      <c r="T14" s="1"/>
+      <c r="U14" s="1">
         <f t="shared" si="5"/>
         <v>39.540142746200218</v>
       </c>
-      <c r="U14" s="1">
+      <c r="V14" s="1">
         <f t="shared" si="6"/>
         <v>39.540142746200218</v>
       </c>
-      <c r="V14" s="1">
+      <c r="W14" s="1">
         <v>8.5134000000000007</v>
       </c>
-      <c r="W14" s="1">
+      <c r="X14" s="1">
         <v>1.0778000000000001</v>
       </c>
-      <c r="X14" s="1">
+      <c r="Y14" s="1">
         <v>1.9096</v>
       </c>
-      <c r="Y14" s="1">
+      <c r="Z14" s="1">
         <v>6.8013999999999992</v>
       </c>
-      <c r="Z14" s="1">
+      <c r="AA14" s="1">
         <v>6.6352000000000002</v>
-      </c>
-      <c r="AA14" s="1">
-        <v>0</v>
       </c>
       <c r="AB14" s="1">
         <v>0</v>
       </c>
       <c r="AC14" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD14" s="1">
         <v>-0.1012</v>
       </c>
-      <c r="AD14" s="1">
+      <c r="AE14" s="1">
         <v>-0.497</v>
       </c>
-      <c r="AE14" s="1">
+      <c r="AF14" s="1">
         <v>-9.9199999999999997E-2</v>
       </c>
-      <c r="AF14" s="16" t="s">
+      <c r="AG14" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="AG14" s="1">
+      <c r="AH14" s="1">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AH14" s="1"/>
       <c r="AI14" s="1"/>
       <c r="AJ14" s="1"/>
       <c r="AK14" s="1"/>
@@ -2095,8 +2105,9 @@
       <c r="AU14" s="1"/>
       <c r="AV14" s="1"/>
       <c r="AW14" s="1"/>
-    </row>
-    <row r="15" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="AX14" s="1"/>
+    </row>
+    <row r="15" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>48</v>
       </c>
@@ -2125,69 +2136,69 @@
         <v>37</v>
       </c>
       <c r="J15" s="1"/>
-      <c r="K15" s="1">
+      <c r="K15" s="1"/>
+      <c r="L15" s="1">
         <f t="shared" si="2"/>
         <v>173</v>
       </c>
-      <c r="L15" s="1"/>
       <c r="M15" s="1"/>
       <c r="N15" s="1"/>
-      <c r="O15" s="1">
+      <c r="O15" s="1"/>
+      <c r="P15" s="1">
         <v>160</v>
       </c>
-      <c r="P15" s="1">
+      <c r="Q15" s="1">
         <f t="shared" si="4"/>
         <v>34.6</v>
       </c>
-      <c r="Q15" s="5">
+      <c r="R15" s="5">
         <v>200</v>
       </c>
-      <c r="R15" s="5"/>
-      <c r="S15" s="1"/>
-      <c r="T15" s="1">
+      <c r="S15" s="5"/>
+      <c r="T15" s="1"/>
+      <c r="U15" s="1">
         <f t="shared" si="5"/>
         <v>27.427745664739884</v>
       </c>
-      <c r="U15" s="1">
+      <c r="V15" s="1">
         <f t="shared" si="6"/>
         <v>21.647398843930635</v>
       </c>
-      <c r="V15" s="1">
+      <c r="W15" s="1">
         <v>46.2</v>
       </c>
-      <c r="W15" s="1">
+      <c r="X15" s="1">
         <v>12.6</v>
       </c>
-      <c r="X15" s="1">
+      <c r="Y15" s="1">
         <v>33</v>
       </c>
-      <c r="Y15" s="1">
+      <c r="Z15" s="1">
         <v>44</v>
       </c>
-      <c r="Z15" s="1">
+      <c r="AA15" s="1">
         <v>44.2</v>
       </c>
-      <c r="AA15" s="1">
+      <c r="AB15" s="1">
         <v>2</v>
       </c>
-      <c r="AB15" s="1">
+      <c r="AC15" s="1">
         <v>5.4</v>
       </c>
-      <c r="AC15" s="1">
+      <c r="AD15" s="1">
         <v>11.2</v>
       </c>
-      <c r="AD15" s="1">
+      <c r="AE15" s="1">
         <v>1.4</v>
       </c>
-      <c r="AE15" s="1">
+      <c r="AF15" s="1">
         <v>16</v>
       </c>
-      <c r="AF15" s="1"/>
-      <c r="AG15" s="1">
+      <c r="AG15" s="1"/>
+      <c r="AH15" s="1">
         <f t="shared" si="3"/>
         <v>50</v>
       </c>
-      <c r="AH15" s="1"/>
       <c r="AI15" s="1"/>
       <c r="AJ15" s="1"/>
       <c r="AK15" s="1"/>
@@ -2203,8 +2214,9 @@
       <c r="AU15" s="1"/>
       <c r="AV15" s="1"/>
       <c r="AW15" s="1"/>
-    </row>
-    <row r="16" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="AX15" s="1"/>
+    </row>
+    <row r="16" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>49</v>
       </c>
@@ -2233,67 +2245,67 @@
         <v>37</v>
       </c>
       <c r="J16" s="1"/>
-      <c r="K16" s="1">
+      <c r="K16" s="1"/>
+      <c r="L16" s="1">
         <f t="shared" si="2"/>
         <v>217</v>
       </c>
-      <c r="L16" s="1"/>
       <c r="M16" s="1"/>
       <c r="N16" s="1"/>
       <c r="O16" s="1"/>
-      <c r="P16" s="1">
+      <c r="P16" s="1"/>
+      <c r="Q16" s="1">
         <f t="shared" si="4"/>
         <v>43.4</v>
       </c>
-      <c r="Q16" s="5"/>
       <c r="R16" s="5"/>
-      <c r="S16" s="1"/>
-      <c r="T16" s="1">
+      <c r="S16" s="5"/>
+      <c r="T16" s="1"/>
+      <c r="U16" s="1">
         <f t="shared" si="5"/>
         <v>49.930875576036868</v>
       </c>
-      <c r="U16" s="1">
+      <c r="V16" s="1">
         <f t="shared" si="6"/>
         <v>49.930875576036868</v>
       </c>
-      <c r="V16" s="1">
+      <c r="W16" s="1">
         <v>64.599999999999994</v>
       </c>
-      <c r="W16" s="1">
+      <c r="X16" s="1">
         <v>53</v>
       </c>
-      <c r="X16" s="1">
+      <c r="Y16" s="1">
         <v>16</v>
       </c>
-      <c r="Y16" s="1">
+      <c r="Z16" s="1">
         <v>16.2</v>
       </c>
-      <c r="Z16" s="1">
+      <c r="AA16" s="1">
         <v>80.400000000000006</v>
       </c>
-      <c r="AA16" s="1">
+      <c r="AB16" s="1">
         <v>2.2000000000000002</v>
       </c>
-      <c r="AB16" s="1">
+      <c r="AC16" s="1">
         <v>0.4</v>
       </c>
-      <c r="AC16" s="1">
+      <c r="AD16" s="1">
         <v>0</v>
       </c>
-      <c r="AD16" s="1">
+      <c r="AE16" s="1">
         <v>-3.4</v>
       </c>
-      <c r="AE16" s="1">
+      <c r="AF16" s="1">
         <v>7</v>
       </c>
-      <c r="AF16" s="16" t="s">
+      <c r="AG16" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="AG16" s="1">
+      <c r="AH16" s="1">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AH16" s="1"/>
       <c r="AI16" s="1"/>
       <c r="AJ16" s="1"/>
       <c r="AK16" s="1"/>
@@ -2309,8 +2321,9 @@
       <c r="AU16" s="1"/>
       <c r="AV16" s="1"/>
       <c r="AW16" s="1"/>
-    </row>
-    <row r="17" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="AX16" s="1"/>
+    </row>
+    <row r="17" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>50</v>
       </c>
@@ -2337,71 +2350,71 @@
         <v>37</v>
       </c>
       <c r="J17" s="1"/>
-      <c r="K17" s="1">
+      <c r="K17" s="1"/>
+      <c r="L17" s="1">
         <f t="shared" si="2"/>
         <v>37.948999999999998</v>
       </c>
-      <c r="L17" s="1"/>
       <c r="M17" s="1"/>
-      <c r="N17" s="1">
+      <c r="N17" s="1"/>
+      <c r="O17" s="1">
         <v>50</v>
       </c>
-      <c r="O17" s="1">
+      <c r="P17" s="1">
         <v>80</v>
       </c>
-      <c r="P17" s="1">
+      <c r="Q17" s="1">
         <f t="shared" si="4"/>
         <v>7.5897999999999994</v>
       </c>
-      <c r="Q17" s="5">
+      <c r="R17" s="5">
         <v>50</v>
       </c>
-      <c r="R17" s="5"/>
-      <c r="S17" s="1"/>
-      <c r="T17" s="1">
+      <c r="S17" s="5"/>
+      <c r="T17" s="1"/>
+      <c r="U17" s="1">
         <f t="shared" si="5"/>
         <v>31.914674958496931</v>
       </c>
-      <c r="U17" s="1">
+      <c r="V17" s="1">
         <f t="shared" si="6"/>
         <v>25.326886083954783</v>
       </c>
-      <c r="V17" s="1">
+      <c r="W17" s="1">
         <v>10.3452</v>
       </c>
-      <c r="W17" s="1">
+      <c r="X17" s="1">
         <v>7.2664</v>
       </c>
-      <c r="X17" s="1">
+      <c r="Y17" s="1">
         <v>7.008</v>
       </c>
-      <c r="Y17" s="1">
+      <c r="Z17" s="1">
         <v>9.307599999999999</v>
       </c>
-      <c r="Z17" s="1">
+      <c r="AA17" s="1">
         <v>11.9438</v>
       </c>
-      <c r="AA17" s="1">
+      <c r="AB17" s="1">
         <v>8.6449999999999996</v>
       </c>
-      <c r="AB17" s="1">
+      <c r="AC17" s="1">
         <v>9.3103999999999996</v>
       </c>
-      <c r="AC17" s="1">
+      <c r="AD17" s="1">
         <v>9.4653999999999989</v>
       </c>
-      <c r="AD17" s="1">
+      <c r="AE17" s="1">
         <v>14.3856</v>
       </c>
-      <c r="AE17" s="1">
+      <c r="AF17" s="1">
         <v>4.1466000000000003</v>
       </c>
-      <c r="AF17" s="1"/>
-      <c r="AG17" s="1">
+      <c r="AG17" s="1"/>
+      <c r="AH17" s="1">
         <f t="shared" si="3"/>
         <v>50</v>
       </c>
-      <c r="AH17" s="1"/>
       <c r="AI17" s="1"/>
       <c r="AJ17" s="1"/>
       <c r="AK17" s="1"/>
@@ -2417,8 +2430,9 @@
       <c r="AU17" s="1"/>
       <c r="AV17" s="1"/>
       <c r="AW17" s="1"/>
-    </row>
-    <row r="18" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="AX17" s="1"/>
+    </row>
+    <row r="18" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>51</v>
       </c>
@@ -2445,69 +2459,69 @@
         <v>37</v>
       </c>
       <c r="J18" s="1"/>
-      <c r="K18" s="1">
+      <c r="K18" s="1"/>
+      <c r="L18" s="1">
         <f t="shared" si="2"/>
         <v>133</v>
       </c>
-      <c r="L18" s="1"/>
       <c r="M18" s="1"/>
       <c r="N18" s="1"/>
-      <c r="O18" s="1">
+      <c r="O18" s="1"/>
+      <c r="P18" s="1">
         <v>400</v>
       </c>
-      <c r="P18" s="1">
+      <c r="Q18" s="1">
         <f t="shared" si="4"/>
         <v>26.6</v>
       </c>
-      <c r="Q18" s="5"/>
       <c r="R18" s="5"/>
-      <c r="S18" s="1"/>
-      <c r="T18" s="1">
+      <c r="S18" s="5"/>
+      <c r="T18" s="1"/>
+      <c r="U18" s="1">
         <f t="shared" si="5"/>
         <v>33.646616541353382</v>
       </c>
-      <c r="U18" s="1">
+      <c r="V18" s="1">
         <f t="shared" si="6"/>
         <v>33.646616541353382</v>
       </c>
-      <c r="V18" s="1">
+      <c r="W18" s="1">
         <v>61</v>
       </c>
-      <c r="W18" s="1">
+      <c r="X18" s="1">
         <v>33</v>
       </c>
-      <c r="X18" s="1">
+      <c r="Y18" s="1">
         <v>43.2</v>
       </c>
-      <c r="Y18" s="1">
+      <c r="Z18" s="1">
         <v>52.2</v>
       </c>
-      <c r="Z18" s="1">
+      <c r="AA18" s="1">
         <v>67.599999999999994</v>
       </c>
-      <c r="AA18" s="1">
+      <c r="AB18" s="1">
         <v>56.8</v>
       </c>
-      <c r="AB18" s="1">
+      <c r="AC18" s="1">
         <v>36.799999999999997</v>
       </c>
-      <c r="AC18" s="1">
+      <c r="AD18" s="1">
         <v>45.2</v>
       </c>
-      <c r="AD18" s="1">
+      <c r="AE18" s="1">
         <v>95.8</v>
       </c>
-      <c r="AE18" s="1">
+      <c r="AF18" s="1">
         <v>6</v>
       </c>
-      <c r="AF18" s="16" t="s">
+      <c r="AG18" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="AG18" s="1">
+      <c r="AH18" s="1">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AH18" s="1"/>
       <c r="AI18" s="1"/>
       <c r="AJ18" s="1"/>
       <c r="AK18" s="1"/>
@@ -2523,8 +2537,9 @@
       <c r="AU18" s="1"/>
       <c r="AV18" s="1"/>
       <c r="AW18" s="1"/>
-    </row>
-    <row r="19" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="AX18" s="1"/>
+    </row>
+    <row r="19" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A19" s="10" t="s">
         <v>52</v>
       </c>
@@ -2547,32 +2562,30 @@
         <v>53</v>
       </c>
       <c r="J19" s="10"/>
-      <c r="K19" s="10">
+      <c r="K19" s="10"/>
+      <c r="L19" s="10">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="L19" s="10"/>
       <c r="M19" s="10"/>
       <c r="N19" s="10"/>
       <c r="O19" s="10"/>
-      <c r="P19" s="10">
+      <c r="P19" s="10"/>
+      <c r="Q19" s="10">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="Q19" s="5"/>
-      <c r="R19" s="12"/>
-      <c r="S19" s="10"/>
-      <c r="T19" s="10" t="e">
+      <c r="R19" s="5"/>
+      <c r="S19" s="12"/>
+      <c r="T19" s="10"/>
+      <c r="U19" s="10" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="U19" s="10" t="e">
+      <c r="V19" s="10" t="e">
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="V19" s="10">
-        <v>0</v>
-      </c>
       <c r="W19" s="10">
         <v>0</v>
       </c>
@@ -2600,9 +2613,11 @@
       <c r="AE19" s="10">
         <v>0</v>
       </c>
-      <c r="AF19" s="10"/>
+      <c r="AF19" s="10">
+        <v>0</v>
+      </c>
       <c r="AG19" s="10"/>
-      <c r="AH19" s="1"/>
+      <c r="AH19" s="10"/>
       <c r="AI19" s="1"/>
       <c r="AJ19" s="1"/>
       <c r="AK19" s="1"/>
@@ -2618,8 +2633,9 @@
       <c r="AU19" s="1"/>
       <c r="AV19" s="1"/>
       <c r="AW19" s="1"/>
-    </row>
-    <row r="20" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="AX19" s="1"/>
+    </row>
+    <row r="20" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>54</v>
       </c>
@@ -2648,71 +2664,71 @@
         <v>37</v>
       </c>
       <c r="J20" s="1"/>
-      <c r="K20" s="1">
+      <c r="K20" s="1"/>
+      <c r="L20" s="1">
         <f t="shared" si="2"/>
         <v>304</v>
       </c>
-      <c r="L20" s="1"/>
       <c r="M20" s="1"/>
       <c r="N20" s="1"/>
-      <c r="O20" s="1">
+      <c r="O20" s="1"/>
+      <c r="P20" s="1">
         <v>300</v>
       </c>
-      <c r="P20" s="1">
+      <c r="Q20" s="1">
         <f t="shared" si="4"/>
         <v>60.8</v>
       </c>
-      <c r="Q20" s="5">
+      <c r="R20" s="5">
         <v>250</v>
       </c>
-      <c r="R20" s="5">
+      <c r="S20" s="5">
         <v>99</v>
       </c>
-      <c r="S20" s="1"/>
-      <c r="T20" s="1">
+      <c r="T20" s="1"/>
+      <c r="U20" s="1">
         <f t="shared" si="5"/>
         <v>22.483552631578949</v>
       </c>
-      <c r="U20" s="1">
+      <c r="V20" s="1">
         <f t="shared" si="6"/>
         <v>18.371710526315791</v>
       </c>
-      <c r="V20" s="1">
+      <c r="W20" s="1">
         <v>74</v>
       </c>
-      <c r="W20" s="1">
+      <c r="X20" s="1">
         <v>62.8</v>
       </c>
-      <c r="X20" s="1">
+      <c r="Y20" s="1">
         <v>80.8</v>
       </c>
-      <c r="Y20" s="1">
+      <c r="Z20" s="1">
         <v>100.2</v>
       </c>
-      <c r="Z20" s="1">
+      <c r="AA20" s="1">
         <v>81.599999999999994</v>
       </c>
-      <c r="AA20" s="1">
+      <c r="AB20" s="1">
         <v>74.8</v>
       </c>
-      <c r="AB20" s="1">
+      <c r="AC20" s="1">
         <v>65.599999999999994</v>
       </c>
-      <c r="AC20" s="1">
+      <c r="AD20" s="1">
         <v>47.2</v>
       </c>
-      <c r="AD20" s="1">
+      <c r="AE20" s="1">
         <v>91</v>
       </c>
-      <c r="AE20" s="1">
+      <c r="AF20" s="1">
         <v>68</v>
       </c>
-      <c r="AF20" s="1"/>
-      <c r="AG20" s="1">
-        <f t="shared" ref="AG20:AG25" si="7">G20*Q20</f>
+      <c r="AG20" s="1"/>
+      <c r="AH20" s="1">
+        <f t="shared" ref="AH20:AH25" si="7">G20*R20</f>
         <v>125</v>
       </c>
-      <c r="AH20" s="1"/>
       <c r="AI20" s="1"/>
       <c r="AJ20" s="1"/>
       <c r="AK20" s="1"/>
@@ -2728,8 +2744,9 @@
       <c r="AU20" s="1"/>
       <c r="AV20" s="1"/>
       <c r="AW20" s="1"/>
-    </row>
-    <row r="21" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="AX20" s="1"/>
+    </row>
+    <row r="21" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A21" s="13" t="s">
         <v>55</v>
       </c>
@@ -2750,67 +2767,67 @@
         <v>37</v>
       </c>
       <c r="J21" s="13"/>
-      <c r="K21" s="13">
+      <c r="K21" s="13"/>
+      <c r="L21" s="13">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="L21" s="13"/>
       <c r="M21" s="13"/>
       <c r="N21" s="13"/>
       <c r="O21" s="13"/>
-      <c r="P21" s="13">
+      <c r="P21" s="13"/>
+      <c r="Q21" s="13">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="Q21" s="5"/>
-      <c r="R21" s="15"/>
-      <c r="S21" s="13"/>
-      <c r="T21" s="13" t="e">
+      <c r="R21" s="5"/>
+      <c r="S21" s="15"/>
+      <c r="T21" s="13"/>
+      <c r="U21" s="13" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="U21" s="13" t="e">
+      <c r="V21" s="13" t="e">
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="V21" s="13">
+      <c r="W21" s="13">
         <v>-0.2</v>
       </c>
-      <c r="W21" s="13">
+      <c r="X21" s="13">
         <v>-0.4</v>
-      </c>
-      <c r="X21" s="13">
-        <v>0</v>
       </c>
       <c r="Y21" s="13">
         <v>0</v>
       </c>
       <c r="Z21" s="13">
+        <v>0</v>
+      </c>
+      <c r="AA21" s="13">
         <v>35.4</v>
       </c>
-      <c r="AA21" s="13">
+      <c r="AB21" s="13">
         <v>57.2</v>
       </c>
-      <c r="AB21" s="13">
+      <c r="AC21" s="13">
         <v>86.2</v>
-      </c>
-      <c r="AC21" s="13">
-        <v>-0.2</v>
       </c>
       <c r="AD21" s="13">
         <v>-0.2</v>
       </c>
       <c r="AE21" s="13">
+        <v>-0.2</v>
+      </c>
+      <c r="AF21" s="13">
         <v>58.6</v>
       </c>
-      <c r="AF21" s="13" t="s">
+      <c r="AG21" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="AG21" s="13">
+      <c r="AH21" s="13">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="AH21" s="1"/>
       <c r="AI21" s="1"/>
       <c r="AJ21" s="1"/>
       <c r="AK21" s="1"/>
@@ -2826,8 +2843,9 @@
       <c r="AU21" s="1"/>
       <c r="AV21" s="1"/>
       <c r="AW21" s="1"/>
-    </row>
-    <row r="22" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="AX21" s="1"/>
+    </row>
+    <row r="22" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>57</v>
       </c>
@@ -2856,73 +2874,73 @@
         <v>37</v>
       </c>
       <c r="J22" s="1"/>
-      <c r="K22" s="1">
+      <c r="K22" s="1"/>
+      <c r="L22" s="1">
         <f t="shared" si="2"/>
         <v>172.386</v>
       </c>
-      <c r="L22" s="1"/>
       <c r="M22" s="1"/>
-      <c r="N22" s="1">
+      <c r="N22" s="1"/>
+      <c r="O22" s="1">
         <v>100</v>
       </c>
-      <c r="O22" s="1">
+      <c r="P22" s="1">
         <v>150</v>
       </c>
-      <c r="P22" s="1">
+      <c r="Q22" s="1">
         <f t="shared" si="4"/>
         <v>34.477199999999996</v>
       </c>
-      <c r="Q22" s="5">
+      <c r="R22" s="5">
         <v>150</v>
       </c>
-      <c r="R22" s="5">
+      <c r="S22" s="5">
         <v>117.07199999999989</v>
       </c>
-      <c r="S22" s="1"/>
-      <c r="T22" s="1">
+      <c r="T22" s="1"/>
+      <c r="U22" s="1">
         <f t="shared" si="5"/>
         <v>20.955065956632211</v>
       </c>
-      <c r="U22" s="1">
+      <c r="V22" s="1">
         <f t="shared" si="6"/>
         <v>16.604364623577322</v>
       </c>
-      <c r="V22" s="1">
+      <c r="W22" s="1">
         <v>49.432000000000002</v>
       </c>
-      <c r="W22" s="1">
+      <c r="X22" s="1">
         <v>36.505800000000001</v>
       </c>
-      <c r="X22" s="1">
+      <c r="Y22" s="1">
         <v>45.964799999999997</v>
       </c>
-      <c r="Y22" s="1">
+      <c r="Z22" s="1">
         <v>46.957799999999999</v>
       </c>
-      <c r="Z22" s="1">
+      <c r="AA22" s="1">
         <v>43.652000000000001</v>
       </c>
-      <c r="AA22" s="1">
+      <c r="AB22" s="1">
         <v>39.158999999999999</v>
       </c>
-      <c r="AB22" s="1">
+      <c r="AC22" s="1">
         <v>35.882399999999997</v>
       </c>
-      <c r="AC22" s="1">
+      <c r="AD22" s="1">
         <v>36.643999999999998</v>
-      </c>
-      <c r="AD22" s="1">
-        <v>0</v>
       </c>
       <c r="AE22" s="1">
         <v>0</v>
       </c>
-      <c r="AF22" s="1"/>
-      <c r="AG22" s="1">
+      <c r="AF22" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG22" s="1"/>
+      <c r="AH22" s="1">
         <f t="shared" si="7"/>
         <v>150</v>
       </c>
-      <c r="AH22" s="1"/>
       <c r="AI22" s="1"/>
       <c r="AJ22" s="1"/>
       <c r="AK22" s="1"/>
@@ -2938,8 +2956,9 @@
       <c r="AU22" s="1"/>
       <c r="AV22" s="1"/>
       <c r="AW22" s="1"/>
-    </row>
-    <row r="23" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="AX22" s="1"/>
+    </row>
+    <row r="23" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>58</v>
       </c>
@@ -2968,71 +2987,71 @@
         <v>37</v>
       </c>
       <c r="J23" s="1"/>
-      <c r="K23" s="1">
+      <c r="K23" s="1"/>
+      <c r="L23" s="1">
         <f t="shared" si="2"/>
         <v>318.99599999999998</v>
       </c>
-      <c r="L23" s="1"/>
       <c r="M23" s="1"/>
-      <c r="N23" s="1">
+      <c r="N23" s="1"/>
+      <c r="O23" s="1">
         <v>500</v>
       </c>
-      <c r="O23" s="1">
+      <c r="P23" s="1">
         <v>400</v>
       </c>
-      <c r="P23" s="1">
+      <c r="Q23" s="1">
         <f t="shared" si="4"/>
         <v>63.799199999999999</v>
       </c>
-      <c r="Q23" s="5">
+      <c r="R23" s="5">
         <v>120</v>
       </c>
-      <c r="R23" s="5"/>
-      <c r="S23" s="1"/>
-      <c r="T23" s="1">
+      <c r="S23" s="5"/>
+      <c r="T23" s="1"/>
+      <c r="U23" s="1">
         <f t="shared" si="5"/>
         <v>24.157748059536797</v>
       </c>
-      <c r="U23" s="1">
+      <c r="V23" s="1">
         <f t="shared" si="6"/>
         <v>22.276846731620459</v>
       </c>
-      <c r="V23" s="1">
+      <c r="W23" s="1">
         <v>79.092999999999989</v>
       </c>
-      <c r="W23" s="1">
+      <c r="X23" s="1">
         <v>81.406399999999991</v>
       </c>
-      <c r="X23" s="1">
+      <c r="Y23" s="1">
         <v>86.635400000000004</v>
       </c>
-      <c r="Y23" s="1">
+      <c r="Z23" s="1">
         <v>95.6404</v>
       </c>
-      <c r="Z23" s="1">
+      <c r="AA23" s="1">
         <v>76.212199999999996</v>
       </c>
-      <c r="AA23" s="1">
+      <c r="AB23" s="1">
         <v>90.099400000000003</v>
       </c>
-      <c r="AB23" s="1">
+      <c r="AC23" s="1">
         <v>78.695000000000007</v>
       </c>
-      <c r="AC23" s="1">
+      <c r="AD23" s="1">
         <v>83.852000000000004</v>
-      </c>
-      <c r="AD23" s="1">
-        <v>0</v>
       </c>
       <c r="AE23" s="1">
         <v>0</v>
       </c>
-      <c r="AF23" s="1"/>
-      <c r="AG23" s="1">
+      <c r="AF23" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG23" s="1"/>
+      <c r="AH23" s="1">
         <f t="shared" si="7"/>
         <v>120</v>
       </c>
-      <c r="AH23" s="1"/>
       <c r="AI23" s="1"/>
       <c r="AJ23" s="1"/>
       <c r="AK23" s="1"/>
@@ -3048,8 +3067,9 @@
       <c r="AU23" s="1"/>
       <c r="AV23" s="1"/>
       <c r="AW23" s="1"/>
-    </row>
-    <row r="24" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="AX23" s="1"/>
+    </row>
+    <row r="24" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>59</v>
       </c>
@@ -3078,73 +3098,73 @@
         <v>37</v>
       </c>
       <c r="J24" s="1"/>
-      <c r="K24" s="1">
+      <c r="K24" s="1"/>
+      <c r="L24" s="1">
         <f t="shared" si="2"/>
         <v>105.66800000000001</v>
       </c>
-      <c r="L24" s="1"/>
       <c r="M24" s="1"/>
-      <c r="N24" s="1">
+      <c r="N24" s="1"/>
+      <c r="O24" s="1">
         <v>170</v>
       </c>
-      <c r="O24" s="1">
+      <c r="P24" s="1">
         <v>100</v>
       </c>
-      <c r="P24" s="1">
+      <c r="Q24" s="1">
         <f t="shared" si="4"/>
         <v>21.133600000000001</v>
       </c>
-      <c r="Q24" s="5">
+      <c r="R24" s="5">
         <v>150</v>
       </c>
-      <c r="R24" s="5">
+      <c r="S24" s="5">
         <v>123.68600000000002</v>
       </c>
-      <c r="S24" s="1"/>
-      <c r="T24" s="1">
+      <c r="T24" s="1"/>
+      <c r="U24" s="1">
         <f t="shared" si="5"/>
         <v>21.24512624446379</v>
       </c>
-      <c r="U24" s="1">
+      <c r="V24" s="1">
         <f t="shared" si="6"/>
         <v>14.147424007268047</v>
       </c>
-      <c r="V24" s="1">
+      <c r="W24" s="1">
         <v>25.9986</v>
       </c>
-      <c r="W24" s="1">
+      <c r="X24" s="1">
         <v>27.6648</v>
       </c>
-      <c r="X24" s="1">
+      <c r="Y24" s="1">
         <v>15.762</v>
       </c>
-      <c r="Y24" s="1">
+      <c r="Z24" s="1">
         <v>15.911</v>
       </c>
-      <c r="Z24" s="1">
+      <c r="AA24" s="1">
         <v>10.858599999999999</v>
       </c>
-      <c r="AA24" s="1">
+      <c r="AB24" s="1">
         <v>20.060600000000001</v>
       </c>
-      <c r="AB24" s="1">
+      <c r="AC24" s="1">
         <v>15.539</v>
       </c>
-      <c r="AC24" s="1">
+      <c r="AD24" s="1">
         <v>33.691199999999988</v>
-      </c>
-      <c r="AD24" s="1">
-        <v>0</v>
       </c>
       <c r="AE24" s="1">
         <v>0</v>
       </c>
-      <c r="AF24" s="1"/>
-      <c r="AG24" s="1">
+      <c r="AF24" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG24" s="1"/>
+      <c r="AH24" s="1">
         <f t="shared" si="7"/>
         <v>150</v>
       </c>
-      <c r="AH24" s="1"/>
       <c r="AI24" s="1"/>
       <c r="AJ24" s="1"/>
       <c r="AK24" s="1"/>
@@ -3160,8 +3180,9 @@
       <c r="AU24" s="1"/>
       <c r="AV24" s="1"/>
       <c r="AW24" s="1"/>
-    </row>
-    <row r="25" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="AX24" s="1"/>
+    </row>
+    <row r="25" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>60</v>
       </c>
@@ -3190,73 +3211,73 @@
         <v>37</v>
       </c>
       <c r="J25" s="1"/>
-      <c r="K25" s="1">
+      <c r="K25" s="1"/>
+      <c r="L25" s="1">
         <f t="shared" si="2"/>
         <v>604</v>
       </c>
-      <c r="L25" s="1"/>
       <c r="M25" s="1"/>
-      <c r="N25" s="1">
+      <c r="N25" s="1"/>
+      <c r="O25" s="1">
         <v>950</v>
       </c>
-      <c r="O25" s="1">
+      <c r="P25" s="1">
         <v>700</v>
       </c>
-      <c r="P25" s="1">
+      <c r="Q25" s="1">
         <f t="shared" si="4"/>
         <v>120.8</v>
       </c>
-      <c r="Q25" s="5">
+      <c r="R25" s="5">
         <v>900</v>
       </c>
-      <c r="R25" s="5">
+      <c r="S25" s="5">
         <v>412</v>
       </c>
-      <c r="S25" s="1"/>
-      <c r="T25" s="1">
+      <c r="T25" s="1"/>
+      <c r="U25" s="1">
         <f t="shared" si="5"/>
         <v>24.039735099337747</v>
       </c>
-      <c r="U25" s="1">
+      <c r="V25" s="1">
         <f t="shared" si="6"/>
         <v>16.589403973509935</v>
       </c>
-      <c r="V25" s="1">
+      <c r="W25" s="1">
         <v>123</v>
       </c>
-      <c r="W25" s="1">
+      <c r="X25" s="1">
         <v>138.80000000000001</v>
       </c>
-      <c r="X25" s="1">
+      <c r="Y25" s="1">
         <v>189.6</v>
       </c>
-      <c r="Y25" s="1">
+      <c r="Z25" s="1">
         <v>188.6</v>
       </c>
-      <c r="Z25" s="1">
+      <c r="AA25" s="1">
         <v>161.19999999999999</v>
       </c>
-      <c r="AA25" s="1">
+      <c r="AB25" s="1">
         <v>192.2</v>
       </c>
-      <c r="AB25" s="1">
+      <c r="AC25" s="1">
         <v>127.6</v>
       </c>
-      <c r="AC25" s="1">
+      <c r="AD25" s="1">
         <v>132.6</v>
-      </c>
-      <c r="AD25" s="1">
-        <v>0</v>
       </c>
       <c r="AE25" s="1">
         <v>0</v>
       </c>
-      <c r="AF25" s="1"/>
-      <c r="AG25" s="1">
+      <c r="AF25" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG25" s="1"/>
+      <c r="AH25" s="1">
         <f t="shared" si="7"/>
         <v>270</v>
       </c>
-      <c r="AH25" s="1"/>
       <c r="AI25" s="1"/>
       <c r="AJ25" s="1"/>
       <c r="AK25" s="1"/>
@@ -3272,8 +3293,9 @@
       <c r="AU25" s="1"/>
       <c r="AV25" s="1"/>
       <c r="AW25" s="1"/>
-    </row>
-    <row r="26" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="AX25" s="1"/>
+    </row>
+    <row r="26" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
@@ -3323,8 +3345,9 @@
       <c r="AU26" s="1"/>
       <c r="AV26" s="1"/>
       <c r="AW26" s="1"/>
-    </row>
-    <row r="27" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="AX26" s="1"/>
+    </row>
+    <row r="27" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
@@ -3374,8 +3397,9 @@
       <c r="AU27" s="1"/>
       <c r="AV27" s="1"/>
       <c r="AW27" s="1"/>
-    </row>
-    <row r="28" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="AX27" s="1"/>
+    </row>
+    <row r="28" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
@@ -3425,8 +3449,9 @@
       <c r="AU28" s="1"/>
       <c r="AV28" s="1"/>
       <c r="AW28" s="1"/>
-    </row>
-    <row r="29" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="AX28" s="1"/>
+    </row>
+    <row r="29" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
@@ -3476,8 +3501,9 @@
       <c r="AU29" s="1"/>
       <c r="AV29" s="1"/>
       <c r="AW29" s="1"/>
-    </row>
-    <row r="30" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="AX29" s="1"/>
+    </row>
+    <row r="30" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
@@ -3527,8 +3553,9 @@
       <c r="AU30" s="1"/>
       <c r="AV30" s="1"/>
       <c r="AW30" s="1"/>
-    </row>
-    <row r="31" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="AX30" s="1"/>
+    </row>
+    <row r="31" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
@@ -3578,8 +3605,9 @@
       <c r="AU31" s="1"/>
       <c r="AV31" s="1"/>
       <c r="AW31" s="1"/>
-    </row>
-    <row r="32" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="AX31" s="1"/>
+    </row>
+    <row r="32" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
@@ -3629,8 +3657,9 @@
       <c r="AU32" s="1"/>
       <c r="AV32" s="1"/>
       <c r="AW32" s="1"/>
-    </row>
-    <row r="33" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="AX32" s="1"/>
+    </row>
+    <row r="33" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
@@ -3680,8 +3709,9 @@
       <c r="AU33" s="1"/>
       <c r="AV33" s="1"/>
       <c r="AW33" s="1"/>
-    </row>
-    <row r="34" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="AX33" s="1"/>
+    </row>
+    <row r="34" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
@@ -3731,8 +3761,9 @@
       <c r="AU34" s="1"/>
       <c r="AV34" s="1"/>
       <c r="AW34" s="1"/>
-    </row>
-    <row r="35" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="AX34" s="1"/>
+    </row>
+    <row r="35" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
@@ -3782,8 +3813,9 @@
       <c r="AU35" s="1"/>
       <c r="AV35" s="1"/>
       <c r="AW35" s="1"/>
-    </row>
-    <row r="36" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="AX35" s="1"/>
+    </row>
+    <row r="36" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
@@ -3833,8 +3865,9 @@
       <c r="AU36" s="1"/>
       <c r="AV36" s="1"/>
       <c r="AW36" s="1"/>
-    </row>
-    <row r="37" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="AX36" s="1"/>
+    </row>
+    <row r="37" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
@@ -3884,8 +3917,9 @@
       <c r="AU37" s="1"/>
       <c r="AV37" s="1"/>
       <c r="AW37" s="1"/>
-    </row>
-    <row r="38" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="AX37" s="1"/>
+    </row>
+    <row r="38" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
@@ -3935,8 +3969,9 @@
       <c r="AU38" s="1"/>
       <c r="AV38" s="1"/>
       <c r="AW38" s="1"/>
-    </row>
-    <row r="39" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="AX38" s="1"/>
+    </row>
+    <row r="39" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
@@ -3986,8 +4021,9 @@
       <c r="AU39" s="1"/>
       <c r="AV39" s="1"/>
       <c r="AW39" s="1"/>
-    </row>
-    <row r="40" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="AX39" s="1"/>
+    </row>
+    <row r="40" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
@@ -4037,8 +4073,9 @@
       <c r="AU40" s="1"/>
       <c r="AV40" s="1"/>
       <c r="AW40" s="1"/>
-    </row>
-    <row r="41" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="AX40" s="1"/>
+    </row>
+    <row r="41" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A41" s="1"/>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
@@ -4088,8 +4125,9 @@
       <c r="AU41" s="1"/>
       <c r="AV41" s="1"/>
       <c r="AW41" s="1"/>
-    </row>
-    <row r="42" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="AX41" s="1"/>
+    </row>
+    <row r="42" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A42" s="1"/>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
@@ -4139,8 +4177,9 @@
       <c r="AU42" s="1"/>
       <c r="AV42" s="1"/>
       <c r="AW42" s="1"/>
-    </row>
-    <row r="43" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="AX42" s="1"/>
+    </row>
+    <row r="43" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A43" s="1"/>
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
@@ -4190,8 +4229,9 @@
       <c r="AU43" s="1"/>
       <c r="AV43" s="1"/>
       <c r="AW43" s="1"/>
-    </row>
-    <row r="44" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="AX43" s="1"/>
+    </row>
+    <row r="44" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A44" s="1"/>
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
@@ -4241,8 +4281,9 @@
       <c r="AU44" s="1"/>
       <c r="AV44" s="1"/>
       <c r="AW44" s="1"/>
-    </row>
-    <row r="45" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="AX44" s="1"/>
+    </row>
+    <row r="45" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A45" s="1"/>
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
@@ -4292,8 +4333,9 @@
       <c r="AU45" s="1"/>
       <c r="AV45" s="1"/>
       <c r="AW45" s="1"/>
-    </row>
-    <row r="46" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="AX45" s="1"/>
+    </row>
+    <row r="46" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A46" s="1"/>
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
@@ -4343,8 +4385,9 @@
       <c r="AU46" s="1"/>
       <c r="AV46" s="1"/>
       <c r="AW46" s="1"/>
-    </row>
-    <row r="47" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="AX46" s="1"/>
+    </row>
+    <row r="47" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A47" s="1"/>
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
@@ -4394,8 +4437,9 @@
       <c r="AU47" s="1"/>
       <c r="AV47" s="1"/>
       <c r="AW47" s="1"/>
-    </row>
-    <row r="48" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="AX47" s="1"/>
+    </row>
+    <row r="48" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A48" s="1"/>
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
@@ -4445,8 +4489,9 @@
       <c r="AU48" s="1"/>
       <c r="AV48" s="1"/>
       <c r="AW48" s="1"/>
-    </row>
-    <row r="49" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="AX48" s="1"/>
+    </row>
+    <row r="49" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A49" s="1"/>
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
@@ -4496,8 +4541,9 @@
       <c r="AU49" s="1"/>
       <c r="AV49" s="1"/>
       <c r="AW49" s="1"/>
-    </row>
-    <row r="50" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="AX49" s="1"/>
+    </row>
+    <row r="50" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A50" s="1"/>
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
@@ -4547,8 +4593,9 @@
       <c r="AU50" s="1"/>
       <c r="AV50" s="1"/>
       <c r="AW50" s="1"/>
-    </row>
-    <row r="51" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="AX50" s="1"/>
+    </row>
+    <row r="51" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A51" s="1"/>
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
@@ -4598,8 +4645,9 @@
       <c r="AU51" s="1"/>
       <c r="AV51" s="1"/>
       <c r="AW51" s="1"/>
-    </row>
-    <row r="52" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="AX51" s="1"/>
+    </row>
+    <row r="52" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A52" s="1"/>
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
@@ -4649,8 +4697,9 @@
       <c r="AU52" s="1"/>
       <c r="AV52" s="1"/>
       <c r="AW52" s="1"/>
-    </row>
-    <row r="53" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="AX52" s="1"/>
+    </row>
+    <row r="53" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A53" s="1"/>
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
@@ -4700,8 +4749,9 @@
       <c r="AU53" s="1"/>
       <c r="AV53" s="1"/>
       <c r="AW53" s="1"/>
-    </row>
-    <row r="54" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="AX53" s="1"/>
+    </row>
+    <row r="54" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A54" s="1"/>
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
@@ -4751,8 +4801,9 @@
       <c r="AU54" s="1"/>
       <c r="AV54" s="1"/>
       <c r="AW54" s="1"/>
-    </row>
-    <row r="55" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="AX54" s="1"/>
+    </row>
+    <row r="55" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A55" s="1"/>
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
@@ -4802,8 +4853,9 @@
       <c r="AU55" s="1"/>
       <c r="AV55" s="1"/>
       <c r="AW55" s="1"/>
-    </row>
-    <row r="56" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="AX55" s="1"/>
+    </row>
+    <row r="56" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A56" s="1"/>
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
@@ -4853,8 +4905,9 @@
       <c r="AU56" s="1"/>
       <c r="AV56" s="1"/>
       <c r="AW56" s="1"/>
-    </row>
-    <row r="57" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="AX56" s="1"/>
+    </row>
+    <row r="57" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A57" s="1"/>
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
@@ -4904,8 +4957,9 @@
       <c r="AU57" s="1"/>
       <c r="AV57" s="1"/>
       <c r="AW57" s="1"/>
-    </row>
-    <row r="58" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="AX57" s="1"/>
+    </row>
+    <row r="58" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A58" s="1"/>
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
@@ -4955,8 +5009,9 @@
       <c r="AU58" s="1"/>
       <c r="AV58" s="1"/>
       <c r="AW58" s="1"/>
-    </row>
-    <row r="59" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="AX58" s="1"/>
+    </row>
+    <row r="59" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A59" s="1"/>
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
@@ -5006,8 +5061,9 @@
       <c r="AU59" s="1"/>
       <c r="AV59" s="1"/>
       <c r="AW59" s="1"/>
-    </row>
-    <row r="60" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="AX59" s="1"/>
+    </row>
+    <row r="60" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A60" s="1"/>
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
@@ -5057,8 +5113,9 @@
       <c r="AU60" s="1"/>
       <c r="AV60" s="1"/>
       <c r="AW60" s="1"/>
-    </row>
-    <row r="61" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="AX60" s="1"/>
+    </row>
+    <row r="61" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A61" s="1"/>
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
@@ -5108,8 +5165,9 @@
       <c r="AU61" s="1"/>
       <c r="AV61" s="1"/>
       <c r="AW61" s="1"/>
-    </row>
-    <row r="62" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="AX61" s="1"/>
+    </row>
+    <row r="62" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A62" s="1"/>
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
@@ -5159,8 +5217,9 @@
       <c r="AU62" s="1"/>
       <c r="AV62" s="1"/>
       <c r="AW62" s="1"/>
-    </row>
-    <row r="63" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="AX62" s="1"/>
+    </row>
+    <row r="63" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A63" s="1"/>
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
@@ -5210,8 +5269,9 @@
       <c r="AU63" s="1"/>
       <c r="AV63" s="1"/>
       <c r="AW63" s="1"/>
-    </row>
-    <row r="64" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="AX63" s="1"/>
+    </row>
+    <row r="64" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A64" s="1"/>
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
@@ -5261,8 +5321,9 @@
       <c r="AU64" s="1"/>
       <c r="AV64" s="1"/>
       <c r="AW64" s="1"/>
-    </row>
-    <row r="65" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="AX64" s="1"/>
+    </row>
+    <row r="65" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A65" s="1"/>
       <c r="B65" s="1"/>
       <c r="C65" s="1"/>
@@ -5312,8 +5373,9 @@
       <c r="AU65" s="1"/>
       <c r="AV65" s="1"/>
       <c r="AW65" s="1"/>
-    </row>
-    <row r="66" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="AX65" s="1"/>
+    </row>
+    <row r="66" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A66" s="1"/>
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
@@ -5363,8 +5425,9 @@
       <c r="AU66" s="1"/>
       <c r="AV66" s="1"/>
       <c r="AW66" s="1"/>
-    </row>
-    <row r="67" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="AX66" s="1"/>
+    </row>
+    <row r="67" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A67" s="1"/>
       <c r="B67" s="1"/>
       <c r="C67" s="1"/>
@@ -5414,8 +5477,9 @@
       <c r="AU67" s="1"/>
       <c r="AV67" s="1"/>
       <c r="AW67" s="1"/>
-    </row>
-    <row r="68" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="AX67" s="1"/>
+    </row>
+    <row r="68" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A68" s="1"/>
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
@@ -5465,8 +5529,9 @@
       <c r="AU68" s="1"/>
       <c r="AV68" s="1"/>
       <c r="AW68" s="1"/>
-    </row>
-    <row r="69" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="AX68" s="1"/>
+    </row>
+    <row r="69" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A69" s="1"/>
       <c r="B69" s="1"/>
       <c r="C69" s="1"/>
@@ -5516,8 +5581,9 @@
       <c r="AU69" s="1"/>
       <c r="AV69" s="1"/>
       <c r="AW69" s="1"/>
-    </row>
-    <row r="70" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="AX69" s="1"/>
+    </row>
+    <row r="70" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A70" s="1"/>
       <c r="B70" s="1"/>
       <c r="C70" s="1"/>
@@ -5567,8 +5633,9 @@
       <c r="AU70" s="1"/>
       <c r="AV70" s="1"/>
       <c r="AW70" s="1"/>
-    </row>
-    <row r="71" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="AX70" s="1"/>
+    </row>
+    <row r="71" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A71" s="1"/>
       <c r="B71" s="1"/>
       <c r="C71" s="1"/>
@@ -5618,8 +5685,9 @@
       <c r="AU71" s="1"/>
       <c r="AV71" s="1"/>
       <c r="AW71" s="1"/>
-    </row>
-    <row r="72" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="AX71" s="1"/>
+    </row>
+    <row r="72" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A72" s="1"/>
       <c r="B72" s="1"/>
       <c r="C72" s="1"/>
@@ -5669,8 +5737,9 @@
       <c r="AU72" s="1"/>
       <c r="AV72" s="1"/>
       <c r="AW72" s="1"/>
-    </row>
-    <row r="73" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="AX72" s="1"/>
+    </row>
+    <row r="73" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A73" s="1"/>
       <c r="B73" s="1"/>
       <c r="C73" s="1"/>
@@ -5720,8 +5789,9 @@
       <c r="AU73" s="1"/>
       <c r="AV73" s="1"/>
       <c r="AW73" s="1"/>
-    </row>
-    <row r="74" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="AX73" s="1"/>
+    </row>
+    <row r="74" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A74" s="1"/>
       <c r="B74" s="1"/>
       <c r="C74" s="1"/>
@@ -5771,8 +5841,9 @@
       <c r="AU74" s="1"/>
       <c r="AV74" s="1"/>
       <c r="AW74" s="1"/>
-    </row>
-    <row r="75" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="AX74" s="1"/>
+    </row>
+    <row r="75" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A75" s="1"/>
       <c r="B75" s="1"/>
       <c r="C75" s="1"/>
@@ -5822,8 +5893,9 @@
       <c r="AU75" s="1"/>
       <c r="AV75" s="1"/>
       <c r="AW75" s="1"/>
-    </row>
-    <row r="76" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="AX75" s="1"/>
+    </row>
+    <row r="76" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A76" s="1"/>
       <c r="B76" s="1"/>
       <c r="C76" s="1"/>
@@ -5873,8 +5945,9 @@
       <c r="AU76" s="1"/>
       <c r="AV76" s="1"/>
       <c r="AW76" s="1"/>
-    </row>
-    <row r="77" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="AX76" s="1"/>
+    </row>
+    <row r="77" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A77" s="1"/>
       <c r="B77" s="1"/>
       <c r="C77" s="1"/>
@@ -5924,8 +5997,9 @@
       <c r="AU77" s="1"/>
       <c r="AV77" s="1"/>
       <c r="AW77" s="1"/>
-    </row>
-    <row r="78" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="AX77" s="1"/>
+    </row>
+    <row r="78" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A78" s="1"/>
       <c r="B78" s="1"/>
       <c r="C78" s="1"/>
@@ -5975,8 +6049,9 @@
       <c r="AU78" s="1"/>
       <c r="AV78" s="1"/>
       <c r="AW78" s="1"/>
-    </row>
-    <row r="79" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="AX78" s="1"/>
+    </row>
+    <row r="79" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A79" s="1"/>
       <c r="B79" s="1"/>
       <c r="C79" s="1"/>
@@ -6026,8 +6101,9 @@
       <c r="AU79" s="1"/>
       <c r="AV79" s="1"/>
       <c r="AW79" s="1"/>
-    </row>
-    <row r="80" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="AX79" s="1"/>
+    </row>
+    <row r="80" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A80" s="1"/>
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
@@ -6077,8 +6153,9 @@
       <c r="AU80" s="1"/>
       <c r="AV80" s="1"/>
       <c r="AW80" s="1"/>
-    </row>
-    <row r="81" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="AX80" s="1"/>
+    </row>
+    <row r="81" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A81" s="1"/>
       <c r="B81" s="1"/>
       <c r="C81" s="1"/>
@@ -6128,8 +6205,9 @@
       <c r="AU81" s="1"/>
       <c r="AV81" s="1"/>
       <c r="AW81" s="1"/>
-    </row>
-    <row r="82" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="AX81" s="1"/>
+    </row>
+    <row r="82" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A82" s="1"/>
       <c r="B82" s="1"/>
       <c r="C82" s="1"/>
@@ -6179,8 +6257,9 @@
       <c r="AU82" s="1"/>
       <c r="AV82" s="1"/>
       <c r="AW82" s="1"/>
-    </row>
-    <row r="83" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="AX82" s="1"/>
+    </row>
+    <row r="83" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A83" s="1"/>
       <c r="B83" s="1"/>
       <c r="C83" s="1"/>
@@ -6230,8 +6309,9 @@
       <c r="AU83" s="1"/>
       <c r="AV83" s="1"/>
       <c r="AW83" s="1"/>
-    </row>
-    <row r="84" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="AX83" s="1"/>
+    </row>
+    <row r="84" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A84" s="1"/>
       <c r="B84" s="1"/>
       <c r="C84" s="1"/>
@@ -6281,8 +6361,9 @@
       <c r="AU84" s="1"/>
       <c r="AV84" s="1"/>
       <c r="AW84" s="1"/>
-    </row>
-    <row r="85" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="AX84" s="1"/>
+    </row>
+    <row r="85" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A85" s="1"/>
       <c r="B85" s="1"/>
       <c r="C85" s="1"/>
@@ -6332,8 +6413,9 @@
       <c r="AU85" s="1"/>
       <c r="AV85" s="1"/>
       <c r="AW85" s="1"/>
-    </row>
-    <row r="86" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="AX85" s="1"/>
+    </row>
+    <row r="86" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A86" s="1"/>
       <c r="B86" s="1"/>
       <c r="C86" s="1"/>
@@ -6383,8 +6465,9 @@
       <c r="AU86" s="1"/>
       <c r="AV86" s="1"/>
       <c r="AW86" s="1"/>
-    </row>
-    <row r="87" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="AX86" s="1"/>
+    </row>
+    <row r="87" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A87" s="1"/>
       <c r="B87" s="1"/>
       <c r="C87" s="1"/>
@@ -6434,8 +6517,9 @@
       <c r="AU87" s="1"/>
       <c r="AV87" s="1"/>
       <c r="AW87" s="1"/>
-    </row>
-    <row r="88" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="AX87" s="1"/>
+    </row>
+    <row r="88" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A88" s="1"/>
       <c r="B88" s="1"/>
       <c r="C88" s="1"/>
@@ -6485,8 +6569,9 @@
       <c r="AU88" s="1"/>
       <c r="AV88" s="1"/>
       <c r="AW88" s="1"/>
-    </row>
-    <row r="89" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="AX88" s="1"/>
+    </row>
+    <row r="89" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A89" s="1"/>
       <c r="B89" s="1"/>
       <c r="C89" s="1"/>
@@ -6536,8 +6621,9 @@
       <c r="AU89" s="1"/>
       <c r="AV89" s="1"/>
       <c r="AW89" s="1"/>
-    </row>
-    <row r="90" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="AX89" s="1"/>
+    </row>
+    <row r="90" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A90" s="1"/>
       <c r="B90" s="1"/>
       <c r="C90" s="1"/>
@@ -6587,8 +6673,9 @@
       <c r="AU90" s="1"/>
       <c r="AV90" s="1"/>
       <c r="AW90" s="1"/>
-    </row>
-    <row r="91" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="AX90" s="1"/>
+    </row>
+    <row r="91" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A91" s="1"/>
       <c r="B91" s="1"/>
       <c r="C91" s="1"/>
@@ -6638,8 +6725,9 @@
       <c r="AU91" s="1"/>
       <c r="AV91" s="1"/>
       <c r="AW91" s="1"/>
-    </row>
-    <row r="92" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="AX91" s="1"/>
+    </row>
+    <row r="92" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A92" s="1"/>
       <c r="B92" s="1"/>
       <c r="C92" s="1"/>
@@ -6689,8 +6777,9 @@
       <c r="AU92" s="1"/>
       <c r="AV92" s="1"/>
       <c r="AW92" s="1"/>
-    </row>
-    <row r="93" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="AX92" s="1"/>
+    </row>
+    <row r="93" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A93" s="1"/>
       <c r="B93" s="1"/>
       <c r="C93" s="1"/>
@@ -6740,8 +6829,9 @@
       <c r="AU93" s="1"/>
       <c r="AV93" s="1"/>
       <c r="AW93" s="1"/>
-    </row>
-    <row r="94" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="AX93" s="1"/>
+    </row>
+    <row r="94" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A94" s="1"/>
       <c r="B94" s="1"/>
       <c r="C94" s="1"/>
@@ -6791,8 +6881,9 @@
       <c r="AU94" s="1"/>
       <c r="AV94" s="1"/>
       <c r="AW94" s="1"/>
-    </row>
-    <row r="95" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="AX94" s="1"/>
+    </row>
+    <row r="95" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A95" s="1"/>
       <c r="B95" s="1"/>
       <c r="C95" s="1"/>
@@ -6842,8 +6933,9 @@
       <c r="AU95" s="1"/>
       <c r="AV95" s="1"/>
       <c r="AW95" s="1"/>
-    </row>
-    <row r="96" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="AX95" s="1"/>
+    </row>
+    <row r="96" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A96" s="1"/>
       <c r="B96" s="1"/>
       <c r="C96" s="1"/>
@@ -6893,8 +6985,9 @@
       <c r="AU96" s="1"/>
       <c r="AV96" s="1"/>
       <c r="AW96" s="1"/>
-    </row>
-    <row r="97" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="AX96" s="1"/>
+    </row>
+    <row r="97" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A97" s="1"/>
       <c r="B97" s="1"/>
       <c r="C97" s="1"/>
@@ -6944,8 +7037,9 @@
       <c r="AU97" s="1"/>
       <c r="AV97" s="1"/>
       <c r="AW97" s="1"/>
-    </row>
-    <row r="98" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="AX97" s="1"/>
+    </row>
+    <row r="98" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A98" s="1"/>
       <c r="B98" s="1"/>
       <c r="C98" s="1"/>
@@ -6995,8 +7089,9 @@
       <c r="AU98" s="1"/>
       <c r="AV98" s="1"/>
       <c r="AW98" s="1"/>
-    </row>
-    <row r="99" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="AX98" s="1"/>
+    </row>
+    <row r="99" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A99" s="1"/>
       <c r="B99" s="1"/>
       <c r="C99" s="1"/>
@@ -7046,8 +7141,9 @@
       <c r="AU99" s="1"/>
       <c r="AV99" s="1"/>
       <c r="AW99" s="1"/>
-    </row>
-    <row r="100" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="AX99" s="1"/>
+    </row>
+    <row r="100" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A100" s="1"/>
       <c r="B100" s="1"/>
       <c r="C100" s="1"/>
@@ -7097,8 +7193,9 @@
       <c r="AU100" s="1"/>
       <c r="AV100" s="1"/>
       <c r="AW100" s="1"/>
-    </row>
-    <row r="101" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="AX100" s="1"/>
+    </row>
+    <row r="101" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A101" s="1"/>
       <c r="B101" s="1"/>
       <c r="C101" s="1"/>
@@ -7148,8 +7245,9 @@
       <c r="AU101" s="1"/>
       <c r="AV101" s="1"/>
       <c r="AW101" s="1"/>
-    </row>
-    <row r="102" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="AX101" s="1"/>
+    </row>
+    <row r="102" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A102" s="1"/>
       <c r="B102" s="1"/>
       <c r="C102" s="1"/>
@@ -7199,8 +7297,9 @@
       <c r="AU102" s="1"/>
       <c r="AV102" s="1"/>
       <c r="AW102" s="1"/>
-    </row>
-    <row r="103" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="AX102" s="1"/>
+    </row>
+    <row r="103" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A103" s="1"/>
       <c r="B103" s="1"/>
       <c r="C103" s="1"/>
@@ -7250,8 +7349,9 @@
       <c r="AU103" s="1"/>
       <c r="AV103" s="1"/>
       <c r="AW103" s="1"/>
-    </row>
-    <row r="104" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="AX103" s="1"/>
+    </row>
+    <row r="104" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A104" s="1"/>
       <c r="B104" s="1"/>
       <c r="C104" s="1"/>
@@ -7301,8 +7401,9 @@
       <c r="AU104" s="1"/>
       <c r="AV104" s="1"/>
       <c r="AW104" s="1"/>
-    </row>
-    <row r="105" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="AX104" s="1"/>
+    </row>
+    <row r="105" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A105" s="1"/>
       <c r="B105" s="1"/>
       <c r="C105" s="1"/>
@@ -7352,8 +7453,9 @@
       <c r="AU105" s="1"/>
       <c r="AV105" s="1"/>
       <c r="AW105" s="1"/>
-    </row>
-    <row r="106" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="AX105" s="1"/>
+    </row>
+    <row r="106" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A106" s="1"/>
       <c r="B106" s="1"/>
       <c r="C106" s="1"/>
@@ -7403,8 +7505,9 @@
       <c r="AU106" s="1"/>
       <c r="AV106" s="1"/>
       <c r="AW106" s="1"/>
-    </row>
-    <row r="107" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="AX106" s="1"/>
+    </row>
+    <row r="107" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A107" s="1"/>
       <c r="B107" s="1"/>
       <c r="C107" s="1"/>
@@ -7454,8 +7557,9 @@
       <c r="AU107" s="1"/>
       <c r="AV107" s="1"/>
       <c r="AW107" s="1"/>
-    </row>
-    <row r="108" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="AX107" s="1"/>
+    </row>
+    <row r="108" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A108" s="1"/>
       <c r="B108" s="1"/>
       <c r="C108" s="1"/>
@@ -7505,8 +7609,9 @@
       <c r="AU108" s="1"/>
       <c r="AV108" s="1"/>
       <c r="AW108" s="1"/>
-    </row>
-    <row r="109" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="AX108" s="1"/>
+    </row>
+    <row r="109" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A109" s="1"/>
       <c r="B109" s="1"/>
       <c r="C109" s="1"/>
@@ -7556,8 +7661,9 @@
       <c r="AU109" s="1"/>
       <c r="AV109" s="1"/>
       <c r="AW109" s="1"/>
-    </row>
-    <row r="110" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="AX109" s="1"/>
+    </row>
+    <row r="110" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A110" s="1"/>
       <c r="B110" s="1"/>
       <c r="C110" s="1"/>
@@ -7607,8 +7713,9 @@
       <c r="AU110" s="1"/>
       <c r="AV110" s="1"/>
       <c r="AW110" s="1"/>
-    </row>
-    <row r="111" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="AX110" s="1"/>
+    </row>
+    <row r="111" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A111" s="1"/>
       <c r="B111" s="1"/>
       <c r="C111" s="1"/>
@@ -7658,8 +7765,9 @@
       <c r="AU111" s="1"/>
       <c r="AV111" s="1"/>
       <c r="AW111" s="1"/>
-    </row>
-    <row r="112" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="AX111" s="1"/>
+    </row>
+    <row r="112" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A112" s="1"/>
       <c r="B112" s="1"/>
       <c r="C112" s="1"/>
@@ -7709,8 +7817,9 @@
       <c r="AU112" s="1"/>
       <c r="AV112" s="1"/>
       <c r="AW112" s="1"/>
-    </row>
-    <row r="113" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="AX112" s="1"/>
+    </row>
+    <row r="113" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A113" s="1"/>
       <c r="B113" s="1"/>
       <c r="C113" s="1"/>
@@ -7760,8 +7869,9 @@
       <c r="AU113" s="1"/>
       <c r="AV113" s="1"/>
       <c r="AW113" s="1"/>
-    </row>
-    <row r="114" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="AX113" s="1"/>
+    </row>
+    <row r="114" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A114" s="1"/>
       <c r="B114" s="1"/>
       <c r="C114" s="1"/>
@@ -7811,8 +7921,9 @@
       <c r="AU114" s="1"/>
       <c r="AV114" s="1"/>
       <c r="AW114" s="1"/>
-    </row>
-    <row r="115" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="AX114" s="1"/>
+    </row>
+    <row r="115" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A115" s="1"/>
       <c r="B115" s="1"/>
       <c r="C115" s="1"/>
@@ -7862,8 +7973,9 @@
       <c r="AU115" s="1"/>
       <c r="AV115" s="1"/>
       <c r="AW115" s="1"/>
-    </row>
-    <row r="116" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="AX115" s="1"/>
+    </row>
+    <row r="116" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A116" s="1"/>
       <c r="B116" s="1"/>
       <c r="C116" s="1"/>
@@ -7913,8 +8025,9 @@
       <c r="AU116" s="1"/>
       <c r="AV116" s="1"/>
       <c r="AW116" s="1"/>
-    </row>
-    <row r="117" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="AX116" s="1"/>
+    </row>
+    <row r="117" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A117" s="1"/>
       <c r="B117" s="1"/>
       <c r="C117" s="1"/>
@@ -7964,8 +8077,9 @@
       <c r="AU117" s="1"/>
       <c r="AV117" s="1"/>
       <c r="AW117" s="1"/>
-    </row>
-    <row r="118" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="AX117" s="1"/>
+    </row>
+    <row r="118" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A118" s="1"/>
       <c r="B118" s="1"/>
       <c r="C118" s="1"/>
@@ -8015,8 +8129,9 @@
       <c r="AU118" s="1"/>
       <c r="AV118" s="1"/>
       <c r="AW118" s="1"/>
-    </row>
-    <row r="119" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="AX118" s="1"/>
+    </row>
+    <row r="119" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A119" s="1"/>
       <c r="B119" s="1"/>
       <c r="C119" s="1"/>
@@ -8066,8 +8181,9 @@
       <c r="AU119" s="1"/>
       <c r="AV119" s="1"/>
       <c r="AW119" s="1"/>
-    </row>
-    <row r="120" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="AX119" s="1"/>
+    </row>
+    <row r="120" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A120" s="1"/>
       <c r="B120" s="1"/>
       <c r="C120" s="1"/>
@@ -8117,8 +8233,9 @@
       <c r="AU120" s="1"/>
       <c r="AV120" s="1"/>
       <c r="AW120" s="1"/>
-    </row>
-    <row r="121" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="AX120" s="1"/>
+    </row>
+    <row r="121" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A121" s="1"/>
       <c r="B121" s="1"/>
       <c r="C121" s="1"/>
@@ -8168,8 +8285,9 @@
       <c r="AU121" s="1"/>
       <c r="AV121" s="1"/>
       <c r="AW121" s="1"/>
-    </row>
-    <row r="122" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="AX121" s="1"/>
+    </row>
+    <row r="122" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A122" s="1"/>
       <c r="B122" s="1"/>
       <c r="C122" s="1"/>
@@ -8219,8 +8337,9 @@
       <c r="AU122" s="1"/>
       <c r="AV122" s="1"/>
       <c r="AW122" s="1"/>
-    </row>
-    <row r="123" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="AX122" s="1"/>
+    </row>
+    <row r="123" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A123" s="1"/>
       <c r="B123" s="1"/>
       <c r="C123" s="1"/>
@@ -8270,8 +8389,9 @@
       <c r="AU123" s="1"/>
       <c r="AV123" s="1"/>
       <c r="AW123" s="1"/>
-    </row>
-    <row r="124" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="AX123" s="1"/>
+    </row>
+    <row r="124" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A124" s="1"/>
       <c r="B124" s="1"/>
       <c r="C124" s="1"/>
@@ -8321,8 +8441,9 @@
       <c r="AU124" s="1"/>
       <c r="AV124" s="1"/>
       <c r="AW124" s="1"/>
-    </row>
-    <row r="125" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="AX124" s="1"/>
+    </row>
+    <row r="125" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A125" s="1"/>
       <c r="B125" s="1"/>
       <c r="C125" s="1"/>
@@ -8372,8 +8493,9 @@
       <c r="AU125" s="1"/>
       <c r="AV125" s="1"/>
       <c r="AW125" s="1"/>
-    </row>
-    <row r="126" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="AX125" s="1"/>
+    </row>
+    <row r="126" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A126" s="1"/>
       <c r="B126" s="1"/>
       <c r="C126" s="1"/>
@@ -8423,8 +8545,9 @@
       <c r="AU126" s="1"/>
       <c r="AV126" s="1"/>
       <c r="AW126" s="1"/>
-    </row>
-    <row r="127" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="AX126" s="1"/>
+    </row>
+    <row r="127" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A127" s="1"/>
       <c r="B127" s="1"/>
       <c r="C127" s="1"/>
@@ -8474,8 +8597,9 @@
       <c r="AU127" s="1"/>
       <c r="AV127" s="1"/>
       <c r="AW127" s="1"/>
-    </row>
-    <row r="128" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="AX127" s="1"/>
+    </row>
+    <row r="128" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A128" s="1"/>
       <c r="B128" s="1"/>
       <c r="C128" s="1"/>
@@ -8525,8 +8649,9 @@
       <c r="AU128" s="1"/>
       <c r="AV128" s="1"/>
       <c r="AW128" s="1"/>
-    </row>
-    <row r="129" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="AX128" s="1"/>
+    </row>
+    <row r="129" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A129" s="1"/>
       <c r="B129" s="1"/>
       <c r="C129" s="1"/>
@@ -8576,8 +8701,9 @@
       <c r="AU129" s="1"/>
       <c r="AV129" s="1"/>
       <c r="AW129" s="1"/>
-    </row>
-    <row r="130" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="AX129" s="1"/>
+    </row>
+    <row r="130" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A130" s="1"/>
       <c r="B130" s="1"/>
       <c r="C130" s="1"/>
@@ -8627,8 +8753,9 @@
       <c r="AU130" s="1"/>
       <c r="AV130" s="1"/>
       <c r="AW130" s="1"/>
-    </row>
-    <row r="131" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="AX130" s="1"/>
+    </row>
+    <row r="131" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A131" s="1"/>
       <c r="B131" s="1"/>
       <c r="C131" s="1"/>
@@ -8678,8 +8805,9 @@
       <c r="AU131" s="1"/>
       <c r="AV131" s="1"/>
       <c r="AW131" s="1"/>
-    </row>
-    <row r="132" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="AX131" s="1"/>
+    </row>
+    <row r="132" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A132" s="1"/>
       <c r="B132" s="1"/>
       <c r="C132" s="1"/>
@@ -8729,8 +8857,9 @@
       <c r="AU132" s="1"/>
       <c r="AV132" s="1"/>
       <c r="AW132" s="1"/>
-    </row>
-    <row r="133" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="AX132" s="1"/>
+    </row>
+    <row r="133" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A133" s="1"/>
       <c r="B133" s="1"/>
       <c r="C133" s="1"/>
@@ -8780,8 +8909,9 @@
       <c r="AU133" s="1"/>
       <c r="AV133" s="1"/>
       <c r="AW133" s="1"/>
-    </row>
-    <row r="134" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="AX133" s="1"/>
+    </row>
+    <row r="134" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A134" s="1"/>
       <c r="B134" s="1"/>
       <c r="C134" s="1"/>
@@ -8831,8 +8961,9 @@
       <c r="AU134" s="1"/>
       <c r="AV134" s="1"/>
       <c r="AW134" s="1"/>
-    </row>
-    <row r="135" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="AX134" s="1"/>
+    </row>
+    <row r="135" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A135" s="1"/>
       <c r="B135" s="1"/>
       <c r="C135" s="1"/>
@@ -8882,8 +9013,9 @@
       <c r="AU135" s="1"/>
       <c r="AV135" s="1"/>
       <c r="AW135" s="1"/>
-    </row>
-    <row r="136" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="AX135" s="1"/>
+    </row>
+    <row r="136" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A136" s="1"/>
       <c r="B136" s="1"/>
       <c r="C136" s="1"/>
@@ -8933,8 +9065,9 @@
       <c r="AU136" s="1"/>
       <c r="AV136" s="1"/>
       <c r="AW136" s="1"/>
-    </row>
-    <row r="137" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="AX136" s="1"/>
+    </row>
+    <row r="137" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A137" s="1"/>
       <c r="B137" s="1"/>
       <c r="C137" s="1"/>
@@ -8984,8 +9117,9 @@
       <c r="AU137" s="1"/>
       <c r="AV137" s="1"/>
       <c r="AW137" s="1"/>
-    </row>
-    <row r="138" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="AX137" s="1"/>
+    </row>
+    <row r="138" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A138" s="1"/>
       <c r="B138" s="1"/>
       <c r="C138" s="1"/>
@@ -9035,8 +9169,9 @@
       <c r="AU138" s="1"/>
       <c r="AV138" s="1"/>
       <c r="AW138" s="1"/>
-    </row>
-    <row r="139" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="AX138" s="1"/>
+    </row>
+    <row r="139" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A139" s="1"/>
       <c r="B139" s="1"/>
       <c r="C139" s="1"/>
@@ -9086,8 +9221,9 @@
       <c r="AU139" s="1"/>
       <c r="AV139" s="1"/>
       <c r="AW139" s="1"/>
-    </row>
-    <row r="140" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="AX139" s="1"/>
+    </row>
+    <row r="140" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A140" s="1"/>
       <c r="B140" s="1"/>
       <c r="C140" s="1"/>
@@ -9137,8 +9273,9 @@
       <c r="AU140" s="1"/>
       <c r="AV140" s="1"/>
       <c r="AW140" s="1"/>
-    </row>
-    <row r="141" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="AX140" s="1"/>
+    </row>
+    <row r="141" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A141" s="1"/>
       <c r="B141" s="1"/>
       <c r="C141" s="1"/>
@@ -9188,8 +9325,9 @@
       <c r="AU141" s="1"/>
       <c r="AV141" s="1"/>
       <c r="AW141" s="1"/>
-    </row>
-    <row r="142" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="AX141" s="1"/>
+    </row>
+    <row r="142" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A142" s="1"/>
       <c r="B142" s="1"/>
       <c r="C142" s="1"/>
@@ -9239,8 +9377,9 @@
       <c r="AU142" s="1"/>
       <c r="AV142" s="1"/>
       <c r="AW142" s="1"/>
-    </row>
-    <row r="143" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="AX142" s="1"/>
+    </row>
+    <row r="143" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A143" s="1"/>
       <c r="B143" s="1"/>
       <c r="C143" s="1"/>
@@ -9290,8 +9429,9 @@
       <c r="AU143" s="1"/>
       <c r="AV143" s="1"/>
       <c r="AW143" s="1"/>
-    </row>
-    <row r="144" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="AX143" s="1"/>
+    </row>
+    <row r="144" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A144" s="1"/>
       <c r="B144" s="1"/>
       <c r="C144" s="1"/>
@@ -9341,8 +9481,9 @@
       <c r="AU144" s="1"/>
       <c r="AV144" s="1"/>
       <c r="AW144" s="1"/>
-    </row>
-    <row r="145" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="AX144" s="1"/>
+    </row>
+    <row r="145" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A145" s="1"/>
       <c r="B145" s="1"/>
       <c r="C145" s="1"/>
@@ -9392,8 +9533,9 @@
       <c r="AU145" s="1"/>
       <c r="AV145" s="1"/>
       <c r="AW145" s="1"/>
-    </row>
-    <row r="146" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="AX145" s="1"/>
+    </row>
+    <row r="146" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A146" s="1"/>
       <c r="B146" s="1"/>
       <c r="C146" s="1"/>
@@ -9443,8 +9585,9 @@
       <c r="AU146" s="1"/>
       <c r="AV146" s="1"/>
       <c r="AW146" s="1"/>
-    </row>
-    <row r="147" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="AX146" s="1"/>
+    </row>
+    <row r="147" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A147" s="1"/>
       <c r="B147" s="1"/>
       <c r="C147" s="1"/>
@@ -9494,8 +9637,9 @@
       <c r="AU147" s="1"/>
       <c r="AV147" s="1"/>
       <c r="AW147" s="1"/>
-    </row>
-    <row r="148" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="AX147" s="1"/>
+    </row>
+    <row r="148" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A148" s="1"/>
       <c r="B148" s="1"/>
       <c r="C148" s="1"/>
@@ -9545,8 +9689,9 @@
       <c r="AU148" s="1"/>
       <c r="AV148" s="1"/>
       <c r="AW148" s="1"/>
-    </row>
-    <row r="149" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="AX148" s="1"/>
+    </row>
+    <row r="149" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A149" s="1"/>
       <c r="B149" s="1"/>
       <c r="C149" s="1"/>
@@ -9596,8 +9741,9 @@
       <c r="AU149" s="1"/>
       <c r="AV149" s="1"/>
       <c r="AW149" s="1"/>
-    </row>
-    <row r="150" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="AX149" s="1"/>
+    </row>
+    <row r="150" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A150" s="1"/>
       <c r="B150" s="1"/>
       <c r="C150" s="1"/>
@@ -9647,8 +9793,9 @@
       <c r="AU150" s="1"/>
       <c r="AV150" s="1"/>
       <c r="AW150" s="1"/>
-    </row>
-    <row r="151" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="AX150" s="1"/>
+    </row>
+    <row r="151" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A151" s="1"/>
       <c r="B151" s="1"/>
       <c r="C151" s="1"/>
@@ -9698,8 +9845,9 @@
       <c r="AU151" s="1"/>
       <c r="AV151" s="1"/>
       <c r="AW151" s="1"/>
-    </row>
-    <row r="152" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="AX151" s="1"/>
+    </row>
+    <row r="152" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A152" s="1"/>
       <c r="B152" s="1"/>
       <c r="C152" s="1"/>
@@ -9749,8 +9897,9 @@
       <c r="AU152" s="1"/>
       <c r="AV152" s="1"/>
       <c r="AW152" s="1"/>
-    </row>
-    <row r="153" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="AX152" s="1"/>
+    </row>
+    <row r="153" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A153" s="1"/>
       <c r="B153" s="1"/>
       <c r="C153" s="1"/>
@@ -9800,8 +9949,9 @@
       <c r="AU153" s="1"/>
       <c r="AV153" s="1"/>
       <c r="AW153" s="1"/>
-    </row>
-    <row r="154" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="AX153" s="1"/>
+    </row>
+    <row r="154" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A154" s="1"/>
       <c r="B154" s="1"/>
       <c r="C154" s="1"/>
@@ -9851,8 +10001,9 @@
       <c r="AU154" s="1"/>
       <c r="AV154" s="1"/>
       <c r="AW154" s="1"/>
-    </row>
-    <row r="155" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="AX154" s="1"/>
+    </row>
+    <row r="155" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A155" s="1"/>
       <c r="B155" s="1"/>
       <c r="C155" s="1"/>
@@ -9902,8 +10053,9 @@
       <c r="AU155" s="1"/>
       <c r="AV155" s="1"/>
       <c r="AW155" s="1"/>
-    </row>
-    <row r="156" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="AX155" s="1"/>
+    </row>
+    <row r="156" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A156" s="1"/>
       <c r="B156" s="1"/>
       <c r="C156" s="1"/>
@@ -9953,8 +10105,9 @@
       <c r="AU156" s="1"/>
       <c r="AV156" s="1"/>
       <c r="AW156" s="1"/>
-    </row>
-    <row r="157" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="AX156" s="1"/>
+    </row>
+    <row r="157" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A157" s="1"/>
       <c r="B157" s="1"/>
       <c r="C157" s="1"/>
@@ -10004,8 +10157,9 @@
       <c r="AU157" s="1"/>
       <c r="AV157" s="1"/>
       <c r="AW157" s="1"/>
-    </row>
-    <row r="158" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="AX157" s="1"/>
+    </row>
+    <row r="158" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A158" s="1"/>
       <c r="B158" s="1"/>
       <c r="C158" s="1"/>
@@ -10055,8 +10209,9 @@
       <c r="AU158" s="1"/>
       <c r="AV158" s="1"/>
       <c r="AW158" s="1"/>
-    </row>
-    <row r="159" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="AX158" s="1"/>
+    </row>
+    <row r="159" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A159" s="1"/>
       <c r="B159" s="1"/>
       <c r="C159" s="1"/>
@@ -10106,8 +10261,9 @@
       <c r="AU159" s="1"/>
       <c r="AV159" s="1"/>
       <c r="AW159" s="1"/>
-    </row>
-    <row r="160" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="AX159" s="1"/>
+    </row>
+    <row r="160" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A160" s="1"/>
       <c r="B160" s="1"/>
       <c r="C160" s="1"/>
@@ -10157,8 +10313,9 @@
       <c r="AU160" s="1"/>
       <c r="AV160" s="1"/>
       <c r="AW160" s="1"/>
-    </row>
-    <row r="161" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="AX160" s="1"/>
+    </row>
+    <row r="161" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A161" s="1"/>
       <c r="B161" s="1"/>
       <c r="C161" s="1"/>
@@ -10208,8 +10365,9 @@
       <c r="AU161" s="1"/>
       <c r="AV161" s="1"/>
       <c r="AW161" s="1"/>
-    </row>
-    <row r="162" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="AX161" s="1"/>
+    </row>
+    <row r="162" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A162" s="1"/>
       <c r="B162" s="1"/>
       <c r="C162" s="1"/>
@@ -10259,8 +10417,9 @@
       <c r="AU162" s="1"/>
       <c r="AV162" s="1"/>
       <c r="AW162" s="1"/>
-    </row>
-    <row r="163" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="AX162" s="1"/>
+    </row>
+    <row r="163" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A163" s="1"/>
       <c r="B163" s="1"/>
       <c r="C163" s="1"/>
@@ -10310,8 +10469,9 @@
       <c r="AU163" s="1"/>
       <c r="AV163" s="1"/>
       <c r="AW163" s="1"/>
-    </row>
-    <row r="164" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="AX163" s="1"/>
+    </row>
+    <row r="164" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A164" s="1"/>
       <c r="B164" s="1"/>
       <c r="C164" s="1"/>
@@ -10361,8 +10521,9 @@
       <c r="AU164" s="1"/>
       <c r="AV164" s="1"/>
       <c r="AW164" s="1"/>
-    </row>
-    <row r="165" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="AX164" s="1"/>
+    </row>
+    <row r="165" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A165" s="1"/>
       <c r="B165" s="1"/>
       <c r="C165" s="1"/>
@@ -10412,8 +10573,9 @@
       <c r="AU165" s="1"/>
       <c r="AV165" s="1"/>
       <c r="AW165" s="1"/>
-    </row>
-    <row r="166" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="AX165" s="1"/>
+    </row>
+    <row r="166" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A166" s="1"/>
       <c r="B166" s="1"/>
       <c r="C166" s="1"/>
@@ -10463,8 +10625,9 @@
       <c r="AU166" s="1"/>
       <c r="AV166" s="1"/>
       <c r="AW166" s="1"/>
-    </row>
-    <row r="167" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="AX166" s="1"/>
+    </row>
+    <row r="167" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A167" s="1"/>
       <c r="B167" s="1"/>
       <c r="C167" s="1"/>
@@ -10514,8 +10677,9 @@
       <c r="AU167" s="1"/>
       <c r="AV167" s="1"/>
       <c r="AW167" s="1"/>
-    </row>
-    <row r="168" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="AX167" s="1"/>
+    </row>
+    <row r="168" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A168" s="1"/>
       <c r="B168" s="1"/>
       <c r="C168" s="1"/>
@@ -10565,8 +10729,9 @@
       <c r="AU168" s="1"/>
       <c r="AV168" s="1"/>
       <c r="AW168" s="1"/>
-    </row>
-    <row r="169" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="AX168" s="1"/>
+    </row>
+    <row r="169" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A169" s="1"/>
       <c r="B169" s="1"/>
       <c r="C169" s="1"/>
@@ -10616,8 +10781,9 @@
       <c r="AU169" s="1"/>
       <c r="AV169" s="1"/>
       <c r="AW169" s="1"/>
-    </row>
-    <row r="170" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="AX169" s="1"/>
+    </row>
+    <row r="170" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A170" s="1"/>
       <c r="B170" s="1"/>
       <c r="C170" s="1"/>
@@ -10667,8 +10833,9 @@
       <c r="AU170" s="1"/>
       <c r="AV170" s="1"/>
       <c r="AW170" s="1"/>
-    </row>
-    <row r="171" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="AX170" s="1"/>
+    </row>
+    <row r="171" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A171" s="1"/>
       <c r="B171" s="1"/>
       <c r="C171" s="1"/>
@@ -10718,8 +10885,9 @@
       <c r="AU171" s="1"/>
       <c r="AV171" s="1"/>
       <c r="AW171" s="1"/>
-    </row>
-    <row r="172" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="AX171" s="1"/>
+    </row>
+    <row r="172" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A172" s="1"/>
       <c r="B172" s="1"/>
       <c r="C172" s="1"/>
@@ -10769,8 +10937,9 @@
       <c r="AU172" s="1"/>
       <c r="AV172" s="1"/>
       <c r="AW172" s="1"/>
-    </row>
-    <row r="173" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="AX172" s="1"/>
+    </row>
+    <row r="173" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A173" s="1"/>
       <c r="B173" s="1"/>
       <c r="C173" s="1"/>
@@ -10820,8 +10989,9 @@
       <c r="AU173" s="1"/>
       <c r="AV173" s="1"/>
       <c r="AW173" s="1"/>
-    </row>
-    <row r="174" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="AX173" s="1"/>
+    </row>
+    <row r="174" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A174" s="1"/>
       <c r="B174" s="1"/>
       <c r="C174" s="1"/>
@@ -10871,8 +11041,9 @@
       <c r="AU174" s="1"/>
       <c r="AV174" s="1"/>
       <c r="AW174" s="1"/>
-    </row>
-    <row r="175" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="AX174" s="1"/>
+    </row>
+    <row r="175" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A175" s="1"/>
       <c r="B175" s="1"/>
       <c r="C175" s="1"/>
@@ -10922,8 +11093,9 @@
       <c r="AU175" s="1"/>
       <c r="AV175" s="1"/>
       <c r="AW175" s="1"/>
-    </row>
-    <row r="176" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="AX175" s="1"/>
+    </row>
+    <row r="176" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A176" s="1"/>
       <c r="B176" s="1"/>
       <c r="C176" s="1"/>
@@ -10973,8 +11145,9 @@
       <c r="AU176" s="1"/>
       <c r="AV176" s="1"/>
       <c r="AW176" s="1"/>
-    </row>
-    <row r="177" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="AX176" s="1"/>
+    </row>
+    <row r="177" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A177" s="1"/>
       <c r="B177" s="1"/>
       <c r="C177" s="1"/>
@@ -11024,8 +11197,9 @@
       <c r="AU177" s="1"/>
       <c r="AV177" s="1"/>
       <c r="AW177" s="1"/>
-    </row>
-    <row r="178" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="AX177" s="1"/>
+    </row>
+    <row r="178" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A178" s="1"/>
       <c r="B178" s="1"/>
       <c r="C178" s="1"/>
@@ -11075,8 +11249,9 @@
       <c r="AU178" s="1"/>
       <c r="AV178" s="1"/>
       <c r="AW178" s="1"/>
-    </row>
-    <row r="179" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="AX178" s="1"/>
+    </row>
+    <row r="179" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A179" s="1"/>
       <c r="B179" s="1"/>
       <c r="C179" s="1"/>
@@ -11126,8 +11301,9 @@
       <c r="AU179" s="1"/>
       <c r="AV179" s="1"/>
       <c r="AW179" s="1"/>
-    </row>
-    <row r="180" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="AX179" s="1"/>
+    </row>
+    <row r="180" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A180" s="1"/>
       <c r="B180" s="1"/>
       <c r="C180" s="1"/>
@@ -11177,8 +11353,9 @@
       <c r="AU180" s="1"/>
       <c r="AV180" s="1"/>
       <c r="AW180" s="1"/>
-    </row>
-    <row r="181" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="AX180" s="1"/>
+    </row>
+    <row r="181" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A181" s="1"/>
       <c r="B181" s="1"/>
       <c r="C181" s="1"/>
@@ -11228,8 +11405,9 @@
       <c r="AU181" s="1"/>
       <c r="AV181" s="1"/>
       <c r="AW181" s="1"/>
-    </row>
-    <row r="182" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="AX181" s="1"/>
+    </row>
+    <row r="182" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A182" s="1"/>
       <c r="B182" s="1"/>
       <c r="C182" s="1"/>
@@ -11279,8 +11457,9 @@
       <c r="AU182" s="1"/>
       <c r="AV182" s="1"/>
       <c r="AW182" s="1"/>
-    </row>
-    <row r="183" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="AX182" s="1"/>
+    </row>
+    <row r="183" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A183" s="1"/>
       <c r="B183" s="1"/>
       <c r="C183" s="1"/>
@@ -11330,8 +11509,9 @@
       <c r="AU183" s="1"/>
       <c r="AV183" s="1"/>
       <c r="AW183" s="1"/>
-    </row>
-    <row r="184" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="AX183" s="1"/>
+    </row>
+    <row r="184" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A184" s="1"/>
       <c r="B184" s="1"/>
       <c r="C184" s="1"/>
@@ -11381,8 +11561,9 @@
       <c r="AU184" s="1"/>
       <c r="AV184" s="1"/>
       <c r="AW184" s="1"/>
-    </row>
-    <row r="185" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="AX184" s="1"/>
+    </row>
+    <row r="185" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A185" s="1"/>
       <c r="B185" s="1"/>
       <c r="C185" s="1"/>
@@ -11432,8 +11613,9 @@
       <c r="AU185" s="1"/>
       <c r="AV185" s="1"/>
       <c r="AW185" s="1"/>
-    </row>
-    <row r="186" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="AX185" s="1"/>
+    </row>
+    <row r="186" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A186" s="1"/>
       <c r="B186" s="1"/>
       <c r="C186" s="1"/>
@@ -11483,8 +11665,9 @@
       <c r="AU186" s="1"/>
       <c r="AV186" s="1"/>
       <c r="AW186" s="1"/>
-    </row>
-    <row r="187" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="AX186" s="1"/>
+    </row>
+    <row r="187" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A187" s="1"/>
       <c r="B187" s="1"/>
       <c r="C187" s="1"/>
@@ -11534,8 +11717,9 @@
       <c r="AU187" s="1"/>
       <c r="AV187" s="1"/>
       <c r="AW187" s="1"/>
-    </row>
-    <row r="188" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="AX187" s="1"/>
+    </row>
+    <row r="188" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A188" s="1"/>
       <c r="B188" s="1"/>
       <c r="C188" s="1"/>
@@ -11585,8 +11769,9 @@
       <c r="AU188" s="1"/>
       <c r="AV188" s="1"/>
       <c r="AW188" s="1"/>
-    </row>
-    <row r="189" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="AX188" s="1"/>
+    </row>
+    <row r="189" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A189" s="1"/>
       <c r="B189" s="1"/>
       <c r="C189" s="1"/>
@@ -11636,8 +11821,9 @@
       <c r="AU189" s="1"/>
       <c r="AV189" s="1"/>
       <c r="AW189" s="1"/>
-    </row>
-    <row r="190" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="AX189" s="1"/>
+    </row>
+    <row r="190" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A190" s="1"/>
       <c r="B190" s="1"/>
       <c r="C190" s="1"/>
@@ -11687,8 +11873,9 @@
       <c r="AU190" s="1"/>
       <c r="AV190" s="1"/>
       <c r="AW190" s="1"/>
-    </row>
-    <row r="191" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="AX190" s="1"/>
+    </row>
+    <row r="191" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A191" s="1"/>
       <c r="B191" s="1"/>
       <c r="C191" s="1"/>
@@ -11738,8 +11925,9 @@
       <c r="AU191" s="1"/>
       <c r="AV191" s="1"/>
       <c r="AW191" s="1"/>
-    </row>
-    <row r="192" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="AX191" s="1"/>
+    </row>
+    <row r="192" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A192" s="1"/>
       <c r="B192" s="1"/>
       <c r="C192" s="1"/>
@@ -11789,8 +11977,9 @@
       <c r="AU192" s="1"/>
       <c r="AV192" s="1"/>
       <c r="AW192" s="1"/>
-    </row>
-    <row r="193" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="AX192" s="1"/>
+    </row>
+    <row r="193" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A193" s="1"/>
       <c r="B193" s="1"/>
       <c r="C193" s="1"/>
@@ -11840,8 +12029,9 @@
       <c r="AU193" s="1"/>
       <c r="AV193" s="1"/>
       <c r="AW193" s="1"/>
-    </row>
-    <row r="194" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="AX193" s="1"/>
+    </row>
+    <row r="194" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A194" s="1"/>
       <c r="B194" s="1"/>
       <c r="C194" s="1"/>
@@ -11891,8 +12081,9 @@
       <c r="AU194" s="1"/>
       <c r="AV194" s="1"/>
       <c r="AW194" s="1"/>
-    </row>
-    <row r="195" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="AX194" s="1"/>
+    </row>
+    <row r="195" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A195" s="1"/>
       <c r="B195" s="1"/>
       <c r="C195" s="1"/>
@@ -11942,8 +12133,9 @@
       <c r="AU195" s="1"/>
       <c r="AV195" s="1"/>
       <c r="AW195" s="1"/>
-    </row>
-    <row r="196" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="AX195" s="1"/>
+    </row>
+    <row r="196" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A196" s="1"/>
       <c r="B196" s="1"/>
       <c r="C196" s="1"/>
@@ -11993,8 +12185,9 @@
       <c r="AU196" s="1"/>
       <c r="AV196" s="1"/>
       <c r="AW196" s="1"/>
-    </row>
-    <row r="197" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="AX196" s="1"/>
+    </row>
+    <row r="197" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A197" s="1"/>
       <c r="B197" s="1"/>
       <c r="C197" s="1"/>
@@ -12044,8 +12237,9 @@
       <c r="AU197" s="1"/>
       <c r="AV197" s="1"/>
       <c r="AW197" s="1"/>
-    </row>
-    <row r="198" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="AX197" s="1"/>
+    </row>
+    <row r="198" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A198" s="1"/>
       <c r="B198" s="1"/>
       <c r="C198" s="1"/>
@@ -12095,8 +12289,9 @@
       <c r="AU198" s="1"/>
       <c r="AV198" s="1"/>
       <c r="AW198" s="1"/>
-    </row>
-    <row r="199" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="AX198" s="1"/>
+    </row>
+    <row r="199" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A199" s="1"/>
       <c r="B199" s="1"/>
       <c r="C199" s="1"/>
@@ -12146,8 +12341,9 @@
       <c r="AU199" s="1"/>
       <c r="AV199" s="1"/>
       <c r="AW199" s="1"/>
-    </row>
-    <row r="200" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="AX199" s="1"/>
+    </row>
+    <row r="200" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A200" s="1"/>
       <c r="B200" s="1"/>
       <c r="C200" s="1"/>
@@ -12197,8 +12393,9 @@
       <c r="AU200" s="1"/>
       <c r="AV200" s="1"/>
       <c r="AW200" s="1"/>
-    </row>
-    <row r="201" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="AX200" s="1"/>
+    </row>
+    <row r="201" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A201" s="1"/>
       <c r="B201" s="1"/>
       <c r="C201" s="1"/>
@@ -12248,8 +12445,9 @@
       <c r="AU201" s="1"/>
       <c r="AV201" s="1"/>
       <c r="AW201" s="1"/>
-    </row>
-    <row r="202" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="AX201" s="1"/>
+    </row>
+    <row r="202" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A202" s="1"/>
       <c r="B202" s="1"/>
       <c r="C202" s="1"/>
@@ -12299,8 +12497,9 @@
       <c r="AU202" s="1"/>
       <c r="AV202" s="1"/>
       <c r="AW202" s="1"/>
-    </row>
-    <row r="203" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="AX202" s="1"/>
+    </row>
+    <row r="203" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A203" s="1"/>
       <c r="B203" s="1"/>
       <c r="C203" s="1"/>
@@ -12350,8 +12549,9 @@
       <c r="AU203" s="1"/>
       <c r="AV203" s="1"/>
       <c r="AW203" s="1"/>
-    </row>
-    <row r="204" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="AX203" s="1"/>
+    </row>
+    <row r="204" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A204" s="1"/>
       <c r="B204" s="1"/>
       <c r="C204" s="1"/>
@@ -12401,8 +12601,9 @@
       <c r="AU204" s="1"/>
       <c r="AV204" s="1"/>
       <c r="AW204" s="1"/>
-    </row>
-    <row r="205" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="AX204" s="1"/>
+    </row>
+    <row r="205" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A205" s="1"/>
       <c r="B205" s="1"/>
       <c r="C205" s="1"/>
@@ -12452,8 +12653,9 @@
       <c r="AU205" s="1"/>
       <c r="AV205" s="1"/>
       <c r="AW205" s="1"/>
-    </row>
-    <row r="206" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="AX205" s="1"/>
+    </row>
+    <row r="206" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A206" s="1"/>
       <c r="B206" s="1"/>
       <c r="C206" s="1"/>
@@ -12503,8 +12705,9 @@
       <c r="AU206" s="1"/>
       <c r="AV206" s="1"/>
       <c r="AW206" s="1"/>
-    </row>
-    <row r="207" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="AX206" s="1"/>
+    </row>
+    <row r="207" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A207" s="1"/>
       <c r="B207" s="1"/>
       <c r="C207" s="1"/>
@@ -12554,8 +12757,9 @@
       <c r="AU207" s="1"/>
       <c r="AV207" s="1"/>
       <c r="AW207" s="1"/>
-    </row>
-    <row r="208" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="AX207" s="1"/>
+    </row>
+    <row r="208" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A208" s="1"/>
       <c r="B208" s="1"/>
       <c r="C208" s="1"/>
@@ -12605,8 +12809,9 @@
       <c r="AU208" s="1"/>
       <c r="AV208" s="1"/>
       <c r="AW208" s="1"/>
-    </row>
-    <row r="209" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="AX208" s="1"/>
+    </row>
+    <row r="209" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A209" s="1"/>
       <c r="B209" s="1"/>
       <c r="C209" s="1"/>
@@ -12656,8 +12861,9 @@
       <c r="AU209" s="1"/>
       <c r="AV209" s="1"/>
       <c r="AW209" s="1"/>
-    </row>
-    <row r="210" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="AX209" s="1"/>
+    </row>
+    <row r="210" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A210" s="1"/>
       <c r="B210" s="1"/>
       <c r="C210" s="1"/>
@@ -12707,8 +12913,9 @@
       <c r="AU210" s="1"/>
       <c r="AV210" s="1"/>
       <c r="AW210" s="1"/>
-    </row>
-    <row r="211" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="AX210" s="1"/>
+    </row>
+    <row r="211" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A211" s="1"/>
       <c r="B211" s="1"/>
       <c r="C211" s="1"/>
@@ -12758,8 +12965,9 @@
       <c r="AU211" s="1"/>
       <c r="AV211" s="1"/>
       <c r="AW211" s="1"/>
-    </row>
-    <row r="212" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="AX211" s="1"/>
+    </row>
+    <row r="212" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A212" s="1"/>
       <c r="B212" s="1"/>
       <c r="C212" s="1"/>
@@ -12809,8 +13017,9 @@
       <c r="AU212" s="1"/>
       <c r="AV212" s="1"/>
       <c r="AW212" s="1"/>
-    </row>
-    <row r="213" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="AX212" s="1"/>
+    </row>
+    <row r="213" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A213" s="1"/>
       <c r="B213" s="1"/>
       <c r="C213" s="1"/>
@@ -12860,8 +13069,9 @@
       <c r="AU213" s="1"/>
       <c r="AV213" s="1"/>
       <c r="AW213" s="1"/>
-    </row>
-    <row r="214" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="AX213" s="1"/>
+    </row>
+    <row r="214" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A214" s="1"/>
       <c r="B214" s="1"/>
       <c r="C214" s="1"/>
@@ -12911,8 +13121,9 @@
       <c r="AU214" s="1"/>
       <c r="AV214" s="1"/>
       <c r="AW214" s="1"/>
-    </row>
-    <row r="215" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="AX214" s="1"/>
+    </row>
+    <row r="215" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A215" s="1"/>
       <c r="B215" s="1"/>
       <c r="C215" s="1"/>
@@ -12962,8 +13173,9 @@
       <c r="AU215" s="1"/>
       <c r="AV215" s="1"/>
       <c r="AW215" s="1"/>
-    </row>
-    <row r="216" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="AX215" s="1"/>
+    </row>
+    <row r="216" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A216" s="1"/>
       <c r="B216" s="1"/>
       <c r="C216" s="1"/>
@@ -13013,8 +13225,9 @@
       <c r="AU216" s="1"/>
       <c r="AV216" s="1"/>
       <c r="AW216" s="1"/>
-    </row>
-    <row r="217" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="AX216" s="1"/>
+    </row>
+    <row r="217" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A217" s="1"/>
       <c r="B217" s="1"/>
       <c r="C217" s="1"/>
@@ -13064,8 +13277,9 @@
       <c r="AU217" s="1"/>
       <c r="AV217" s="1"/>
       <c r="AW217" s="1"/>
-    </row>
-    <row r="218" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="AX217" s="1"/>
+    </row>
+    <row r="218" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A218" s="1"/>
       <c r="B218" s="1"/>
       <c r="C218" s="1"/>
@@ -13115,8 +13329,9 @@
       <c r="AU218" s="1"/>
       <c r="AV218" s="1"/>
       <c r="AW218" s="1"/>
-    </row>
-    <row r="219" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="AX218" s="1"/>
+    </row>
+    <row r="219" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A219" s="1"/>
       <c r="B219" s="1"/>
       <c r="C219" s="1"/>
@@ -13166,8 +13381,9 @@
       <c r="AU219" s="1"/>
       <c r="AV219" s="1"/>
       <c r="AW219" s="1"/>
-    </row>
-    <row r="220" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="AX219" s="1"/>
+    </row>
+    <row r="220" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A220" s="1"/>
       <c r="B220" s="1"/>
       <c r="C220" s="1"/>
@@ -13217,8 +13433,9 @@
       <c r="AU220" s="1"/>
       <c r="AV220" s="1"/>
       <c r="AW220" s="1"/>
-    </row>
-    <row r="221" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="AX220" s="1"/>
+    </row>
+    <row r="221" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A221" s="1"/>
       <c r="B221" s="1"/>
       <c r="C221" s="1"/>
@@ -13268,8 +13485,9 @@
       <c r="AU221" s="1"/>
       <c r="AV221" s="1"/>
       <c r="AW221" s="1"/>
-    </row>
-    <row r="222" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="AX221" s="1"/>
+    </row>
+    <row r="222" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A222" s="1"/>
       <c r="B222" s="1"/>
       <c r="C222" s="1"/>
@@ -13319,8 +13537,9 @@
       <c r="AU222" s="1"/>
       <c r="AV222" s="1"/>
       <c r="AW222" s="1"/>
-    </row>
-    <row r="223" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="AX222" s="1"/>
+    </row>
+    <row r="223" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A223" s="1"/>
       <c r="B223" s="1"/>
       <c r="C223" s="1"/>
@@ -13370,8 +13589,9 @@
       <c r="AU223" s="1"/>
       <c r="AV223" s="1"/>
       <c r="AW223" s="1"/>
-    </row>
-    <row r="224" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="AX223" s="1"/>
+    </row>
+    <row r="224" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A224" s="1"/>
       <c r="B224" s="1"/>
       <c r="C224" s="1"/>
@@ -13421,8 +13641,9 @@
       <c r="AU224" s="1"/>
       <c r="AV224" s="1"/>
       <c r="AW224" s="1"/>
-    </row>
-    <row r="225" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="AX224" s="1"/>
+    </row>
+    <row r="225" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A225" s="1"/>
       <c r="B225" s="1"/>
       <c r="C225" s="1"/>
@@ -13472,8 +13693,9 @@
       <c r="AU225" s="1"/>
       <c r="AV225" s="1"/>
       <c r="AW225" s="1"/>
-    </row>
-    <row r="226" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="AX225" s="1"/>
+    </row>
+    <row r="226" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A226" s="1"/>
       <c r="B226" s="1"/>
       <c r="C226" s="1"/>
@@ -13523,8 +13745,9 @@
       <c r="AU226" s="1"/>
       <c r="AV226" s="1"/>
       <c r="AW226" s="1"/>
-    </row>
-    <row r="227" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="AX226" s="1"/>
+    </row>
+    <row r="227" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A227" s="1"/>
       <c r="B227" s="1"/>
       <c r="C227" s="1"/>
@@ -13574,8 +13797,9 @@
       <c r="AU227" s="1"/>
       <c r="AV227" s="1"/>
       <c r="AW227" s="1"/>
-    </row>
-    <row r="228" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="AX227" s="1"/>
+    </row>
+    <row r="228" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A228" s="1"/>
       <c r="B228" s="1"/>
       <c r="C228" s="1"/>
@@ -13625,8 +13849,9 @@
       <c r="AU228" s="1"/>
       <c r="AV228" s="1"/>
       <c r="AW228" s="1"/>
-    </row>
-    <row r="229" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="AX228" s="1"/>
+    </row>
+    <row r="229" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A229" s="1"/>
       <c r="B229" s="1"/>
       <c r="C229" s="1"/>
@@ -13676,8 +13901,9 @@
       <c r="AU229" s="1"/>
       <c r="AV229" s="1"/>
       <c r="AW229" s="1"/>
-    </row>
-    <row r="230" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="AX229" s="1"/>
+    </row>
+    <row r="230" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A230" s="1"/>
       <c r="B230" s="1"/>
       <c r="C230" s="1"/>
@@ -13727,8 +13953,9 @@
       <c r="AU230" s="1"/>
       <c r="AV230" s="1"/>
       <c r="AW230" s="1"/>
-    </row>
-    <row r="231" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="AX230" s="1"/>
+    </row>
+    <row r="231" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A231" s="1"/>
       <c r="B231" s="1"/>
       <c r="C231" s="1"/>
@@ -13778,8 +14005,9 @@
       <c r="AU231" s="1"/>
       <c r="AV231" s="1"/>
       <c r="AW231" s="1"/>
-    </row>
-    <row r="232" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="AX231" s="1"/>
+    </row>
+    <row r="232" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A232" s="1"/>
       <c r="B232" s="1"/>
       <c r="C232" s="1"/>
@@ -13829,8 +14057,9 @@
       <c r="AU232" s="1"/>
       <c r="AV232" s="1"/>
       <c r="AW232" s="1"/>
-    </row>
-    <row r="233" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="AX232" s="1"/>
+    </row>
+    <row r="233" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A233" s="1"/>
       <c r="B233" s="1"/>
       <c r="C233" s="1"/>
@@ -13880,8 +14109,9 @@
       <c r="AU233" s="1"/>
       <c r="AV233" s="1"/>
       <c r="AW233" s="1"/>
-    </row>
-    <row r="234" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="AX233" s="1"/>
+    </row>
+    <row r="234" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A234" s="1"/>
       <c r="B234" s="1"/>
       <c r="C234" s="1"/>
@@ -13931,8 +14161,9 @@
       <c r="AU234" s="1"/>
       <c r="AV234" s="1"/>
       <c r="AW234" s="1"/>
-    </row>
-    <row r="235" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="AX234" s="1"/>
+    </row>
+    <row r="235" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A235" s="1"/>
       <c r="B235" s="1"/>
       <c r="C235" s="1"/>
@@ -13982,8 +14213,9 @@
       <c r="AU235" s="1"/>
       <c r="AV235" s="1"/>
       <c r="AW235" s="1"/>
-    </row>
-    <row r="236" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="AX235" s="1"/>
+    </row>
+    <row r="236" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A236" s="1"/>
       <c r="B236" s="1"/>
       <c r="C236" s="1"/>
@@ -14033,8 +14265,9 @@
       <c r="AU236" s="1"/>
       <c r="AV236" s="1"/>
       <c r="AW236" s="1"/>
-    </row>
-    <row r="237" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="AX236" s="1"/>
+    </row>
+    <row r="237" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A237" s="1"/>
       <c r="B237" s="1"/>
       <c r="C237" s="1"/>
@@ -14084,8 +14317,9 @@
       <c r="AU237" s="1"/>
       <c r="AV237" s="1"/>
       <c r="AW237" s="1"/>
-    </row>
-    <row r="238" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="AX237" s="1"/>
+    </row>
+    <row r="238" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A238" s="1"/>
       <c r="B238" s="1"/>
       <c r="C238" s="1"/>
@@ -14135,8 +14369,9 @@
       <c r="AU238" s="1"/>
       <c r="AV238" s="1"/>
       <c r="AW238" s="1"/>
-    </row>
-    <row r="239" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="AX238" s="1"/>
+    </row>
+    <row r="239" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A239" s="1"/>
       <c r="B239" s="1"/>
       <c r="C239" s="1"/>
@@ -14186,8 +14421,9 @@
       <c r="AU239" s="1"/>
       <c r="AV239" s="1"/>
       <c r="AW239" s="1"/>
-    </row>
-    <row r="240" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="AX239" s="1"/>
+    </row>
+    <row r="240" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A240" s="1"/>
       <c r="B240" s="1"/>
       <c r="C240" s="1"/>
@@ -14237,8 +14473,9 @@
       <c r="AU240" s="1"/>
       <c r="AV240" s="1"/>
       <c r="AW240" s="1"/>
-    </row>
-    <row r="241" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="AX240" s="1"/>
+    </row>
+    <row r="241" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A241" s="1"/>
       <c r="B241" s="1"/>
       <c r="C241" s="1"/>
@@ -14288,8 +14525,9 @@
       <c r="AU241" s="1"/>
       <c r="AV241" s="1"/>
       <c r="AW241" s="1"/>
-    </row>
-    <row r="242" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="AX241" s="1"/>
+    </row>
+    <row r="242" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A242" s="1"/>
       <c r="B242" s="1"/>
       <c r="C242" s="1"/>
@@ -14339,8 +14577,9 @@
       <c r="AU242" s="1"/>
       <c r="AV242" s="1"/>
       <c r="AW242" s="1"/>
-    </row>
-    <row r="243" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="AX242" s="1"/>
+    </row>
+    <row r="243" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A243" s="1"/>
       <c r="B243" s="1"/>
       <c r="C243" s="1"/>
@@ -14390,8 +14629,9 @@
       <c r="AU243" s="1"/>
       <c r="AV243" s="1"/>
       <c r="AW243" s="1"/>
-    </row>
-    <row r="244" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="AX243" s="1"/>
+    </row>
+    <row r="244" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A244" s="1"/>
       <c r="B244" s="1"/>
       <c r="C244" s="1"/>
@@ -14441,8 +14681,9 @@
       <c r="AU244" s="1"/>
       <c r="AV244" s="1"/>
       <c r="AW244" s="1"/>
-    </row>
-    <row r="245" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="AX244" s="1"/>
+    </row>
+    <row r="245" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A245" s="1"/>
       <c r="B245" s="1"/>
       <c r="C245" s="1"/>
@@ -14492,8 +14733,9 @@
       <c r="AU245" s="1"/>
       <c r="AV245" s="1"/>
       <c r="AW245" s="1"/>
-    </row>
-    <row r="246" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="AX245" s="1"/>
+    </row>
+    <row r="246" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A246" s="1"/>
       <c r="B246" s="1"/>
       <c r="C246" s="1"/>
@@ -14543,8 +14785,9 @@
       <c r="AU246" s="1"/>
       <c r="AV246" s="1"/>
       <c r="AW246" s="1"/>
-    </row>
-    <row r="247" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="AX246" s="1"/>
+    </row>
+    <row r="247" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A247" s="1"/>
       <c r="B247" s="1"/>
       <c r="C247" s="1"/>
@@ -14594,8 +14837,9 @@
       <c r="AU247" s="1"/>
       <c r="AV247" s="1"/>
       <c r="AW247" s="1"/>
-    </row>
-    <row r="248" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="AX247" s="1"/>
+    </row>
+    <row r="248" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A248" s="1"/>
       <c r="B248" s="1"/>
       <c r="C248" s="1"/>
@@ -14645,8 +14889,9 @@
       <c r="AU248" s="1"/>
       <c r="AV248" s="1"/>
       <c r="AW248" s="1"/>
-    </row>
-    <row r="249" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="AX248" s="1"/>
+    </row>
+    <row r="249" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A249" s="1"/>
       <c r="B249" s="1"/>
       <c r="C249" s="1"/>
@@ -14696,8 +14941,9 @@
       <c r="AU249" s="1"/>
       <c r="AV249" s="1"/>
       <c r="AW249" s="1"/>
-    </row>
-    <row r="250" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="AX249" s="1"/>
+    </row>
+    <row r="250" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A250" s="1"/>
       <c r="B250" s="1"/>
       <c r="C250" s="1"/>
@@ -14747,8 +14993,9 @@
       <c r="AU250" s="1"/>
       <c r="AV250" s="1"/>
       <c r="AW250" s="1"/>
-    </row>
-    <row r="251" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="AX250" s="1"/>
+    </row>
+    <row r="251" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A251" s="1"/>
       <c r="B251" s="1"/>
       <c r="C251" s="1"/>
@@ -14798,8 +15045,9 @@
       <c r="AU251" s="1"/>
       <c r="AV251" s="1"/>
       <c r="AW251" s="1"/>
-    </row>
-    <row r="252" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="AX251" s="1"/>
+    </row>
+    <row r="252" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A252" s="1"/>
       <c r="B252" s="1"/>
       <c r="C252" s="1"/>
@@ -14849,8 +15097,9 @@
       <c r="AU252" s="1"/>
       <c r="AV252" s="1"/>
       <c r="AW252" s="1"/>
-    </row>
-    <row r="253" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="AX252" s="1"/>
+    </row>
+    <row r="253" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A253" s="1"/>
       <c r="B253" s="1"/>
       <c r="C253" s="1"/>
@@ -14900,8 +15149,9 @@
       <c r="AU253" s="1"/>
       <c r="AV253" s="1"/>
       <c r="AW253" s="1"/>
-    </row>
-    <row r="254" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="AX253" s="1"/>
+    </row>
+    <row r="254" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A254" s="1"/>
       <c r="B254" s="1"/>
       <c r="C254" s="1"/>
@@ -14951,8 +15201,9 @@
       <c r="AU254" s="1"/>
       <c r="AV254" s="1"/>
       <c r="AW254" s="1"/>
-    </row>
-    <row r="255" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="AX254" s="1"/>
+    </row>
+    <row r="255" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A255" s="1"/>
       <c r="B255" s="1"/>
       <c r="C255" s="1"/>
@@ -15002,8 +15253,9 @@
       <c r="AU255" s="1"/>
       <c r="AV255" s="1"/>
       <c r="AW255" s="1"/>
-    </row>
-    <row r="256" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="AX255" s="1"/>
+    </row>
+    <row r="256" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A256" s="1"/>
       <c r="B256" s="1"/>
       <c r="C256" s="1"/>
@@ -15053,8 +15305,9 @@
       <c r="AU256" s="1"/>
       <c r="AV256" s="1"/>
       <c r="AW256" s="1"/>
-    </row>
-    <row r="257" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="AX256" s="1"/>
+    </row>
+    <row r="257" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A257" s="1"/>
       <c r="B257" s="1"/>
       <c r="C257" s="1"/>
@@ -15104,8 +15357,9 @@
       <c r="AU257" s="1"/>
       <c r="AV257" s="1"/>
       <c r="AW257" s="1"/>
-    </row>
-    <row r="258" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="AX257" s="1"/>
+    </row>
+    <row r="258" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A258" s="1"/>
       <c r="B258" s="1"/>
       <c r="C258" s="1"/>
@@ -15155,8 +15409,9 @@
       <c r="AU258" s="1"/>
       <c r="AV258" s="1"/>
       <c r="AW258" s="1"/>
-    </row>
-    <row r="259" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="AX258" s="1"/>
+    </row>
+    <row r="259" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A259" s="1"/>
       <c r="B259" s="1"/>
       <c r="C259" s="1"/>
@@ -15206,8 +15461,9 @@
       <c r="AU259" s="1"/>
       <c r="AV259" s="1"/>
       <c r="AW259" s="1"/>
-    </row>
-    <row r="260" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="AX259" s="1"/>
+    </row>
+    <row r="260" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A260" s="1"/>
       <c r="B260" s="1"/>
       <c r="C260" s="1"/>
@@ -15257,8 +15513,9 @@
       <c r="AU260" s="1"/>
       <c r="AV260" s="1"/>
       <c r="AW260" s="1"/>
-    </row>
-    <row r="261" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="AX260" s="1"/>
+    </row>
+    <row r="261" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A261" s="1"/>
       <c r="B261" s="1"/>
       <c r="C261" s="1"/>
@@ -15308,8 +15565,9 @@
       <c r="AU261" s="1"/>
       <c r="AV261" s="1"/>
       <c r="AW261" s="1"/>
-    </row>
-    <row r="262" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="AX261" s="1"/>
+    </row>
+    <row r="262" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A262" s="1"/>
       <c r="B262" s="1"/>
       <c r="C262" s="1"/>
@@ -15359,8 +15617,9 @@
       <c r="AU262" s="1"/>
       <c r="AV262" s="1"/>
       <c r="AW262" s="1"/>
-    </row>
-    <row r="263" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="AX262" s="1"/>
+    </row>
+    <row r="263" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A263" s="1"/>
       <c r="B263" s="1"/>
       <c r="C263" s="1"/>
@@ -15410,8 +15669,9 @@
       <c r="AU263" s="1"/>
       <c r="AV263" s="1"/>
       <c r="AW263" s="1"/>
-    </row>
-    <row r="264" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="AX263" s="1"/>
+    </row>
+    <row r="264" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A264" s="1"/>
       <c r="B264" s="1"/>
       <c r="C264" s="1"/>
@@ -15461,8 +15721,9 @@
       <c r="AU264" s="1"/>
       <c r="AV264" s="1"/>
       <c r="AW264" s="1"/>
-    </row>
-    <row r="265" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="AX264" s="1"/>
+    </row>
+    <row r="265" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A265" s="1"/>
       <c r="B265" s="1"/>
       <c r="C265" s="1"/>
@@ -15512,8 +15773,9 @@
       <c r="AU265" s="1"/>
       <c r="AV265" s="1"/>
       <c r="AW265" s="1"/>
-    </row>
-    <row r="266" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="AX265" s="1"/>
+    </row>
+    <row r="266" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A266" s="1"/>
       <c r="B266" s="1"/>
       <c r="C266" s="1"/>
@@ -15563,8 +15825,9 @@
       <c r="AU266" s="1"/>
       <c r="AV266" s="1"/>
       <c r="AW266" s="1"/>
-    </row>
-    <row r="267" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="AX266" s="1"/>
+    </row>
+    <row r="267" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A267" s="1"/>
       <c r="B267" s="1"/>
       <c r="C267" s="1"/>
@@ -15614,8 +15877,9 @@
       <c r="AU267" s="1"/>
       <c r="AV267" s="1"/>
       <c r="AW267" s="1"/>
-    </row>
-    <row r="268" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="AX267" s="1"/>
+    </row>
+    <row r="268" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A268" s="1"/>
       <c r="B268" s="1"/>
       <c r="C268" s="1"/>
@@ -15665,8 +15929,9 @@
       <c r="AU268" s="1"/>
       <c r="AV268" s="1"/>
       <c r="AW268" s="1"/>
-    </row>
-    <row r="269" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="AX268" s="1"/>
+    </row>
+    <row r="269" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A269" s="1"/>
       <c r="B269" s="1"/>
       <c r="C269" s="1"/>
@@ -15716,8 +15981,9 @@
       <c r="AU269" s="1"/>
       <c r="AV269" s="1"/>
       <c r="AW269" s="1"/>
-    </row>
-    <row r="270" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="AX269" s="1"/>
+    </row>
+    <row r="270" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A270" s="1"/>
       <c r="B270" s="1"/>
       <c r="C270" s="1"/>
@@ -15767,8 +16033,9 @@
       <c r="AU270" s="1"/>
       <c r="AV270" s="1"/>
       <c r="AW270" s="1"/>
-    </row>
-    <row r="271" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="AX270" s="1"/>
+    </row>
+    <row r="271" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A271" s="1"/>
       <c r="B271" s="1"/>
       <c r="C271" s="1"/>
@@ -15818,8 +16085,9 @@
       <c r="AU271" s="1"/>
       <c r="AV271" s="1"/>
       <c r="AW271" s="1"/>
-    </row>
-    <row r="272" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="AX271" s="1"/>
+    </row>
+    <row r="272" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A272" s="1"/>
       <c r="B272" s="1"/>
       <c r="C272" s="1"/>
@@ -15869,8 +16137,9 @@
       <c r="AU272" s="1"/>
       <c r="AV272" s="1"/>
       <c r="AW272" s="1"/>
-    </row>
-    <row r="273" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="AX272" s="1"/>
+    </row>
+    <row r="273" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A273" s="1"/>
       <c r="B273" s="1"/>
       <c r="C273" s="1"/>
@@ -15920,8 +16189,9 @@
       <c r="AU273" s="1"/>
       <c r="AV273" s="1"/>
       <c r="AW273" s="1"/>
-    </row>
-    <row r="274" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="AX273" s="1"/>
+    </row>
+    <row r="274" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A274" s="1"/>
       <c r="B274" s="1"/>
       <c r="C274" s="1"/>
@@ -15971,8 +16241,9 @@
       <c r="AU274" s="1"/>
       <c r="AV274" s="1"/>
       <c r="AW274" s="1"/>
-    </row>
-    <row r="275" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="AX274" s="1"/>
+    </row>
+    <row r="275" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A275" s="1"/>
       <c r="B275" s="1"/>
       <c r="C275" s="1"/>
@@ -16022,8 +16293,9 @@
       <c r="AU275" s="1"/>
       <c r="AV275" s="1"/>
       <c r="AW275" s="1"/>
-    </row>
-    <row r="276" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="AX275" s="1"/>
+    </row>
+    <row r="276" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A276" s="1"/>
       <c r="B276" s="1"/>
       <c r="C276" s="1"/>
@@ -16073,8 +16345,9 @@
       <c r="AU276" s="1"/>
       <c r="AV276" s="1"/>
       <c r="AW276" s="1"/>
-    </row>
-    <row r="277" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="AX276" s="1"/>
+    </row>
+    <row r="277" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A277" s="1"/>
       <c r="B277" s="1"/>
       <c r="C277" s="1"/>
@@ -16124,8 +16397,9 @@
       <c r="AU277" s="1"/>
       <c r="AV277" s="1"/>
       <c r="AW277" s="1"/>
-    </row>
-    <row r="278" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="AX277" s="1"/>
+    </row>
+    <row r="278" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A278" s="1"/>
       <c r="B278" s="1"/>
       <c r="C278" s="1"/>
@@ -16175,8 +16449,9 @@
       <c r="AU278" s="1"/>
       <c r="AV278" s="1"/>
       <c r="AW278" s="1"/>
-    </row>
-    <row r="279" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="AX278" s="1"/>
+    </row>
+    <row r="279" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A279" s="1"/>
       <c r="B279" s="1"/>
       <c r="C279" s="1"/>
@@ -16226,8 +16501,9 @@
       <c r="AU279" s="1"/>
       <c r="AV279" s="1"/>
       <c r="AW279" s="1"/>
-    </row>
-    <row r="280" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="AX279" s="1"/>
+    </row>
+    <row r="280" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A280" s="1"/>
       <c r="B280" s="1"/>
       <c r="C280" s="1"/>
@@ -16277,8 +16553,9 @@
       <c r="AU280" s="1"/>
       <c r="AV280" s="1"/>
       <c r="AW280" s="1"/>
-    </row>
-    <row r="281" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="AX280" s="1"/>
+    </row>
+    <row r="281" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A281" s="1"/>
       <c r="B281" s="1"/>
       <c r="C281" s="1"/>
@@ -16328,8 +16605,9 @@
       <c r="AU281" s="1"/>
       <c r="AV281" s="1"/>
       <c r="AW281" s="1"/>
-    </row>
-    <row r="282" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="AX281" s="1"/>
+    </row>
+    <row r="282" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A282" s="1"/>
       <c r="B282" s="1"/>
       <c r="C282" s="1"/>
@@ -16379,8 +16657,9 @@
       <c r="AU282" s="1"/>
       <c r="AV282" s="1"/>
       <c r="AW282" s="1"/>
-    </row>
-    <row r="283" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="AX282" s="1"/>
+    </row>
+    <row r="283" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A283" s="1"/>
       <c r="B283" s="1"/>
       <c r="C283" s="1"/>
@@ -16430,8 +16709,9 @@
       <c r="AU283" s="1"/>
       <c r="AV283" s="1"/>
       <c r="AW283" s="1"/>
-    </row>
-    <row r="284" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="AX283" s="1"/>
+    </row>
+    <row r="284" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A284" s="1"/>
       <c r="B284" s="1"/>
       <c r="C284" s="1"/>
@@ -16481,8 +16761,9 @@
       <c r="AU284" s="1"/>
       <c r="AV284" s="1"/>
       <c r="AW284" s="1"/>
-    </row>
-    <row r="285" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="AX284" s="1"/>
+    </row>
+    <row r="285" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A285" s="1"/>
       <c r="B285" s="1"/>
       <c r="C285" s="1"/>
@@ -16532,8 +16813,9 @@
       <c r="AU285" s="1"/>
       <c r="AV285" s="1"/>
       <c r="AW285" s="1"/>
-    </row>
-    <row r="286" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="AX285" s="1"/>
+    </row>
+    <row r="286" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A286" s="1"/>
       <c r="B286" s="1"/>
       <c r="C286" s="1"/>
@@ -16583,8 +16865,9 @@
       <c r="AU286" s="1"/>
       <c r="AV286" s="1"/>
       <c r="AW286" s="1"/>
-    </row>
-    <row r="287" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="AX286" s="1"/>
+    </row>
+    <row r="287" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A287" s="1"/>
       <c r="B287" s="1"/>
       <c r="C287" s="1"/>
@@ -16634,8 +16917,9 @@
       <c r="AU287" s="1"/>
       <c r="AV287" s="1"/>
       <c r="AW287" s="1"/>
-    </row>
-    <row r="288" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="AX287" s="1"/>
+    </row>
+    <row r="288" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A288" s="1"/>
       <c r="B288" s="1"/>
       <c r="C288" s="1"/>
@@ -16685,8 +16969,9 @@
       <c r="AU288" s="1"/>
       <c r="AV288" s="1"/>
       <c r="AW288" s="1"/>
-    </row>
-    <row r="289" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="AX288" s="1"/>
+    </row>
+    <row r="289" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A289" s="1"/>
       <c r="B289" s="1"/>
       <c r="C289" s="1"/>
@@ -16736,8 +17021,9 @@
       <c r="AU289" s="1"/>
       <c r="AV289" s="1"/>
       <c r="AW289" s="1"/>
-    </row>
-    <row r="290" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="AX289" s="1"/>
+    </row>
+    <row r="290" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A290" s="1"/>
       <c r="B290" s="1"/>
       <c r="C290" s="1"/>
@@ -16787,8 +17073,9 @@
       <c r="AU290" s="1"/>
       <c r="AV290" s="1"/>
       <c r="AW290" s="1"/>
-    </row>
-    <row r="291" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="AX290" s="1"/>
+    </row>
+    <row r="291" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A291" s="1"/>
       <c r="B291" s="1"/>
       <c r="C291" s="1"/>
@@ -16838,8 +17125,9 @@
       <c r="AU291" s="1"/>
       <c r="AV291" s="1"/>
       <c r="AW291" s="1"/>
-    </row>
-    <row r="292" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="AX291" s="1"/>
+    </row>
+    <row r="292" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A292" s="1"/>
       <c r="B292" s="1"/>
       <c r="C292" s="1"/>
@@ -16889,8 +17177,9 @@
       <c r="AU292" s="1"/>
       <c r="AV292" s="1"/>
       <c r="AW292" s="1"/>
-    </row>
-    <row r="293" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="AX292" s="1"/>
+    </row>
+    <row r="293" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A293" s="1"/>
       <c r="B293" s="1"/>
       <c r="C293" s="1"/>
@@ -16940,8 +17229,9 @@
       <c r="AU293" s="1"/>
       <c r="AV293" s="1"/>
       <c r="AW293" s="1"/>
-    </row>
-    <row r="294" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="AX293" s="1"/>
+    </row>
+    <row r="294" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A294" s="1"/>
       <c r="B294" s="1"/>
       <c r="C294" s="1"/>
@@ -16991,8 +17281,9 @@
       <c r="AU294" s="1"/>
       <c r="AV294" s="1"/>
       <c r="AW294" s="1"/>
-    </row>
-    <row r="295" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="AX294" s="1"/>
+    </row>
+    <row r="295" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A295" s="1"/>
       <c r="B295" s="1"/>
       <c r="C295" s="1"/>
@@ -17042,8 +17333,9 @@
       <c r="AU295" s="1"/>
       <c r="AV295" s="1"/>
       <c r="AW295" s="1"/>
-    </row>
-    <row r="296" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="AX295" s="1"/>
+    </row>
+    <row r="296" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A296" s="1"/>
       <c r="B296" s="1"/>
       <c r="C296" s="1"/>
@@ -17093,8 +17385,9 @@
       <c r="AU296" s="1"/>
       <c r="AV296" s="1"/>
       <c r="AW296" s="1"/>
-    </row>
-    <row r="297" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="AX296" s="1"/>
+    </row>
+    <row r="297" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A297" s="1"/>
       <c r="B297" s="1"/>
       <c r="C297" s="1"/>
@@ -17144,8 +17437,9 @@
       <c r="AU297" s="1"/>
       <c r="AV297" s="1"/>
       <c r="AW297" s="1"/>
-    </row>
-    <row r="298" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="AX297" s="1"/>
+    </row>
+    <row r="298" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A298" s="1"/>
       <c r="B298" s="1"/>
       <c r="C298" s="1"/>
@@ -17195,8 +17489,9 @@
       <c r="AU298" s="1"/>
       <c r="AV298" s="1"/>
       <c r="AW298" s="1"/>
-    </row>
-    <row r="299" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="AX298" s="1"/>
+    </row>
+    <row r="299" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A299" s="1"/>
       <c r="B299" s="1"/>
       <c r="C299" s="1"/>
@@ -17246,8 +17541,9 @@
       <c r="AU299" s="1"/>
       <c r="AV299" s="1"/>
       <c r="AW299" s="1"/>
-    </row>
-    <row r="300" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="AX299" s="1"/>
+    </row>
+    <row r="300" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A300" s="1"/>
       <c r="B300" s="1"/>
       <c r="C300" s="1"/>
@@ -17297,8 +17593,9 @@
       <c r="AU300" s="1"/>
       <c r="AV300" s="1"/>
       <c r="AW300" s="1"/>
-    </row>
-    <row r="301" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="AX300" s="1"/>
+    </row>
+    <row r="301" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A301" s="1"/>
       <c r="B301" s="1"/>
       <c r="C301" s="1"/>
@@ -17348,8 +17645,9 @@
       <c r="AU301" s="1"/>
       <c r="AV301" s="1"/>
       <c r="AW301" s="1"/>
-    </row>
-    <row r="302" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="AX301" s="1"/>
+    </row>
+    <row r="302" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A302" s="1"/>
       <c r="B302" s="1"/>
       <c r="C302" s="1"/>
@@ -17399,8 +17697,9 @@
       <c r="AU302" s="1"/>
       <c r="AV302" s="1"/>
       <c r="AW302" s="1"/>
-    </row>
-    <row r="303" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="AX302" s="1"/>
+    </row>
+    <row r="303" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A303" s="1"/>
       <c r="B303" s="1"/>
       <c r="C303" s="1"/>
@@ -17450,8 +17749,9 @@
       <c r="AU303" s="1"/>
       <c r="AV303" s="1"/>
       <c r="AW303" s="1"/>
-    </row>
-    <row r="304" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="AX303" s="1"/>
+    </row>
+    <row r="304" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A304" s="1"/>
       <c r="B304" s="1"/>
       <c r="C304" s="1"/>
@@ -17501,8 +17801,9 @@
       <c r="AU304" s="1"/>
       <c r="AV304" s="1"/>
       <c r="AW304" s="1"/>
-    </row>
-    <row r="305" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="AX304" s="1"/>
+    </row>
+    <row r="305" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A305" s="1"/>
       <c r="B305" s="1"/>
       <c r="C305" s="1"/>
@@ -17552,8 +17853,9 @@
       <c r="AU305" s="1"/>
       <c r="AV305" s="1"/>
       <c r="AW305" s="1"/>
-    </row>
-    <row r="306" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="AX305" s="1"/>
+    </row>
+    <row r="306" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A306" s="1"/>
       <c r="B306" s="1"/>
       <c r="C306" s="1"/>
@@ -17603,8 +17905,9 @@
       <c r="AU306" s="1"/>
       <c r="AV306" s="1"/>
       <c r="AW306" s="1"/>
-    </row>
-    <row r="307" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="AX306" s="1"/>
+    </row>
+    <row r="307" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A307" s="1"/>
       <c r="B307" s="1"/>
       <c r="C307" s="1"/>
@@ -17654,8 +17957,9 @@
       <c r="AU307" s="1"/>
       <c r="AV307" s="1"/>
       <c r="AW307" s="1"/>
-    </row>
-    <row r="308" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="AX307" s="1"/>
+    </row>
+    <row r="308" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A308" s="1"/>
       <c r="B308" s="1"/>
       <c r="C308" s="1"/>
@@ -17705,8 +18009,9 @@
       <c r="AU308" s="1"/>
       <c r="AV308" s="1"/>
       <c r="AW308" s="1"/>
-    </row>
-    <row r="309" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="AX308" s="1"/>
+    </row>
+    <row r="309" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A309" s="1"/>
       <c r="B309" s="1"/>
       <c r="C309" s="1"/>
@@ -17756,8 +18061,9 @@
       <c r="AU309" s="1"/>
       <c r="AV309" s="1"/>
       <c r="AW309" s="1"/>
-    </row>
-    <row r="310" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="AX309" s="1"/>
+    </row>
+    <row r="310" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A310" s="1"/>
       <c r="B310" s="1"/>
       <c r="C310" s="1"/>
@@ -17807,8 +18113,9 @@
       <c r="AU310" s="1"/>
       <c r="AV310" s="1"/>
       <c r="AW310" s="1"/>
-    </row>
-    <row r="311" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="AX310" s="1"/>
+    </row>
+    <row r="311" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A311" s="1"/>
       <c r="B311" s="1"/>
       <c r="C311" s="1"/>
@@ -17858,8 +18165,9 @@
       <c r="AU311" s="1"/>
       <c r="AV311" s="1"/>
       <c r="AW311" s="1"/>
-    </row>
-    <row r="312" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="AX311" s="1"/>
+    </row>
+    <row r="312" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A312" s="1"/>
       <c r="B312" s="1"/>
       <c r="C312" s="1"/>
@@ -17909,8 +18217,9 @@
       <c r="AU312" s="1"/>
       <c r="AV312" s="1"/>
       <c r="AW312" s="1"/>
-    </row>
-    <row r="313" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="AX312" s="1"/>
+    </row>
+    <row r="313" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A313" s="1"/>
       <c r="B313" s="1"/>
       <c r="C313" s="1"/>
@@ -17960,8 +18269,9 @@
       <c r="AU313" s="1"/>
       <c r="AV313" s="1"/>
       <c r="AW313" s="1"/>
-    </row>
-    <row r="314" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="AX313" s="1"/>
+    </row>
+    <row r="314" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A314" s="1"/>
       <c r="B314" s="1"/>
       <c r="C314" s="1"/>
@@ -18011,8 +18321,9 @@
       <c r="AU314" s="1"/>
       <c r="AV314" s="1"/>
       <c r="AW314" s="1"/>
-    </row>
-    <row r="315" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="AX314" s="1"/>
+    </row>
+    <row r="315" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A315" s="1"/>
       <c r="B315" s="1"/>
       <c r="C315" s="1"/>
@@ -18062,8 +18373,9 @@
       <c r="AU315" s="1"/>
       <c r="AV315" s="1"/>
       <c r="AW315" s="1"/>
-    </row>
-    <row r="316" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="AX315" s="1"/>
+    </row>
+    <row r="316" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A316" s="1"/>
       <c r="B316" s="1"/>
       <c r="C316" s="1"/>
@@ -18113,8 +18425,9 @@
       <c r="AU316" s="1"/>
       <c r="AV316" s="1"/>
       <c r="AW316" s="1"/>
-    </row>
-    <row r="317" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="AX316" s="1"/>
+    </row>
+    <row r="317" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A317" s="1"/>
       <c r="B317" s="1"/>
       <c r="C317" s="1"/>
@@ -18164,8 +18477,9 @@
       <c r="AU317" s="1"/>
       <c r="AV317" s="1"/>
       <c r="AW317" s="1"/>
-    </row>
-    <row r="318" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="AX317" s="1"/>
+    </row>
+    <row r="318" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A318" s="1"/>
       <c r="B318" s="1"/>
       <c r="C318" s="1"/>
@@ -18215,8 +18529,9 @@
       <c r="AU318" s="1"/>
       <c r="AV318" s="1"/>
       <c r="AW318" s="1"/>
-    </row>
-    <row r="319" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="AX318" s="1"/>
+    </row>
+    <row r="319" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A319" s="1"/>
       <c r="B319" s="1"/>
       <c r="C319" s="1"/>
@@ -18266,8 +18581,9 @@
       <c r="AU319" s="1"/>
       <c r="AV319" s="1"/>
       <c r="AW319" s="1"/>
-    </row>
-    <row r="320" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="AX319" s="1"/>
+    </row>
+    <row r="320" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A320" s="1"/>
       <c r="B320" s="1"/>
       <c r="C320" s="1"/>
@@ -18317,8 +18633,9 @@
       <c r="AU320" s="1"/>
       <c r="AV320" s="1"/>
       <c r="AW320" s="1"/>
-    </row>
-    <row r="321" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="AX320" s="1"/>
+    </row>
+    <row r="321" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A321" s="1"/>
       <c r="B321" s="1"/>
       <c r="C321" s="1"/>
@@ -18368,8 +18685,9 @@
       <c r="AU321" s="1"/>
       <c r="AV321" s="1"/>
       <c r="AW321" s="1"/>
-    </row>
-    <row r="322" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="AX321" s="1"/>
+    </row>
+    <row r="322" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A322" s="1"/>
       <c r="B322" s="1"/>
       <c r="C322" s="1"/>
@@ -18419,8 +18737,9 @@
       <c r="AU322" s="1"/>
       <c r="AV322" s="1"/>
       <c r="AW322" s="1"/>
-    </row>
-    <row r="323" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="AX322" s="1"/>
+    </row>
+    <row r="323" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A323" s="1"/>
       <c r="B323" s="1"/>
       <c r="C323" s="1"/>
@@ -18470,8 +18789,9 @@
       <c r="AU323" s="1"/>
       <c r="AV323" s="1"/>
       <c r="AW323" s="1"/>
-    </row>
-    <row r="324" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="AX323" s="1"/>
+    </row>
+    <row r="324" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A324" s="1"/>
       <c r="B324" s="1"/>
       <c r="C324" s="1"/>
@@ -18521,8 +18841,9 @@
       <c r="AU324" s="1"/>
       <c r="AV324" s="1"/>
       <c r="AW324" s="1"/>
-    </row>
-    <row r="325" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="AX324" s="1"/>
+    </row>
+    <row r="325" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A325" s="1"/>
       <c r="B325" s="1"/>
       <c r="C325" s="1"/>
@@ -18572,8 +18893,9 @@
       <c r="AU325" s="1"/>
       <c r="AV325" s="1"/>
       <c r="AW325" s="1"/>
-    </row>
-    <row r="326" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="AX325" s="1"/>
+    </row>
+    <row r="326" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A326" s="1"/>
       <c r="B326" s="1"/>
       <c r="C326" s="1"/>
@@ -18623,8 +18945,9 @@
       <c r="AU326" s="1"/>
       <c r="AV326" s="1"/>
       <c r="AW326" s="1"/>
-    </row>
-    <row r="327" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="AX326" s="1"/>
+    </row>
+    <row r="327" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A327" s="1"/>
       <c r="B327" s="1"/>
       <c r="C327" s="1"/>
@@ -18674,8 +18997,9 @@
       <c r="AU327" s="1"/>
       <c r="AV327" s="1"/>
       <c r="AW327" s="1"/>
-    </row>
-    <row r="328" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="AX327" s="1"/>
+    </row>
+    <row r="328" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A328" s="1"/>
       <c r="B328" s="1"/>
       <c r="C328" s="1"/>
@@ -18725,8 +19049,9 @@
       <c r="AU328" s="1"/>
       <c r="AV328" s="1"/>
       <c r="AW328" s="1"/>
-    </row>
-    <row r="329" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="AX328" s="1"/>
+    </row>
+    <row r="329" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A329" s="1"/>
       <c r="B329" s="1"/>
       <c r="C329" s="1"/>
@@ -18776,8 +19101,9 @@
       <c r="AU329" s="1"/>
       <c r="AV329" s="1"/>
       <c r="AW329" s="1"/>
-    </row>
-    <row r="330" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="AX329" s="1"/>
+    </row>
+    <row r="330" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A330" s="1"/>
       <c r="B330" s="1"/>
       <c r="C330" s="1"/>
@@ -18827,8 +19153,9 @@
       <c r="AU330" s="1"/>
       <c r="AV330" s="1"/>
       <c r="AW330" s="1"/>
-    </row>
-    <row r="331" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="AX330" s="1"/>
+    </row>
+    <row r="331" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A331" s="1"/>
       <c r="B331" s="1"/>
       <c r="C331" s="1"/>
@@ -18878,8 +19205,9 @@
       <c r="AU331" s="1"/>
       <c r="AV331" s="1"/>
       <c r="AW331" s="1"/>
-    </row>
-    <row r="332" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="AX331" s="1"/>
+    </row>
+    <row r="332" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A332" s="1"/>
       <c r="B332" s="1"/>
       <c r="C332" s="1"/>
@@ -18929,8 +19257,9 @@
       <c r="AU332" s="1"/>
       <c r="AV332" s="1"/>
       <c r="AW332" s="1"/>
-    </row>
-    <row r="333" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="AX332" s="1"/>
+    </row>
+    <row r="333" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A333" s="1"/>
       <c r="B333" s="1"/>
       <c r="C333" s="1"/>
@@ -18980,8 +19309,9 @@
       <c r="AU333" s="1"/>
       <c r="AV333" s="1"/>
       <c r="AW333" s="1"/>
-    </row>
-    <row r="334" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="AX333" s="1"/>
+    </row>
+    <row r="334" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A334" s="1"/>
       <c r="B334" s="1"/>
       <c r="C334" s="1"/>
@@ -19031,8 +19361,9 @@
       <c r="AU334" s="1"/>
       <c r="AV334" s="1"/>
       <c r="AW334" s="1"/>
-    </row>
-    <row r="335" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="AX334" s="1"/>
+    </row>
+    <row r="335" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A335" s="1"/>
       <c r="B335" s="1"/>
       <c r="C335" s="1"/>
@@ -19082,8 +19413,9 @@
       <c r="AU335" s="1"/>
       <c r="AV335" s="1"/>
       <c r="AW335" s="1"/>
-    </row>
-    <row r="336" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="AX335" s="1"/>
+    </row>
+    <row r="336" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A336" s="1"/>
       <c r="B336" s="1"/>
       <c r="C336" s="1"/>
@@ -19133,8 +19465,9 @@
       <c r="AU336" s="1"/>
       <c r="AV336" s="1"/>
       <c r="AW336" s="1"/>
-    </row>
-    <row r="337" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="AX336" s="1"/>
+    </row>
+    <row r="337" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A337" s="1"/>
       <c r="B337" s="1"/>
       <c r="C337" s="1"/>
@@ -19184,8 +19517,9 @@
       <c r="AU337" s="1"/>
       <c r="AV337" s="1"/>
       <c r="AW337" s="1"/>
-    </row>
-    <row r="338" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="AX337" s="1"/>
+    </row>
+    <row r="338" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A338" s="1"/>
       <c r="B338" s="1"/>
       <c r="C338" s="1"/>
@@ -19235,8 +19569,9 @@
       <c r="AU338" s="1"/>
       <c r="AV338" s="1"/>
       <c r="AW338" s="1"/>
-    </row>
-    <row r="339" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="AX338" s="1"/>
+    </row>
+    <row r="339" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A339" s="1"/>
       <c r="B339" s="1"/>
       <c r="C339" s="1"/>
@@ -19286,8 +19621,9 @@
       <c r="AU339" s="1"/>
       <c r="AV339" s="1"/>
       <c r="AW339" s="1"/>
-    </row>
-    <row r="340" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="AX339" s="1"/>
+    </row>
+    <row r="340" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A340" s="1"/>
       <c r="B340" s="1"/>
       <c r="C340" s="1"/>
@@ -19337,8 +19673,9 @@
       <c r="AU340" s="1"/>
       <c r="AV340" s="1"/>
       <c r="AW340" s="1"/>
-    </row>
-    <row r="341" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="AX340" s="1"/>
+    </row>
+    <row r="341" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A341" s="1"/>
       <c r="B341" s="1"/>
       <c r="C341" s="1"/>
@@ -19388,8 +19725,9 @@
       <c r="AU341" s="1"/>
       <c r="AV341" s="1"/>
       <c r="AW341" s="1"/>
-    </row>
-    <row r="342" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="AX341" s="1"/>
+    </row>
+    <row r="342" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A342" s="1"/>
       <c r="B342" s="1"/>
       <c r="C342" s="1"/>
@@ -19439,8 +19777,9 @@
       <c r="AU342" s="1"/>
       <c r="AV342" s="1"/>
       <c r="AW342" s="1"/>
-    </row>
-    <row r="343" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="AX342" s="1"/>
+    </row>
+    <row r="343" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A343" s="1"/>
       <c r="B343" s="1"/>
       <c r="C343" s="1"/>
@@ -19490,8 +19829,9 @@
       <c r="AU343" s="1"/>
       <c r="AV343" s="1"/>
       <c r="AW343" s="1"/>
-    </row>
-    <row r="344" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="AX343" s="1"/>
+    </row>
+    <row r="344" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A344" s="1"/>
       <c r="B344" s="1"/>
       <c r="C344" s="1"/>
@@ -19541,8 +19881,9 @@
       <c r="AU344" s="1"/>
       <c r="AV344" s="1"/>
       <c r="AW344" s="1"/>
-    </row>
-    <row r="345" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="AX344" s="1"/>
+    </row>
+    <row r="345" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A345" s="1"/>
       <c r="B345" s="1"/>
       <c r="C345" s="1"/>
@@ -19592,8 +19933,9 @@
       <c r="AU345" s="1"/>
       <c r="AV345" s="1"/>
       <c r="AW345" s="1"/>
-    </row>
-    <row r="346" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="AX345" s="1"/>
+    </row>
+    <row r="346" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A346" s="1"/>
       <c r="B346" s="1"/>
       <c r="C346" s="1"/>
@@ -19643,8 +19985,9 @@
       <c r="AU346" s="1"/>
       <c r="AV346" s="1"/>
       <c r="AW346" s="1"/>
-    </row>
-    <row r="347" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="AX346" s="1"/>
+    </row>
+    <row r="347" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A347" s="1"/>
       <c r="B347" s="1"/>
       <c r="C347" s="1"/>
@@ -19694,8 +20037,9 @@
       <c r="AU347" s="1"/>
       <c r="AV347" s="1"/>
       <c r="AW347" s="1"/>
-    </row>
-    <row r="348" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="AX347" s="1"/>
+    </row>
+    <row r="348" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A348" s="1"/>
       <c r="B348" s="1"/>
       <c r="C348" s="1"/>
@@ -19745,8 +20089,9 @@
       <c r="AU348" s="1"/>
       <c r="AV348" s="1"/>
       <c r="AW348" s="1"/>
-    </row>
-    <row r="349" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="AX348" s="1"/>
+    </row>
+    <row r="349" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A349" s="1"/>
       <c r="B349" s="1"/>
       <c r="C349" s="1"/>
@@ -19796,8 +20141,9 @@
       <c r="AU349" s="1"/>
       <c r="AV349" s="1"/>
       <c r="AW349" s="1"/>
-    </row>
-    <row r="350" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="AX349" s="1"/>
+    </row>
+    <row r="350" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A350" s="1"/>
       <c r="B350" s="1"/>
       <c r="C350" s="1"/>
@@ -19847,8 +20193,9 @@
       <c r="AU350" s="1"/>
       <c r="AV350" s="1"/>
       <c r="AW350" s="1"/>
-    </row>
-    <row r="351" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="AX350" s="1"/>
+    </row>
+    <row r="351" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A351" s="1"/>
       <c r="B351" s="1"/>
       <c r="C351" s="1"/>
@@ -19898,8 +20245,9 @@
       <c r="AU351" s="1"/>
       <c r="AV351" s="1"/>
       <c r="AW351" s="1"/>
-    </row>
-    <row r="352" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="AX351" s="1"/>
+    </row>
+    <row r="352" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A352" s="1"/>
       <c r="B352" s="1"/>
       <c r="C352" s="1"/>
@@ -19949,8 +20297,9 @@
       <c r="AU352" s="1"/>
       <c r="AV352" s="1"/>
       <c r="AW352" s="1"/>
-    </row>
-    <row r="353" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="AX352" s="1"/>
+    </row>
+    <row r="353" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A353" s="1"/>
       <c r="B353" s="1"/>
       <c r="C353" s="1"/>
@@ -20000,8 +20349,9 @@
       <c r="AU353" s="1"/>
       <c r="AV353" s="1"/>
       <c r="AW353" s="1"/>
-    </row>
-    <row r="354" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="AX353" s="1"/>
+    </row>
+    <row r="354" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A354" s="1"/>
       <c r="B354" s="1"/>
       <c r="C354" s="1"/>
@@ -20051,8 +20401,9 @@
       <c r="AU354" s="1"/>
       <c r="AV354" s="1"/>
       <c r="AW354" s="1"/>
-    </row>
-    <row r="355" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="AX354" s="1"/>
+    </row>
+    <row r="355" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A355" s="1"/>
       <c r="B355" s="1"/>
       <c r="C355" s="1"/>
@@ -20102,8 +20453,9 @@
       <c r="AU355" s="1"/>
       <c r="AV355" s="1"/>
       <c r="AW355" s="1"/>
-    </row>
-    <row r="356" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="AX355" s="1"/>
+    </row>
+    <row r="356" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A356" s="1"/>
       <c r="B356" s="1"/>
       <c r="C356" s="1"/>
@@ -20153,8 +20505,9 @@
       <c r="AU356" s="1"/>
       <c r="AV356" s="1"/>
       <c r="AW356" s="1"/>
-    </row>
-    <row r="357" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="AX356" s="1"/>
+    </row>
+    <row r="357" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A357" s="1"/>
       <c r="B357" s="1"/>
       <c r="C357" s="1"/>
@@ -20204,8 +20557,9 @@
       <c r="AU357" s="1"/>
       <c r="AV357" s="1"/>
       <c r="AW357" s="1"/>
-    </row>
-    <row r="358" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="AX357" s="1"/>
+    </row>
+    <row r="358" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A358" s="1"/>
       <c r="B358" s="1"/>
       <c r="C358" s="1"/>
@@ -20255,8 +20609,9 @@
       <c r="AU358" s="1"/>
       <c r="AV358" s="1"/>
       <c r="AW358" s="1"/>
-    </row>
-    <row r="359" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="AX358" s="1"/>
+    </row>
+    <row r="359" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A359" s="1"/>
       <c r="B359" s="1"/>
       <c r="C359" s="1"/>
@@ -20306,8 +20661,9 @@
       <c r="AU359" s="1"/>
       <c r="AV359" s="1"/>
       <c r="AW359" s="1"/>
-    </row>
-    <row r="360" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="AX359" s="1"/>
+    </row>
+    <row r="360" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A360" s="1"/>
       <c r="B360" s="1"/>
       <c r="C360" s="1"/>
@@ -20357,8 +20713,9 @@
       <c r="AU360" s="1"/>
       <c r="AV360" s="1"/>
       <c r="AW360" s="1"/>
-    </row>
-    <row r="361" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="AX360" s="1"/>
+    </row>
+    <row r="361" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A361" s="1"/>
       <c r="B361" s="1"/>
       <c r="C361" s="1"/>
@@ -20408,8 +20765,9 @@
       <c r="AU361" s="1"/>
       <c r="AV361" s="1"/>
       <c r="AW361" s="1"/>
-    </row>
-    <row r="362" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="AX361" s="1"/>
+    </row>
+    <row r="362" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A362" s="1"/>
       <c r="B362" s="1"/>
       <c r="C362" s="1"/>
@@ -20459,8 +20817,9 @@
       <c r="AU362" s="1"/>
       <c r="AV362" s="1"/>
       <c r="AW362" s="1"/>
-    </row>
-    <row r="363" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="AX362" s="1"/>
+    </row>
+    <row r="363" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A363" s="1"/>
       <c r="B363" s="1"/>
       <c r="C363" s="1"/>
@@ -20510,8 +20869,9 @@
       <c r="AU363" s="1"/>
       <c r="AV363" s="1"/>
       <c r="AW363" s="1"/>
-    </row>
-    <row r="364" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="AX363" s="1"/>
+    </row>
+    <row r="364" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A364" s="1"/>
       <c r="B364" s="1"/>
       <c r="C364" s="1"/>
@@ -20561,8 +20921,9 @@
       <c r="AU364" s="1"/>
       <c r="AV364" s="1"/>
       <c r="AW364" s="1"/>
-    </row>
-    <row r="365" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="AX364" s="1"/>
+    </row>
+    <row r="365" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A365" s="1"/>
       <c r="B365" s="1"/>
       <c r="C365" s="1"/>
@@ -20612,8 +20973,9 @@
       <c r="AU365" s="1"/>
       <c r="AV365" s="1"/>
       <c r="AW365" s="1"/>
-    </row>
-    <row r="366" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="AX365" s="1"/>
+    </row>
+    <row r="366" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A366" s="1"/>
       <c r="B366" s="1"/>
       <c r="C366" s="1"/>
@@ -20663,8 +21025,9 @@
       <c r="AU366" s="1"/>
       <c r="AV366" s="1"/>
       <c r="AW366" s="1"/>
-    </row>
-    <row r="367" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="AX366" s="1"/>
+    </row>
+    <row r="367" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A367" s="1"/>
       <c r="B367" s="1"/>
       <c r="C367" s="1"/>
@@ -20714,8 +21077,9 @@
       <c r="AU367" s="1"/>
       <c r="AV367" s="1"/>
       <c r="AW367" s="1"/>
-    </row>
-    <row r="368" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="AX367" s="1"/>
+    </row>
+    <row r="368" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A368" s="1"/>
       <c r="B368" s="1"/>
       <c r="C368" s="1"/>
@@ -20765,8 +21129,9 @@
       <c r="AU368" s="1"/>
       <c r="AV368" s="1"/>
       <c r="AW368" s="1"/>
-    </row>
-    <row r="369" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="AX368" s="1"/>
+    </row>
+    <row r="369" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A369" s="1"/>
       <c r="B369" s="1"/>
       <c r="C369" s="1"/>
@@ -20816,8 +21181,9 @@
       <c r="AU369" s="1"/>
       <c r="AV369" s="1"/>
       <c r="AW369" s="1"/>
-    </row>
-    <row r="370" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="AX369" s="1"/>
+    </row>
+    <row r="370" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A370" s="1"/>
       <c r="B370" s="1"/>
       <c r="C370" s="1"/>
@@ -20867,8 +21233,9 @@
       <c r="AU370" s="1"/>
       <c r="AV370" s="1"/>
       <c r="AW370" s="1"/>
-    </row>
-    <row r="371" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="AX370" s="1"/>
+    </row>
+    <row r="371" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A371" s="1"/>
       <c r="B371" s="1"/>
       <c r="C371" s="1"/>
@@ -20918,8 +21285,9 @@
       <c r="AU371" s="1"/>
       <c r="AV371" s="1"/>
       <c r="AW371" s="1"/>
-    </row>
-    <row r="372" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="AX371" s="1"/>
+    </row>
+    <row r="372" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A372" s="1"/>
       <c r="B372" s="1"/>
       <c r="C372" s="1"/>
@@ -20969,8 +21337,9 @@
       <c r="AU372" s="1"/>
       <c r="AV372" s="1"/>
       <c r="AW372" s="1"/>
-    </row>
-    <row r="373" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="AX372" s="1"/>
+    </row>
+    <row r="373" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A373" s="1"/>
       <c r="B373" s="1"/>
       <c r="C373" s="1"/>
@@ -21020,8 +21389,9 @@
       <c r="AU373" s="1"/>
       <c r="AV373" s="1"/>
       <c r="AW373" s="1"/>
-    </row>
-    <row r="374" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="AX373" s="1"/>
+    </row>
+    <row r="374" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A374" s="1"/>
       <c r="B374" s="1"/>
       <c r="C374" s="1"/>
@@ -21071,8 +21441,9 @@
       <c r="AU374" s="1"/>
       <c r="AV374" s="1"/>
       <c r="AW374" s="1"/>
-    </row>
-    <row r="375" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="AX374" s="1"/>
+    </row>
+    <row r="375" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A375" s="1"/>
       <c r="B375" s="1"/>
       <c r="C375" s="1"/>
@@ -21122,8 +21493,9 @@
       <c r="AU375" s="1"/>
       <c r="AV375" s="1"/>
       <c r="AW375" s="1"/>
-    </row>
-    <row r="376" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="AX375" s="1"/>
+    </row>
+    <row r="376" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A376" s="1"/>
       <c r="B376" s="1"/>
       <c r="C376" s="1"/>
@@ -21173,8 +21545,9 @@
       <c r="AU376" s="1"/>
       <c r="AV376" s="1"/>
       <c r="AW376" s="1"/>
-    </row>
-    <row r="377" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="AX376" s="1"/>
+    </row>
+    <row r="377" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A377" s="1"/>
       <c r="B377" s="1"/>
       <c r="C377" s="1"/>
@@ -21224,8 +21597,9 @@
       <c r="AU377" s="1"/>
       <c r="AV377" s="1"/>
       <c r="AW377" s="1"/>
-    </row>
-    <row r="378" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="AX377" s="1"/>
+    </row>
+    <row r="378" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A378" s="1"/>
       <c r="B378" s="1"/>
       <c r="C378" s="1"/>
@@ -21275,8 +21649,9 @@
       <c r="AU378" s="1"/>
       <c r="AV378" s="1"/>
       <c r="AW378" s="1"/>
-    </row>
-    <row r="379" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="AX378" s="1"/>
+    </row>
+    <row r="379" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A379" s="1"/>
       <c r="B379" s="1"/>
       <c r="C379" s="1"/>
@@ -21326,8 +21701,9 @@
       <c r="AU379" s="1"/>
       <c r="AV379" s="1"/>
       <c r="AW379" s="1"/>
-    </row>
-    <row r="380" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="AX379" s="1"/>
+    </row>
+    <row r="380" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A380" s="1"/>
       <c r="B380" s="1"/>
       <c r="C380" s="1"/>
@@ -21377,8 +21753,9 @@
       <c r="AU380" s="1"/>
       <c r="AV380" s="1"/>
       <c r="AW380" s="1"/>
-    </row>
-    <row r="381" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="AX380" s="1"/>
+    </row>
+    <row r="381" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A381" s="1"/>
       <c r="B381" s="1"/>
       <c r="C381" s="1"/>
@@ -21428,8 +21805,9 @@
       <c r="AU381" s="1"/>
       <c r="AV381" s="1"/>
       <c r="AW381" s="1"/>
-    </row>
-    <row r="382" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="AX381" s="1"/>
+    </row>
+    <row r="382" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A382" s="1"/>
       <c r="B382" s="1"/>
       <c r="C382" s="1"/>
@@ -21479,8 +21857,9 @@
       <c r="AU382" s="1"/>
       <c r="AV382" s="1"/>
       <c r="AW382" s="1"/>
-    </row>
-    <row r="383" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="AX382" s="1"/>
+    </row>
+    <row r="383" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A383" s="1"/>
       <c r="B383" s="1"/>
       <c r="C383" s="1"/>
@@ -21530,8 +21909,9 @@
       <c r="AU383" s="1"/>
       <c r="AV383" s="1"/>
       <c r="AW383" s="1"/>
-    </row>
-    <row r="384" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="AX383" s="1"/>
+    </row>
+    <row r="384" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A384" s="1"/>
       <c r="B384" s="1"/>
       <c r="C384" s="1"/>
@@ -21581,8 +21961,9 @@
       <c r="AU384" s="1"/>
       <c r="AV384" s="1"/>
       <c r="AW384" s="1"/>
-    </row>
-    <row r="385" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="AX384" s="1"/>
+    </row>
+    <row r="385" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A385" s="1"/>
       <c r="B385" s="1"/>
       <c r="C385" s="1"/>
@@ -21632,8 +22013,9 @@
       <c r="AU385" s="1"/>
       <c r="AV385" s="1"/>
       <c r="AW385" s="1"/>
-    </row>
-    <row r="386" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="AX385" s="1"/>
+    </row>
+    <row r="386" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A386" s="1"/>
       <c r="B386" s="1"/>
       <c r="C386" s="1"/>
@@ -21683,8 +22065,9 @@
       <c r="AU386" s="1"/>
       <c r="AV386" s="1"/>
       <c r="AW386" s="1"/>
-    </row>
-    <row r="387" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="AX386" s="1"/>
+    </row>
+    <row r="387" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A387" s="1"/>
       <c r="B387" s="1"/>
       <c r="C387" s="1"/>
@@ -21734,8 +22117,9 @@
       <c r="AU387" s="1"/>
       <c r="AV387" s="1"/>
       <c r="AW387" s="1"/>
-    </row>
-    <row r="388" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="AX387" s="1"/>
+    </row>
+    <row r="388" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A388" s="1"/>
       <c r="B388" s="1"/>
       <c r="C388" s="1"/>
@@ -21785,8 +22169,9 @@
       <c r="AU388" s="1"/>
       <c r="AV388" s="1"/>
       <c r="AW388" s="1"/>
-    </row>
-    <row r="389" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="AX388" s="1"/>
+    </row>
+    <row r="389" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A389" s="1"/>
       <c r="B389" s="1"/>
       <c r="C389" s="1"/>
@@ -21836,8 +22221,9 @@
       <c r="AU389" s="1"/>
       <c r="AV389" s="1"/>
       <c r="AW389" s="1"/>
-    </row>
-    <row r="390" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="AX389" s="1"/>
+    </row>
+    <row r="390" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A390" s="1"/>
       <c r="B390" s="1"/>
       <c r="C390" s="1"/>
@@ -21887,8 +22273,9 @@
       <c r="AU390" s="1"/>
       <c r="AV390" s="1"/>
       <c r="AW390" s="1"/>
-    </row>
-    <row r="391" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="AX390" s="1"/>
+    </row>
+    <row r="391" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A391" s="1"/>
       <c r="B391" s="1"/>
       <c r="C391" s="1"/>
@@ -21938,8 +22325,9 @@
       <c r="AU391" s="1"/>
       <c r="AV391" s="1"/>
       <c r="AW391" s="1"/>
-    </row>
-    <row r="392" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="AX391" s="1"/>
+    </row>
+    <row r="392" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A392" s="1"/>
       <c r="B392" s="1"/>
       <c r="C392" s="1"/>
@@ -21989,8 +22377,9 @@
       <c r="AU392" s="1"/>
       <c r="AV392" s="1"/>
       <c r="AW392" s="1"/>
-    </row>
-    <row r="393" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="AX392" s="1"/>
+    </row>
+    <row r="393" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A393" s="1"/>
       <c r="B393" s="1"/>
       <c r="C393" s="1"/>
@@ -22040,8 +22429,9 @@
       <c r="AU393" s="1"/>
       <c r="AV393" s="1"/>
       <c r="AW393" s="1"/>
-    </row>
-    <row r="394" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="AX393" s="1"/>
+    </row>
+    <row r="394" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A394" s="1"/>
       <c r="B394" s="1"/>
       <c r="C394" s="1"/>
@@ -22091,8 +22481,9 @@
       <c r="AU394" s="1"/>
       <c r="AV394" s="1"/>
       <c r="AW394" s="1"/>
-    </row>
-    <row r="395" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="AX394" s="1"/>
+    </row>
+    <row r="395" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A395" s="1"/>
       <c r="B395" s="1"/>
       <c r="C395" s="1"/>
@@ -22142,8 +22533,9 @@
       <c r="AU395" s="1"/>
       <c r="AV395" s="1"/>
       <c r="AW395" s="1"/>
-    </row>
-    <row r="396" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="AX395" s="1"/>
+    </row>
+    <row r="396" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A396" s="1"/>
       <c r="B396" s="1"/>
       <c r="C396" s="1"/>
@@ -22193,8 +22585,9 @@
       <c r="AU396" s="1"/>
       <c r="AV396" s="1"/>
       <c r="AW396" s="1"/>
-    </row>
-    <row r="397" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="AX396" s="1"/>
+    </row>
+    <row r="397" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A397" s="1"/>
       <c r="B397" s="1"/>
       <c r="C397" s="1"/>
@@ -22244,8 +22637,9 @@
       <c r="AU397" s="1"/>
       <c r="AV397" s="1"/>
       <c r="AW397" s="1"/>
-    </row>
-    <row r="398" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="AX397" s="1"/>
+    </row>
+    <row r="398" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A398" s="1"/>
       <c r="B398" s="1"/>
       <c r="C398" s="1"/>
@@ -22295,8 +22689,9 @@
       <c r="AU398" s="1"/>
       <c r="AV398" s="1"/>
       <c r="AW398" s="1"/>
-    </row>
-    <row r="399" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="AX398" s="1"/>
+    </row>
+    <row r="399" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A399" s="1"/>
       <c r="B399" s="1"/>
       <c r="C399" s="1"/>
@@ -22346,8 +22741,9 @@
       <c r="AU399" s="1"/>
       <c r="AV399" s="1"/>
       <c r="AW399" s="1"/>
-    </row>
-    <row r="400" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="AX399" s="1"/>
+    </row>
+    <row r="400" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A400" s="1"/>
       <c r="B400" s="1"/>
       <c r="C400" s="1"/>
@@ -22397,8 +22793,9 @@
       <c r="AU400" s="1"/>
       <c r="AV400" s="1"/>
       <c r="AW400" s="1"/>
-    </row>
-    <row r="401" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="AX400" s="1"/>
+    </row>
+    <row r="401" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A401" s="1"/>
       <c r="B401" s="1"/>
       <c r="C401" s="1"/>
@@ -22448,8 +22845,9 @@
       <c r="AU401" s="1"/>
       <c r="AV401" s="1"/>
       <c r="AW401" s="1"/>
-    </row>
-    <row r="402" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="AX401" s="1"/>
+    </row>
+    <row r="402" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A402" s="1"/>
       <c r="B402" s="1"/>
       <c r="C402" s="1"/>
@@ -22499,8 +22897,9 @@
       <c r="AU402" s="1"/>
       <c r="AV402" s="1"/>
       <c r="AW402" s="1"/>
-    </row>
-    <row r="403" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="AX402" s="1"/>
+    </row>
+    <row r="403" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A403" s="1"/>
       <c r="B403" s="1"/>
       <c r="C403" s="1"/>
@@ -22550,8 +22949,9 @@
       <c r="AU403" s="1"/>
       <c r="AV403" s="1"/>
       <c r="AW403" s="1"/>
-    </row>
-    <row r="404" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="AX403" s="1"/>
+    </row>
+    <row r="404" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A404" s="1"/>
       <c r="B404" s="1"/>
       <c r="C404" s="1"/>
@@ -22601,8 +23001,9 @@
       <c r="AU404" s="1"/>
       <c r="AV404" s="1"/>
       <c r="AW404" s="1"/>
-    </row>
-    <row r="405" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="AX404" s="1"/>
+    </row>
+    <row r="405" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A405" s="1"/>
       <c r="B405" s="1"/>
       <c r="C405" s="1"/>
@@ -22652,8 +23053,9 @@
       <c r="AU405" s="1"/>
       <c r="AV405" s="1"/>
       <c r="AW405" s="1"/>
-    </row>
-    <row r="406" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="AX405" s="1"/>
+    </row>
+    <row r="406" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A406" s="1"/>
       <c r="B406" s="1"/>
       <c r="C406" s="1"/>
@@ -22703,8 +23105,9 @@
       <c r="AU406" s="1"/>
       <c r="AV406" s="1"/>
       <c r="AW406" s="1"/>
-    </row>
-    <row r="407" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="AX406" s="1"/>
+    </row>
+    <row r="407" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A407" s="1"/>
       <c r="B407" s="1"/>
       <c r="C407" s="1"/>
@@ -22754,8 +23157,9 @@
       <c r="AU407" s="1"/>
       <c r="AV407" s="1"/>
       <c r="AW407" s="1"/>
-    </row>
-    <row r="408" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="AX407" s="1"/>
+    </row>
+    <row r="408" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A408" s="1"/>
       <c r="B408" s="1"/>
       <c r="C408" s="1"/>
@@ -22805,8 +23209,9 @@
       <c r="AU408" s="1"/>
       <c r="AV408" s="1"/>
       <c r="AW408" s="1"/>
-    </row>
-    <row r="409" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="AX408" s="1"/>
+    </row>
+    <row r="409" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A409" s="1"/>
       <c r="B409" s="1"/>
       <c r="C409" s="1"/>
@@ -22856,8 +23261,9 @@
       <c r="AU409" s="1"/>
       <c r="AV409" s="1"/>
       <c r="AW409" s="1"/>
-    </row>
-    <row r="410" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="AX409" s="1"/>
+    </row>
+    <row r="410" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A410" s="1"/>
       <c r="B410" s="1"/>
       <c r="C410" s="1"/>
@@ -22907,8 +23313,9 @@
       <c r="AU410" s="1"/>
       <c r="AV410" s="1"/>
       <c r="AW410" s="1"/>
-    </row>
-    <row r="411" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="AX410" s="1"/>
+    </row>
+    <row r="411" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A411" s="1"/>
       <c r="B411" s="1"/>
       <c r="C411" s="1"/>
@@ -22958,8 +23365,9 @@
       <c r="AU411" s="1"/>
       <c r="AV411" s="1"/>
       <c r="AW411" s="1"/>
-    </row>
-    <row r="412" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="AX411" s="1"/>
+    </row>
+    <row r="412" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A412" s="1"/>
       <c r="B412" s="1"/>
       <c r="C412" s="1"/>
@@ -23009,8 +23417,9 @@
       <c r="AU412" s="1"/>
       <c r="AV412" s="1"/>
       <c r="AW412" s="1"/>
-    </row>
-    <row r="413" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="AX412" s="1"/>
+    </row>
+    <row r="413" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A413" s="1"/>
       <c r="B413" s="1"/>
       <c r="C413" s="1"/>
@@ -23060,8 +23469,9 @@
       <c r="AU413" s="1"/>
       <c r="AV413" s="1"/>
       <c r="AW413" s="1"/>
-    </row>
-    <row r="414" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="AX413" s="1"/>
+    </row>
+    <row r="414" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A414" s="1"/>
       <c r="B414" s="1"/>
       <c r="C414" s="1"/>
@@ -23111,8 +23521,9 @@
       <c r="AU414" s="1"/>
       <c r="AV414" s="1"/>
       <c r="AW414" s="1"/>
-    </row>
-    <row r="415" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="AX414" s="1"/>
+    </row>
+    <row r="415" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A415" s="1"/>
       <c r="B415" s="1"/>
       <c r="C415" s="1"/>
@@ -23162,8 +23573,9 @@
       <c r="AU415" s="1"/>
       <c r="AV415" s="1"/>
       <c r="AW415" s="1"/>
-    </row>
-    <row r="416" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="AX415" s="1"/>
+    </row>
+    <row r="416" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A416" s="1"/>
       <c r="B416" s="1"/>
       <c r="C416" s="1"/>
@@ -23213,8 +23625,9 @@
       <c r="AU416" s="1"/>
       <c r="AV416" s="1"/>
       <c r="AW416" s="1"/>
-    </row>
-    <row r="417" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="AX416" s="1"/>
+    </row>
+    <row r="417" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A417" s="1"/>
       <c r="B417" s="1"/>
       <c r="C417" s="1"/>
@@ -23264,8 +23677,9 @@
       <c r="AU417" s="1"/>
       <c r="AV417" s="1"/>
       <c r="AW417" s="1"/>
-    </row>
-    <row r="418" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="AX417" s="1"/>
+    </row>
+    <row r="418" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A418" s="1"/>
       <c r="B418" s="1"/>
       <c r="C418" s="1"/>
@@ -23315,8 +23729,9 @@
       <c r="AU418" s="1"/>
       <c r="AV418" s="1"/>
       <c r="AW418" s="1"/>
-    </row>
-    <row r="419" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="AX418" s="1"/>
+    </row>
+    <row r="419" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A419" s="1"/>
       <c r="B419" s="1"/>
       <c r="C419" s="1"/>
@@ -23366,8 +23781,9 @@
       <c r="AU419" s="1"/>
       <c r="AV419" s="1"/>
       <c r="AW419" s="1"/>
-    </row>
-    <row r="420" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="AX419" s="1"/>
+    </row>
+    <row r="420" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A420" s="1"/>
       <c r="B420" s="1"/>
       <c r="C420" s="1"/>
@@ -23417,8 +23833,9 @@
       <c r="AU420" s="1"/>
       <c r="AV420" s="1"/>
       <c r="AW420" s="1"/>
-    </row>
-    <row r="421" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="AX420" s="1"/>
+    </row>
+    <row r="421" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A421" s="1"/>
       <c r="B421" s="1"/>
       <c r="C421" s="1"/>
@@ -23468,8 +23885,9 @@
       <c r="AU421" s="1"/>
       <c r="AV421" s="1"/>
       <c r="AW421" s="1"/>
-    </row>
-    <row r="422" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="AX421" s="1"/>
+    </row>
+    <row r="422" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A422" s="1"/>
       <c r="B422" s="1"/>
       <c r="C422" s="1"/>
@@ -23519,8 +23937,9 @@
       <c r="AU422" s="1"/>
       <c r="AV422" s="1"/>
       <c r="AW422" s="1"/>
-    </row>
-    <row r="423" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="AX422" s="1"/>
+    </row>
+    <row r="423" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A423" s="1"/>
       <c r="B423" s="1"/>
       <c r="C423" s="1"/>
@@ -23570,8 +23989,9 @@
       <c r="AU423" s="1"/>
       <c r="AV423" s="1"/>
       <c r="AW423" s="1"/>
-    </row>
-    <row r="424" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="AX423" s="1"/>
+    </row>
+    <row r="424" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A424" s="1"/>
       <c r="B424" s="1"/>
       <c r="C424" s="1"/>
@@ -23621,8 +24041,9 @@
       <c r="AU424" s="1"/>
       <c r="AV424" s="1"/>
       <c r="AW424" s="1"/>
-    </row>
-    <row r="425" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="AX424" s="1"/>
+    </row>
+    <row r="425" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A425" s="1"/>
       <c r="B425" s="1"/>
       <c r="C425" s="1"/>
@@ -23672,8 +24093,9 @@
       <c r="AU425" s="1"/>
       <c r="AV425" s="1"/>
       <c r="AW425" s="1"/>
-    </row>
-    <row r="426" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="AX425" s="1"/>
+    </row>
+    <row r="426" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A426" s="1"/>
       <c r="B426" s="1"/>
       <c r="C426" s="1"/>
@@ -23723,8 +24145,9 @@
       <c r="AU426" s="1"/>
       <c r="AV426" s="1"/>
       <c r="AW426" s="1"/>
-    </row>
-    <row r="427" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="AX426" s="1"/>
+    </row>
+    <row r="427" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A427" s="1"/>
       <c r="B427" s="1"/>
       <c r="C427" s="1"/>
@@ -23774,8 +24197,9 @@
       <c r="AU427" s="1"/>
       <c r="AV427" s="1"/>
       <c r="AW427" s="1"/>
-    </row>
-    <row r="428" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="AX427" s="1"/>
+    </row>
+    <row r="428" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A428" s="1"/>
       <c r="B428" s="1"/>
       <c r="C428" s="1"/>
@@ -23825,8 +24249,9 @@
       <c r="AU428" s="1"/>
       <c r="AV428" s="1"/>
       <c r="AW428" s="1"/>
-    </row>
-    <row r="429" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="AX428" s="1"/>
+    </row>
+    <row r="429" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A429" s="1"/>
       <c r="B429" s="1"/>
       <c r="C429" s="1"/>
@@ -23876,8 +24301,9 @@
       <c r="AU429" s="1"/>
       <c r="AV429" s="1"/>
       <c r="AW429" s="1"/>
-    </row>
-    <row r="430" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="AX429" s="1"/>
+    </row>
+    <row r="430" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A430" s="1"/>
       <c r="B430" s="1"/>
       <c r="C430" s="1"/>
@@ -23927,8 +24353,9 @@
       <c r="AU430" s="1"/>
       <c r="AV430" s="1"/>
       <c r="AW430" s="1"/>
-    </row>
-    <row r="431" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="AX430" s="1"/>
+    </row>
+    <row r="431" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A431" s="1"/>
       <c r="B431" s="1"/>
       <c r="C431" s="1"/>
@@ -23978,8 +24405,9 @@
       <c r="AU431" s="1"/>
       <c r="AV431" s="1"/>
       <c r="AW431" s="1"/>
-    </row>
-    <row r="432" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="AX431" s="1"/>
+    </row>
+    <row r="432" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A432" s="1"/>
       <c r="B432" s="1"/>
       <c r="C432" s="1"/>
@@ -24029,8 +24457,9 @@
       <c r="AU432" s="1"/>
       <c r="AV432" s="1"/>
       <c r="AW432" s="1"/>
-    </row>
-    <row r="433" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="AX432" s="1"/>
+    </row>
+    <row r="433" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A433" s="1"/>
       <c r="B433" s="1"/>
       <c r="C433" s="1"/>
@@ -24080,8 +24509,9 @@
       <c r="AU433" s="1"/>
       <c r="AV433" s="1"/>
       <c r="AW433" s="1"/>
-    </row>
-    <row r="434" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="AX433" s="1"/>
+    </row>
+    <row r="434" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A434" s="1"/>
       <c r="B434" s="1"/>
       <c r="C434" s="1"/>
@@ -24131,8 +24561,9 @@
       <c r="AU434" s="1"/>
       <c r="AV434" s="1"/>
       <c r="AW434" s="1"/>
-    </row>
-    <row r="435" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="AX434" s="1"/>
+    </row>
+    <row r="435" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A435" s="1"/>
       <c r="B435" s="1"/>
       <c r="C435" s="1"/>
@@ -24182,8 +24613,9 @@
       <c r="AU435" s="1"/>
       <c r="AV435" s="1"/>
       <c r="AW435" s="1"/>
-    </row>
-    <row r="436" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="AX435" s="1"/>
+    </row>
+    <row r="436" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A436" s="1"/>
       <c r="B436" s="1"/>
       <c r="C436" s="1"/>
@@ -24233,8 +24665,9 @@
       <c r="AU436" s="1"/>
       <c r="AV436" s="1"/>
       <c r="AW436" s="1"/>
-    </row>
-    <row r="437" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="AX436" s="1"/>
+    </row>
+    <row r="437" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A437" s="1"/>
       <c r="B437" s="1"/>
       <c r="C437" s="1"/>
@@ -24284,8 +24717,9 @@
       <c r="AU437" s="1"/>
       <c r="AV437" s="1"/>
       <c r="AW437" s="1"/>
-    </row>
-    <row r="438" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="AX437" s="1"/>
+    </row>
+    <row r="438" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A438" s="1"/>
       <c r="B438" s="1"/>
       <c r="C438" s="1"/>
@@ -24335,8 +24769,9 @@
       <c r="AU438" s="1"/>
       <c r="AV438" s="1"/>
       <c r="AW438" s="1"/>
-    </row>
-    <row r="439" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="AX438" s="1"/>
+    </row>
+    <row r="439" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A439" s="1"/>
       <c r="B439" s="1"/>
       <c r="C439" s="1"/>
@@ -24386,8 +24821,9 @@
       <c r="AU439" s="1"/>
       <c r="AV439" s="1"/>
       <c r="AW439" s="1"/>
-    </row>
-    <row r="440" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="AX439" s="1"/>
+    </row>
+    <row r="440" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A440" s="1"/>
       <c r="B440" s="1"/>
       <c r="C440" s="1"/>
@@ -24437,8 +24873,9 @@
       <c r="AU440" s="1"/>
       <c r="AV440" s="1"/>
       <c r="AW440" s="1"/>
-    </row>
-    <row r="441" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="AX440" s="1"/>
+    </row>
+    <row r="441" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A441" s="1"/>
       <c r="B441" s="1"/>
       <c r="C441" s="1"/>
@@ -24488,8 +24925,9 @@
       <c r="AU441" s="1"/>
       <c r="AV441" s="1"/>
       <c r="AW441" s="1"/>
-    </row>
-    <row r="442" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="AX441" s="1"/>
+    </row>
+    <row r="442" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A442" s="1"/>
       <c r="B442" s="1"/>
       <c r="C442" s="1"/>
@@ -24539,8 +24977,9 @@
       <c r="AU442" s="1"/>
       <c r="AV442" s="1"/>
       <c r="AW442" s="1"/>
-    </row>
-    <row r="443" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="AX442" s="1"/>
+    </row>
+    <row r="443" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A443" s="1"/>
       <c r="B443" s="1"/>
       <c r="C443" s="1"/>
@@ -24590,8 +25029,9 @@
       <c r="AU443" s="1"/>
       <c r="AV443" s="1"/>
       <c r="AW443" s="1"/>
-    </row>
-    <row r="444" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="AX443" s="1"/>
+    </row>
+    <row r="444" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A444" s="1"/>
       <c r="B444" s="1"/>
       <c r="C444" s="1"/>
@@ -24641,8 +25081,9 @@
       <c r="AU444" s="1"/>
       <c r="AV444" s="1"/>
       <c r="AW444" s="1"/>
-    </row>
-    <row r="445" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="AX444" s="1"/>
+    </row>
+    <row r="445" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A445" s="1"/>
       <c r="B445" s="1"/>
       <c r="C445" s="1"/>
@@ -24692,8 +25133,9 @@
       <c r="AU445" s="1"/>
       <c r="AV445" s="1"/>
       <c r="AW445" s="1"/>
-    </row>
-    <row r="446" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="AX445" s="1"/>
+    </row>
+    <row r="446" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A446" s="1"/>
       <c r="B446" s="1"/>
       <c r="C446" s="1"/>
@@ -24743,8 +25185,9 @@
       <c r="AU446" s="1"/>
       <c r="AV446" s="1"/>
       <c r="AW446" s="1"/>
-    </row>
-    <row r="447" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="AX446" s="1"/>
+    </row>
+    <row r="447" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A447" s="1"/>
       <c r="B447" s="1"/>
       <c r="C447" s="1"/>
@@ -24794,8 +25237,9 @@
       <c r="AU447" s="1"/>
       <c r="AV447" s="1"/>
       <c r="AW447" s="1"/>
-    </row>
-    <row r="448" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="AX447" s="1"/>
+    </row>
+    <row r="448" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A448" s="1"/>
       <c r="B448" s="1"/>
       <c r="C448" s="1"/>
@@ -24845,8 +25289,9 @@
       <c r="AU448" s="1"/>
       <c r="AV448" s="1"/>
       <c r="AW448" s="1"/>
-    </row>
-    <row r="449" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="AX448" s="1"/>
+    </row>
+    <row r="449" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A449" s="1"/>
       <c r="B449" s="1"/>
       <c r="C449" s="1"/>
@@ -24896,8 +25341,9 @@
       <c r="AU449" s="1"/>
       <c r="AV449" s="1"/>
       <c r="AW449" s="1"/>
-    </row>
-    <row r="450" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="AX449" s="1"/>
+    </row>
+    <row r="450" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A450" s="1"/>
       <c r="B450" s="1"/>
       <c r="C450" s="1"/>
@@ -24947,8 +25393,9 @@
       <c r="AU450" s="1"/>
       <c r="AV450" s="1"/>
       <c r="AW450" s="1"/>
-    </row>
-    <row r="451" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="AX450" s="1"/>
+    </row>
+    <row r="451" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A451" s="1"/>
       <c r="B451" s="1"/>
       <c r="C451" s="1"/>
@@ -24998,8 +25445,9 @@
       <c r="AU451" s="1"/>
       <c r="AV451" s="1"/>
       <c r="AW451" s="1"/>
-    </row>
-    <row r="452" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="AX451" s="1"/>
+    </row>
+    <row r="452" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A452" s="1"/>
       <c r="B452" s="1"/>
       <c r="C452" s="1"/>
@@ -25049,8 +25497,9 @@
       <c r="AU452" s="1"/>
       <c r="AV452" s="1"/>
       <c r="AW452" s="1"/>
-    </row>
-    <row r="453" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="AX452" s="1"/>
+    </row>
+    <row r="453" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A453" s="1"/>
       <c r="B453" s="1"/>
       <c r="C453" s="1"/>
@@ -25100,8 +25549,9 @@
       <c r="AU453" s="1"/>
       <c r="AV453" s="1"/>
       <c r="AW453" s="1"/>
-    </row>
-    <row r="454" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="AX453" s="1"/>
+    </row>
+    <row r="454" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A454" s="1"/>
       <c r="B454" s="1"/>
       <c r="C454" s="1"/>
@@ -25151,8 +25601,9 @@
       <c r="AU454" s="1"/>
       <c r="AV454" s="1"/>
       <c r="AW454" s="1"/>
-    </row>
-    <row r="455" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="AX454" s="1"/>
+    </row>
+    <row r="455" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A455" s="1"/>
       <c r="B455" s="1"/>
       <c r="C455" s="1"/>
@@ -25202,8 +25653,9 @@
       <c r="AU455" s="1"/>
       <c r="AV455" s="1"/>
       <c r="AW455" s="1"/>
-    </row>
-    <row r="456" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="AX455" s="1"/>
+    </row>
+    <row r="456" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A456" s="1"/>
       <c r="B456" s="1"/>
       <c r="C456" s="1"/>
@@ -25253,8 +25705,9 @@
       <c r="AU456" s="1"/>
       <c r="AV456" s="1"/>
       <c r="AW456" s="1"/>
-    </row>
-    <row r="457" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="AX456" s="1"/>
+    </row>
+    <row r="457" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A457" s="1"/>
       <c r="B457" s="1"/>
       <c r="C457" s="1"/>
@@ -25304,8 +25757,9 @@
       <c r="AU457" s="1"/>
       <c r="AV457" s="1"/>
       <c r="AW457" s="1"/>
-    </row>
-    <row r="458" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="AX457" s="1"/>
+    </row>
+    <row r="458" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A458" s="1"/>
       <c r="B458" s="1"/>
       <c r="C458" s="1"/>
@@ -25355,8 +25809,9 @@
       <c r="AU458" s="1"/>
       <c r="AV458" s="1"/>
       <c r="AW458" s="1"/>
-    </row>
-    <row r="459" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="AX458" s="1"/>
+    </row>
+    <row r="459" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A459" s="1"/>
       <c r="B459" s="1"/>
       <c r="C459" s="1"/>
@@ -25406,8 +25861,9 @@
       <c r="AU459" s="1"/>
       <c r="AV459" s="1"/>
       <c r="AW459" s="1"/>
-    </row>
-    <row r="460" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="AX459" s="1"/>
+    </row>
+    <row r="460" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A460" s="1"/>
       <c r="B460" s="1"/>
       <c r="C460" s="1"/>
@@ -25457,8 +25913,9 @@
       <c r="AU460" s="1"/>
       <c r="AV460" s="1"/>
       <c r="AW460" s="1"/>
-    </row>
-    <row r="461" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="AX460" s="1"/>
+    </row>
+    <row r="461" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A461" s="1"/>
       <c r="B461" s="1"/>
       <c r="C461" s="1"/>
@@ -25508,8 +25965,9 @@
       <c r="AU461" s="1"/>
       <c r="AV461" s="1"/>
       <c r="AW461" s="1"/>
-    </row>
-    <row r="462" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="AX461" s="1"/>
+    </row>
+    <row r="462" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A462" s="1"/>
       <c r="B462" s="1"/>
       <c r="C462" s="1"/>
@@ -25559,8 +26017,9 @@
       <c r="AU462" s="1"/>
       <c r="AV462" s="1"/>
       <c r="AW462" s="1"/>
-    </row>
-    <row r="463" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="AX462" s="1"/>
+    </row>
+    <row r="463" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A463" s="1"/>
       <c r="B463" s="1"/>
       <c r="C463" s="1"/>
@@ -25610,8 +26069,9 @@
       <c r="AU463" s="1"/>
       <c r="AV463" s="1"/>
       <c r="AW463" s="1"/>
-    </row>
-    <row r="464" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="AX463" s="1"/>
+    </row>
+    <row r="464" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A464" s="1"/>
       <c r="B464" s="1"/>
       <c r="C464" s="1"/>
@@ -25661,8 +26121,9 @@
       <c r="AU464" s="1"/>
       <c r="AV464" s="1"/>
       <c r="AW464" s="1"/>
-    </row>
-    <row r="465" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="AX464" s="1"/>
+    </row>
+    <row r="465" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A465" s="1"/>
       <c r="B465" s="1"/>
       <c r="C465" s="1"/>
@@ -25712,8 +26173,9 @@
       <c r="AU465" s="1"/>
       <c r="AV465" s="1"/>
       <c r="AW465" s="1"/>
-    </row>
-    <row r="466" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="AX465" s="1"/>
+    </row>
+    <row r="466" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A466" s="1"/>
       <c r="B466" s="1"/>
       <c r="C466" s="1"/>
@@ -25763,8 +26225,9 @@
       <c r="AU466" s="1"/>
       <c r="AV466" s="1"/>
       <c r="AW466" s="1"/>
-    </row>
-    <row r="467" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="AX466" s="1"/>
+    </row>
+    <row r="467" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A467" s="1"/>
       <c r="B467" s="1"/>
       <c r="C467" s="1"/>
@@ -25814,8 +26277,9 @@
       <c r="AU467" s="1"/>
       <c r="AV467" s="1"/>
       <c r="AW467" s="1"/>
-    </row>
-    <row r="468" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="AX467" s="1"/>
+    </row>
+    <row r="468" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A468" s="1"/>
       <c r="B468" s="1"/>
       <c r="C468" s="1"/>
@@ -25865,8 +26329,9 @@
       <c r="AU468" s="1"/>
       <c r="AV468" s="1"/>
       <c r="AW468" s="1"/>
-    </row>
-    <row r="469" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="AX468" s="1"/>
+    </row>
+    <row r="469" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A469" s="1"/>
       <c r="B469" s="1"/>
       <c r="C469" s="1"/>
@@ -25916,8 +26381,9 @@
       <c r="AU469" s="1"/>
       <c r="AV469" s="1"/>
       <c r="AW469" s="1"/>
-    </row>
-    <row r="470" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="AX469" s="1"/>
+    </row>
+    <row r="470" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A470" s="1"/>
       <c r="B470" s="1"/>
       <c r="C470" s="1"/>
@@ -25967,8 +26433,9 @@
       <c r="AU470" s="1"/>
       <c r="AV470" s="1"/>
       <c r="AW470" s="1"/>
-    </row>
-    <row r="471" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="AX470" s="1"/>
+    </row>
+    <row r="471" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A471" s="1"/>
       <c r="B471" s="1"/>
       <c r="C471" s="1"/>
@@ -26018,8 +26485,9 @@
       <c r="AU471" s="1"/>
       <c r="AV471" s="1"/>
       <c r="AW471" s="1"/>
-    </row>
-    <row r="472" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="AX471" s="1"/>
+    </row>
+    <row r="472" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A472" s="1"/>
       <c r="B472" s="1"/>
       <c r="C472" s="1"/>
@@ -26069,8 +26537,9 @@
       <c r="AU472" s="1"/>
       <c r="AV472" s="1"/>
       <c r="AW472" s="1"/>
-    </row>
-    <row r="473" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="AX472" s="1"/>
+    </row>
+    <row r="473" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A473" s="1"/>
       <c r="B473" s="1"/>
       <c r="C473" s="1"/>
@@ -26120,8 +26589,9 @@
       <c r="AU473" s="1"/>
       <c r="AV473" s="1"/>
       <c r="AW473" s="1"/>
-    </row>
-    <row r="474" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="AX473" s="1"/>
+    </row>
+    <row r="474" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A474" s="1"/>
       <c r="B474" s="1"/>
       <c r="C474" s="1"/>
@@ -26171,8 +26641,9 @@
       <c r="AU474" s="1"/>
       <c r="AV474" s="1"/>
       <c r="AW474" s="1"/>
-    </row>
-    <row r="475" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="AX474" s="1"/>
+    </row>
+    <row r="475" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A475" s="1"/>
       <c r="B475" s="1"/>
       <c r="C475" s="1"/>
@@ -26222,8 +26693,9 @@
       <c r="AU475" s="1"/>
       <c r="AV475" s="1"/>
       <c r="AW475" s="1"/>
-    </row>
-    <row r="476" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="AX475" s="1"/>
+    </row>
+    <row r="476" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A476" s="1"/>
       <c r="B476" s="1"/>
       <c r="C476" s="1"/>
@@ -26273,8 +26745,9 @@
       <c r="AU476" s="1"/>
       <c r="AV476" s="1"/>
       <c r="AW476" s="1"/>
-    </row>
-    <row r="477" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="AX476" s="1"/>
+    </row>
+    <row r="477" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A477" s="1"/>
       <c r="B477" s="1"/>
       <c r="C477" s="1"/>
@@ -26324,8 +26797,9 @@
       <c r="AU477" s="1"/>
       <c r="AV477" s="1"/>
       <c r="AW477" s="1"/>
-    </row>
-    <row r="478" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="AX477" s="1"/>
+    </row>
+    <row r="478" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A478" s="1"/>
       <c r="B478" s="1"/>
       <c r="C478" s="1"/>
@@ -26375,8 +26849,9 @@
       <c r="AU478" s="1"/>
       <c r="AV478" s="1"/>
       <c r="AW478" s="1"/>
-    </row>
-    <row r="479" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="AX478" s="1"/>
+    </row>
+    <row r="479" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A479" s="1"/>
       <c r="B479" s="1"/>
       <c r="C479" s="1"/>
@@ -26426,8 +26901,9 @@
       <c r="AU479" s="1"/>
       <c r="AV479" s="1"/>
       <c r="AW479" s="1"/>
-    </row>
-    <row r="480" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="AX479" s="1"/>
+    </row>
+    <row r="480" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A480" s="1"/>
       <c r="B480" s="1"/>
       <c r="C480" s="1"/>
@@ -26477,8 +26953,9 @@
       <c r="AU480" s="1"/>
       <c r="AV480" s="1"/>
       <c r="AW480" s="1"/>
-    </row>
-    <row r="481" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="AX480" s="1"/>
+    </row>
+    <row r="481" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A481" s="1"/>
       <c r="B481" s="1"/>
       <c r="C481" s="1"/>
@@ -26528,8 +27005,9 @@
       <c r="AU481" s="1"/>
       <c r="AV481" s="1"/>
       <c r="AW481" s="1"/>
-    </row>
-    <row r="482" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="AX481" s="1"/>
+    </row>
+    <row r="482" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A482" s="1"/>
       <c r="B482" s="1"/>
       <c r="C482" s="1"/>
@@ -26579,8 +27057,9 @@
       <c r="AU482" s="1"/>
       <c r="AV482" s="1"/>
       <c r="AW482" s="1"/>
-    </row>
-    <row r="483" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="AX482" s="1"/>
+    </row>
+    <row r="483" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A483" s="1"/>
       <c r="B483" s="1"/>
       <c r="C483" s="1"/>
@@ -26630,8 +27109,9 @@
       <c r="AU483" s="1"/>
       <c r="AV483" s="1"/>
       <c r="AW483" s="1"/>
-    </row>
-    <row r="484" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="AX483" s="1"/>
+    </row>
+    <row r="484" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A484" s="1"/>
       <c r="B484" s="1"/>
       <c r="C484" s="1"/>
@@ -26681,8 +27161,9 @@
       <c r="AU484" s="1"/>
       <c r="AV484" s="1"/>
       <c r="AW484" s="1"/>
-    </row>
-    <row r="485" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="AX484" s="1"/>
+    </row>
+    <row r="485" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A485" s="1"/>
       <c r="B485" s="1"/>
       <c r="C485" s="1"/>
@@ -26732,8 +27213,9 @@
       <c r="AU485" s="1"/>
       <c r="AV485" s="1"/>
       <c r="AW485" s="1"/>
-    </row>
-    <row r="486" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="AX485" s="1"/>
+    </row>
+    <row r="486" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A486" s="1"/>
       <c r="B486" s="1"/>
       <c r="C486" s="1"/>
@@ -26783,8 +27265,9 @@
       <c r="AU486" s="1"/>
       <c r="AV486" s="1"/>
       <c r="AW486" s="1"/>
-    </row>
-    <row r="487" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="AX486" s="1"/>
+    </row>
+    <row r="487" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A487" s="1"/>
       <c r="B487" s="1"/>
       <c r="C487" s="1"/>
@@ -26834,8 +27317,9 @@
       <c r="AU487" s="1"/>
       <c r="AV487" s="1"/>
       <c r="AW487" s="1"/>
-    </row>
-    <row r="488" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="AX487" s="1"/>
+    </row>
+    <row r="488" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A488" s="1"/>
       <c r="B488" s="1"/>
       <c r="C488" s="1"/>
@@ -26885,8 +27369,9 @@
       <c r="AU488" s="1"/>
       <c r="AV488" s="1"/>
       <c r="AW488" s="1"/>
-    </row>
-    <row r="489" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="AX488" s="1"/>
+    </row>
+    <row r="489" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A489" s="1"/>
       <c r="B489" s="1"/>
       <c r="C489" s="1"/>
@@ -26936,8 +27421,9 @@
       <c r="AU489" s="1"/>
       <c r="AV489" s="1"/>
       <c r="AW489" s="1"/>
-    </row>
-    <row r="490" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="AX489" s="1"/>
+    </row>
+    <row r="490" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A490" s="1"/>
       <c r="B490" s="1"/>
       <c r="C490" s="1"/>
@@ -26987,8 +27473,9 @@
       <c r="AU490" s="1"/>
       <c r="AV490" s="1"/>
       <c r="AW490" s="1"/>
-    </row>
-    <row r="491" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="AX490" s="1"/>
+    </row>
+    <row r="491" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A491" s="1"/>
       <c r="B491" s="1"/>
       <c r="C491" s="1"/>
@@ -27038,8 +27525,9 @@
       <c r="AU491" s="1"/>
       <c r="AV491" s="1"/>
       <c r="AW491" s="1"/>
-    </row>
-    <row r="492" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="AX491" s="1"/>
+    </row>
+    <row r="492" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A492" s="1"/>
       <c r="B492" s="1"/>
       <c r="C492" s="1"/>
@@ -27089,8 +27577,9 @@
       <c r="AU492" s="1"/>
       <c r="AV492" s="1"/>
       <c r="AW492" s="1"/>
-    </row>
-    <row r="493" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="AX492" s="1"/>
+    </row>
+    <row r="493" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A493" s="1"/>
       <c r="B493" s="1"/>
       <c r="C493" s="1"/>
@@ -27140,8 +27629,9 @@
       <c r="AU493" s="1"/>
       <c r="AV493" s="1"/>
       <c r="AW493" s="1"/>
-    </row>
-    <row r="494" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="AX493" s="1"/>
+    </row>
+    <row r="494" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A494" s="1"/>
       <c r="B494" s="1"/>
       <c r="C494" s="1"/>
@@ -27191,8 +27681,9 @@
       <c r="AU494" s="1"/>
       <c r="AV494" s="1"/>
       <c r="AW494" s="1"/>
-    </row>
-    <row r="495" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="AX494" s="1"/>
+    </row>
+    <row r="495" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A495" s="1"/>
       <c r="B495" s="1"/>
       <c r="C495" s="1"/>
@@ -27242,8 +27733,9 @@
       <c r="AU495" s="1"/>
       <c r="AV495" s="1"/>
       <c r="AW495" s="1"/>
-    </row>
-    <row r="496" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="AX495" s="1"/>
+    </row>
+    <row r="496" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A496" s="1"/>
       <c r="B496" s="1"/>
       <c r="C496" s="1"/>
@@ -27293,8 +27785,9 @@
       <c r="AU496" s="1"/>
       <c r="AV496" s="1"/>
       <c r="AW496" s="1"/>
-    </row>
-    <row r="497" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="AX496" s="1"/>
+    </row>
+    <row r="497" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A497" s="1"/>
       <c r="B497" s="1"/>
       <c r="C497" s="1"/>
@@ -27344,8 +27837,9 @@
       <c r="AU497" s="1"/>
       <c r="AV497" s="1"/>
       <c r="AW497" s="1"/>
-    </row>
-    <row r="498" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="AX497" s="1"/>
+    </row>
+    <row r="498" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A498" s="1"/>
       <c r="B498" s="1"/>
       <c r="C498" s="1"/>
@@ -27395,8 +27889,9 @@
       <c r="AU498" s="1"/>
       <c r="AV498" s="1"/>
       <c r="AW498" s="1"/>
-    </row>
-    <row r="499" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="AX498" s="1"/>
+    </row>
+    <row r="499" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A499" s="1"/>
       <c r="B499" s="1"/>
       <c r="C499" s="1"/>
@@ -27446,8 +27941,9 @@
       <c r="AU499" s="1"/>
       <c r="AV499" s="1"/>
       <c r="AW499" s="1"/>
-    </row>
-    <row r="500" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="AX499" s="1"/>
+    </row>
+    <row r="500" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A500" s="1"/>
       <c r="B500" s="1"/>
       <c r="C500" s="1"/>
@@ -27497,9 +27993,10 @@
       <c r="AU500" s="1"/>
       <c r="AV500" s="1"/>
       <c r="AW500" s="1"/>
+      <c r="AX500" s="1"/>
     </row>
   </sheetData>
-  <autoFilter ref="A3:AG25" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A3:AH25" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
